--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\develop\2wda_2semester\2WDA_YJSangSa_CapstoneDesign\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\캡스톤\Sources\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736205E-B280-4D43-A909-645FF0F65045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E47D64-6628-45A1-BA6B-757C970844B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="137">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -174,10 +174,6 @@
   </si>
   <si>
     <t>심상희</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>메타플래너</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1800,10 +1796,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>웹 개발</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>상희</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1920,6 +1912,265 @@
         <family val="2"/>
       </rPr>
       <t>view)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드 개발</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드 개발</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>요구사항 정의</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>황주,태권</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.2</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>DIAGRAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멘토링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">관계 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가하고 요구사항 정의</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓생플래너</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표 준비</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.12</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디버깅(웹)</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -2912,6 +3163,9 @@
     <xf numFmtId="0" fontId="57" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2970,22 +3224,11 @@
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3332,10 +3575,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ67"/>
+  <dimension ref="A1:BQ69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3423,44 +3666,44 @@
     </row>
     <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="93"/>
-      <c r="K2" s="93"/>
-      <c r="L2" s="93"/>
-      <c r="M2" s="93"/>
-      <c r="N2" s="93"/>
-      <c r="O2" s="99" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="93"/>
-      <c r="V2" s="93"/>
-      <c r="W2" s="93"/>
-      <c r="X2" s="93"/>
-      <c r="Y2" s="93"/>
-      <c r="Z2" s="93"/>
-      <c r="AA2" s="93"/>
-      <c r="AB2" s="93"/>
-      <c r="AC2" s="93"/>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="93"/>
-      <c r="AF2" s="93"/>
-      <c r="AG2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -3571,41 +3814,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="95" t="s">
+      <c r="I4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="96"/>
-      <c r="P4" s="98" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -3650,40 +3893,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="102" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="95" t="s">
+      <c r="I5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="97">
-        <v>44992</v>
-      </c>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="96"/>
-      <c r="T5" s="96"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-      <c r="Y5" s="96"/>
-      <c r="Z5" s="96"/>
-      <c r="AA5" s="96"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98">
+        <v>45035</v>
+      </c>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -3871,201 +4114,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="86" t="s">
+      <c r="F8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="86" t="s">
+      <c r="G8" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="91" t="s">
+      <c r="I8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="108" t="s">
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="107" t="s">
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="87"/>
-      <c r="AX8" s="87"/>
-      <c r="AY8" s="87"/>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="104" t="s">
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="87"/>
-      <c r="BD8" s="87"/>
-      <c r="BE8" s="87"/>
-      <c r="BF8" s="87"/>
-      <c r="BG8" s="87"/>
-      <c r="BH8" s="87"/>
-      <c r="BI8" s="87"/>
-      <c r="BJ8" s="87"/>
-      <c r="BK8" s="87"/>
-      <c r="BL8" s="87"/>
-      <c r="BM8" s="87"/>
-      <c r="BN8" s="87"/>
-      <c r="BO8" s="87"/>
-      <c r="BP8" s="105"/>
+      <c r="BC8" s="88"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="88"/>
+      <c r="BF8" s="88"/>
+      <c r="BG8" s="88"/>
+      <c r="BH8" s="88"/>
+      <c r="BI8" s="88"/>
+      <c r="BJ8" s="88"/>
+      <c r="BK8" s="88"/>
+      <c r="BL8" s="88"/>
+      <c r="BM8" s="88"/>
+      <c r="BN8" s="88"/>
+      <c r="BO8" s="88"/>
+      <c r="BP8" s="106"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="88" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="89"/>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="89"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="88" t="s">
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="90"/>
-      <c r="X9" s="106" t="s">
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="90"/>
-      <c r="AC9" s="106" t="s">
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="89"/>
-      <c r="AF9" s="89"/>
-      <c r="AG9" s="90"/>
-      <c r="AH9" s="106" t="s">
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="89"/>
-      <c r="AJ9" s="89"/>
-      <c r="AK9" s="89"/>
-      <c r="AL9" s="90"/>
-      <c r="AM9" s="109" t="s">
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="89"/>
-      <c r="AO9" s="89"/>
-      <c r="AP9" s="89"/>
-      <c r="AQ9" s="90"/>
-      <c r="AR9" s="109" t="s">
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="89"/>
-      <c r="AT9" s="89"/>
-      <c r="AU9" s="89"/>
-      <c r="AV9" s="90"/>
-      <c r="AW9" s="109" t="s">
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="89"/>
-      <c r="AY9" s="89"/>
-      <c r="AZ9" s="89"/>
-      <c r="BA9" s="90"/>
-      <c r="BB9" s="103" t="s">
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="89"/>
-      <c r="BD9" s="89"/>
-      <c r="BE9" s="89"/>
-      <c r="BF9" s="90"/>
-      <c r="BG9" s="103" t="s">
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="89"/>
-      <c r="BI9" s="89"/>
-      <c r="BJ9" s="89"/>
-      <c r="BK9" s="90"/>
-      <c r="BL9" s="103" t="s">
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="90"/>
+      <c r="BJ9" s="90"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="89"/>
-      <c r="BN9" s="89"/>
-      <c r="BO9" s="89"/>
-      <c r="BP9" s="90"/>
+      <c r="BM9" s="90"/>
+      <c r="BN9" s="90"/>
+      <c r="BO9" s="90"/>
+      <c r="BP9" s="91"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -4254,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
@@ -4329,10 +4572,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="C12" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="74" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="74" t="s">
-        <v>42</v>
       </c>
       <c r="E12" s="39">
         <v>44962</v>
@@ -4415,10 +4658,10 @@
         <v>35</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="39">
         <v>44969</v>
@@ -4501,10 +4744,10 @@
         <v>1.2</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="39">
         <v>44973</v>
@@ -4587,10 +4830,10 @@
         <v>1.3</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E15" s="39">
         <v>44977</v>
@@ -4673,10 +4916,10 @@
         <v>1.4</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="39">
         <v>44979</v>
@@ -4759,10 +5002,10 @@
         <v>1.5</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" s="39">
         <v>44984</v>
@@ -4775,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="50"/>
       <c r="J17" s="51"/>
@@ -4848,13 +5091,13 @@
         <v>36</v>
       </c>
       <c r="D18" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" s="61">
         <v>44987</v>
       </c>
       <c r="F18" s="61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="62" t="e">
         <f t="shared" si="0"/>
@@ -4931,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -5006,10 +5249,10 @@
         <v>2.1</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D20" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="39">
         <v>885045</v>
@@ -5091,10 +5334,10 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="39">
         <v>885045</v>
@@ -5176,10 +5419,10 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C22" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="76" t="s">
         <v>55</v>
-      </c>
-      <c r="D22" s="76" t="s">
-        <v>56</v>
       </c>
       <c r="E22" s="39">
         <v>885045</v>
@@ -5261,10 +5504,10 @@
         <v>2.4</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="39">
         <v>885049</v>
@@ -5346,10 +5589,10 @@
         <v>2.5</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E24" s="39">
         <v>885055</v>
@@ -5431,10 +5674,10 @@
         <v>2.6</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="76" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" s="39">
         <v>885055</v>
@@ -5516,10 +5759,10 @@
         <v>2.7</v>
       </c>
       <c r="C26" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="39">
         <v>885055</v>
@@ -5601,7 +5844,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
@@ -5676,10 +5919,10 @@
         <v>3.1</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28" s="39">
         <v>45005</v>
@@ -5758,13 +6001,13 @@
     <row r="29" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E29" s="39">
         <v>45012</v>
@@ -5843,13 +6086,13 @@
     <row r="30" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="76" t="s">
         <v>76</v>
-      </c>
-      <c r="D30" s="76" t="s">
-        <v>77</v>
       </c>
       <c r="E30" s="39">
         <v>45012</v>
@@ -5928,13 +6171,13 @@
     <row r="31" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A31" s="36"/>
       <c r="B31" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="83" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E31" s="39">
         <v>45012</v>
@@ -6016,10 +6259,10 @@
         <v>3.2</v>
       </c>
       <c r="C32" s="81" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E32" s="39">
         <v>44998</v>
@@ -6101,10 +6344,10 @@
         <v>37</v>
       </c>
       <c r="C33" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="76" t="s">
         <v>67</v>
-      </c>
-      <c r="D33" s="76" t="s">
-        <v>68</v>
       </c>
       <c r="E33" s="39">
         <v>45005</v>
@@ -6186,10 +6429,10 @@
         <v>3.3</v>
       </c>
       <c r="C34" s="77" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E34" s="39">
         <v>45009</v>
@@ -6268,13 +6511,13 @@
     <row r="35" spans="1:69" ht="17.149999999999999" customHeight="1" outlineLevel="1">
       <c r="A35" s="36"/>
       <c r="B35" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="76" t="s">
         <v>79</v>
-      </c>
-      <c r="D35" s="76" t="s">
-        <v>80</v>
       </c>
       <c r="E35" s="39">
         <v>45009</v>
@@ -6353,13 +6596,13 @@
     <row r="36" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A36" s="36"/>
       <c r="B36" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C36" s="82" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="76" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" s="39">
         <v>45009</v>
@@ -6441,10 +6684,10 @@
         <v>3.4</v>
       </c>
       <c r="C37" s="83" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E37" s="39">
         <v>45012</v>
@@ -6526,10 +6769,10 @@
         <v>3.5</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38" s="39">
         <v>45005</v>
@@ -6611,7 +6854,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
@@ -6686,10 +6929,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E40" s="39">
         <v>45026</v>
@@ -6701,7 +6944,7 @@
         <v>21</v>
       </c>
       <c r="H40" s="41">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="43"/>
@@ -6768,13 +7011,13 @@
     <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A41" s="36"/>
       <c r="B41" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E41" s="39">
         <v>885083</v>
@@ -6786,7 +7029,7 @@
         <v>7</v>
       </c>
       <c r="H41" s="41">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I41" s="50"/>
       <c r="J41" s="51"/>
@@ -6853,13 +7096,13 @@
     <row r="42" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A42" s="36"/>
       <c r="B42" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E42" s="39">
         <v>885083</v>
@@ -6871,7 +7114,7 @@
         <v>7</v>
       </c>
       <c r="H42" s="41">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="I42" s="50"/>
       <c r="J42" s="51"/>
@@ -6938,13 +7181,13 @@
     <row r="43" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A43" s="36"/>
       <c r="B43" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E43" s="39">
         <v>885083</v>
@@ -7023,13 +7266,13 @@
     <row r="44" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A44" s="36"/>
       <c r="B44" s="37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E44" s="39">
         <v>885083</v>
@@ -7108,13 +7351,13 @@
     <row r="45" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A45" s="36"/>
       <c r="B45" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" s="74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E45" s="39">
         <v>45026</v>
@@ -7193,13 +7436,13 @@
     <row r="46" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A46" s="36"/>
       <c r="B46" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E46" s="39">
         <v>45033</v>
@@ -7211,7 +7454,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="41">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="I46" s="50"/>
       <c r="J46" s="51"/>
@@ -7278,13 +7521,13 @@
     <row r="47" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A47" s="36"/>
       <c r="B47" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>112</v>
+        <v>103</v>
+      </c>
+      <c r="D47" s="82" t="s">
+        <v>126</v>
       </c>
       <c r="E47" s="39">
         <v>45033</v>
@@ -7296,7 +7539,7 @@
         <v>7</v>
       </c>
       <c r="H47" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
@@ -7363,13 +7606,13 @@
     <row r="48" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A48" s="36"/>
       <c r="B48" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D48" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E48" s="39">
         <v>45033</v>
@@ -7448,13 +7691,13 @@
     <row r="49" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A49" s="36"/>
       <c r="B49" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E49" s="39">
         <v>45033</v>
@@ -7533,13 +7776,13 @@
     <row r="50" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A50" s="36"/>
       <c r="B50" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E50" s="39">
         <v>45033</v>
@@ -7618,13 +7861,13 @@
     <row r="51" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A51" s="36"/>
       <c r="B51" s="37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D51" s="82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E51" s="39">
         <v>45033</v>
@@ -7702,26 +7945,26 @@
     </row>
     <row r="52" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A52" s="36"/>
-      <c r="B52" s="37">
-        <v>5.0999999999999996</v>
+      <c r="B52" s="37" t="s">
+        <v>135</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="D52" s="74" t="s">
-        <v>94</v>
+        <v>136</v>
+      </c>
+      <c r="D52" s="82" t="s">
+        <v>114</v>
       </c>
       <c r="E52" s="39">
-        <v>885083</v>
+        <v>45041</v>
       </c>
       <c r="F52" s="39">
-        <v>885103</v>
+        <v>45052</v>
       </c>
       <c r="G52" s="40">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H52" s="41">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I52" s="50"/>
       <c r="J52" s="51"/>
@@ -7785,113 +8028,103 @@
       <c r="BP52" s="57"/>
       <c r="BQ52" s="36"/>
     </row>
-    <row r="53" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A53" s="36"/>
-      <c r="B53" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="E53" s="39">
-        <v>885083</v>
-      </c>
-      <c r="F53" s="39">
-        <v>885089</v>
-      </c>
-      <c r="G53" s="40">
-        <v>7</v>
-      </c>
-      <c r="H53" s="41">
-        <v>0.35</v>
-      </c>
-      <c r="I53" s="50"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="52"/>
-      <c r="L53" s="52"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="45"/>
-      <c r="O53" s="45"/>
-      <c r="P53" s="45"/>
-      <c r="Q53" s="45"/>
-      <c r="R53" s="45"/>
-      <c r="S53" s="44"/>
-      <c r="T53" s="44"/>
-      <c r="U53" s="44"/>
-      <c r="V53" s="44"/>
-      <c r="W53" s="52"/>
-      <c r="X53" s="52"/>
-      <c r="Y53" s="52"/>
-      <c r="Z53" s="52"/>
-      <c r="AA53" s="52"/>
-      <c r="AB53" s="52"/>
-      <c r="AC53" s="54"/>
-      <c r="AD53" s="54"/>
-      <c r="AE53" s="54"/>
-      <c r="AF53" s="54"/>
-      <c r="AG53" s="54"/>
-      <c r="AH53" s="52"/>
-      <c r="AI53" s="52"/>
-      <c r="AJ53" s="52"/>
-      <c r="AK53" s="52"/>
-      <c r="AL53" s="52"/>
-      <c r="AM53" s="52"/>
-      <c r="AN53" s="52"/>
-      <c r="AO53" s="52"/>
-      <c r="AP53" s="52"/>
-      <c r="AQ53" s="52"/>
-      <c r="AR53" s="55"/>
-      <c r="AS53" s="55"/>
-      <c r="AT53" s="55"/>
-      <c r="AU53" s="55"/>
-      <c r="AV53" s="55"/>
-      <c r="AW53" s="52"/>
-      <c r="AX53" s="52"/>
-      <c r="AY53" s="52"/>
-      <c r="AZ53" s="52"/>
-      <c r="BA53" s="52"/>
-      <c r="BB53" s="52"/>
-      <c r="BC53" s="52"/>
-      <c r="BD53" s="52"/>
-      <c r="BE53" s="52"/>
-      <c r="BF53" s="52"/>
-      <c r="BG53" s="56"/>
-      <c r="BH53" s="56"/>
-      <c r="BI53" s="56"/>
-      <c r="BJ53" s="56"/>
-      <c r="BK53" s="56"/>
-      <c r="BL53" s="52"/>
-      <c r="BM53" s="52"/>
-      <c r="BN53" s="52"/>
-      <c r="BO53" s="52"/>
-      <c r="BP53" s="57"/>
-      <c r="BQ53" s="36"/>
+    <row r="53" spans="1:69" ht="21" customHeight="1">
+      <c r="A53" s="21"/>
+      <c r="B53" s="31">
+        <v>5</v>
+      </c>
+      <c r="C53" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="33"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="33"/>
+      <c r="AD53" s="33"/>
+      <c r="AE53" s="33"/>
+      <c r="AF53" s="33"/>
+      <c r="AG53" s="33"/>
+      <c r="AH53" s="33"/>
+      <c r="AI53" s="33"/>
+      <c r="AJ53" s="33"/>
+      <c r="AK53" s="33"/>
+      <c r="AL53" s="33"/>
+      <c r="AM53" s="33"/>
+      <c r="AN53" s="33"/>
+      <c r="AO53" s="33"/>
+      <c r="AP53" s="33"/>
+      <c r="AQ53" s="33"/>
+      <c r="AR53" s="33"/>
+      <c r="AS53" s="33"/>
+      <c r="AT53" s="33"/>
+      <c r="AU53" s="33"/>
+      <c r="AV53" s="33"/>
+      <c r="AW53" s="33"/>
+      <c r="AX53" s="33"/>
+      <c r="AY53" s="33"/>
+      <c r="AZ53" s="33"/>
+      <c r="BA53" s="33"/>
+      <c r="BB53" s="33"/>
+      <c r="BC53" s="33"/>
+      <c r="BD53" s="33"/>
+      <c r="BE53" s="33"/>
+      <c r="BF53" s="33"/>
+      <c r="BG53" s="33"/>
+      <c r="BH53" s="33"/>
+      <c r="BI53" s="33"/>
+      <c r="BJ53" s="33"/>
+      <c r="BK53" s="33"/>
+      <c r="BL53" s="33"/>
+      <c r="BM53" s="33"/>
+      <c r="BN53" s="33"/>
+      <c r="BO53" s="33"/>
+      <c r="BP53" s="33"/>
+      <c r="BQ53" s="21"/>
     </row>
     <row r="54" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="36"/>
-      <c r="B54" s="37" t="s">
-        <v>95</v>
+      <c r="B54" s="37">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="D54" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E54" s="39">
-        <v>45033</v>
+        <v>885083</v>
       </c>
       <c r="F54" s="39">
-        <v>45039</v>
+        <v>885103</v>
       </c>
       <c r="G54" s="40">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H54" s="41">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I54" s="50"/>
       <c r="J54" s="51"/>
@@ -7958,25 +8191,25 @@
     <row r="55" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="36"/>
       <c r="B55" s="37" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D55" s="74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E55" s="39">
-        <v>45040</v>
+        <v>885083</v>
       </c>
       <c r="F55" s="39">
-        <v>45046</v>
+        <v>885089</v>
       </c>
       <c r="G55" s="40">
         <v>7</v>
       </c>
       <c r="H55" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="50"/>
       <c r="J55" s="51"/>
@@ -8042,13 +8275,27 @@
     </row>
     <row r="56" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="74"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="41"/>
+      <c r="B56" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F56" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G56" s="40">
+        <v>7</v>
+      </c>
+      <c r="H56" s="41">
+        <v>0.35</v>
+      </c>
       <c r="I56" s="50"/>
       <c r="J56" s="51"/>
       <c r="K56" s="52"/>
@@ -8113,13 +8360,27 @@
     </row>
     <row r="57" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A57" s="36"/>
-      <c r="B57" s="37"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="41"/>
+      <c r="B57" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57" s="74" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="39">
+        <v>45040</v>
+      </c>
+      <c r="F57" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G57" s="40">
+        <v>7</v>
+      </c>
+      <c r="H57" s="41">
+        <v>0</v>
+      </c>
       <c r="I57" s="50"/>
       <c r="J57" s="51"/>
       <c r="K57" s="52"/>
@@ -8182,86 +8443,104 @@
       <c r="BP57" s="57"/>
       <c r="BQ57" s="36"/>
     </row>
-    <row r="58" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A58" s="36"/>
-      <c r="B58" s="37"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="74"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="51"/>
-      <c r="K58" s="52"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="45"/>
-      <c r="O58" s="45"/>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="44"/>
-      <c r="T58" s="44"/>
-      <c r="U58" s="44"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="52"/>
-      <c r="X58" s="52"/>
-      <c r="Y58" s="52"/>
-      <c r="Z58" s="52"/>
-      <c r="AA58" s="52"/>
-      <c r="AB58" s="52"/>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="54"/>
-      <c r="AF58" s="54"/>
-      <c r="AG58" s="54"/>
-      <c r="AH58" s="52"/>
-      <c r="AI58" s="52"/>
-      <c r="AJ58" s="52"/>
-      <c r="AK58" s="52"/>
-      <c r="AL58" s="52"/>
-      <c r="AM58" s="52"/>
-      <c r="AN58" s="52"/>
-      <c r="AO58" s="52"/>
-      <c r="AP58" s="52"/>
-      <c r="AQ58" s="52"/>
-      <c r="AR58" s="55"/>
-      <c r="AS58" s="55"/>
-      <c r="AT58" s="55"/>
-      <c r="AU58" s="55"/>
-      <c r="AV58" s="55"/>
-      <c r="AW58" s="52"/>
-      <c r="AX58" s="52"/>
-      <c r="AY58" s="52"/>
-      <c r="AZ58" s="52"/>
-      <c r="BA58" s="52"/>
-      <c r="BB58" s="52"/>
-      <c r="BC58" s="52"/>
-      <c r="BD58" s="52"/>
-      <c r="BE58" s="52"/>
-      <c r="BF58" s="52"/>
-      <c r="BG58" s="56"/>
-      <c r="BH58" s="56"/>
-      <c r="BI58" s="56"/>
-      <c r="BJ58" s="56"/>
-      <c r="BK58" s="56"/>
-      <c r="BL58" s="52"/>
-      <c r="BM58" s="52"/>
-      <c r="BN58" s="52"/>
-      <c r="BO58" s="52"/>
-      <c r="BP58" s="57"/>
-      <c r="BQ58" s="36"/>
+    <row r="58" spans="1:69" ht="21" customHeight="1">
+      <c r="A58" s="21"/>
+      <c r="B58" s="31">
+        <v>6</v>
+      </c>
+      <c r="C58" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="33"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
+      <c r="AG58" s="33"/>
+      <c r="AH58" s="33"/>
+      <c r="AI58" s="33"/>
+      <c r="AJ58" s="33"/>
+      <c r="AK58" s="33"/>
+      <c r="AL58" s="33"/>
+      <c r="AM58" s="33"/>
+      <c r="AN58" s="33"/>
+      <c r="AO58" s="33"/>
+      <c r="AP58" s="33"/>
+      <c r="AQ58" s="33"/>
+      <c r="AR58" s="33"/>
+      <c r="AS58" s="33"/>
+      <c r="AT58" s="33"/>
+      <c r="AU58" s="33"/>
+      <c r="AV58" s="33"/>
+      <c r="AW58" s="33"/>
+      <c r="AX58" s="33"/>
+      <c r="AY58" s="33"/>
+      <c r="AZ58" s="33"/>
+      <c r="BA58" s="33"/>
+      <c r="BB58" s="33"/>
+      <c r="BC58" s="33"/>
+      <c r="BD58" s="33"/>
+      <c r="BE58" s="33"/>
+      <c r="BF58" s="33"/>
+      <c r="BG58" s="33"/>
+      <c r="BH58" s="33"/>
+      <c r="BI58" s="33"/>
+      <c r="BJ58" s="33"/>
+      <c r="BK58" s="33"/>
+      <c r="BL58" s="33"/>
+      <c r="BM58" s="33"/>
+      <c r="BN58" s="33"/>
+      <c r="BO58" s="33"/>
+      <c r="BP58" s="33"/>
+      <c r="BQ58" s="21"/>
     </row>
     <row r="59" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A59" s="110"/>
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="74"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="41"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="37">
+        <v>6.1</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="39">
+        <v>45026</v>
+      </c>
+      <c r="F59" s="39">
+        <v>45032</v>
+      </c>
+      <c r="G59" s="40">
+        <v>7</v>
+      </c>
+      <c r="H59" s="41">
+        <v>1</v>
+      </c>
       <c r="I59" s="50"/>
       <c r="J59" s="51"/>
       <c r="K59" s="52"/>
@@ -8326,13 +8605,27 @@
     </row>
     <row r="60" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A60" s="36"/>
-      <c r="B60" s="37"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="74"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="41"/>
+      <c r="B60" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="39">
+        <v>45026</v>
+      </c>
+      <c r="F60" s="39">
+        <v>45032</v>
+      </c>
+      <c r="G60" s="40">
+        <v>7</v>
+      </c>
+      <c r="H60" s="41">
+        <v>1</v>
+      </c>
       <c r="I60" s="50"/>
       <c r="J60" s="51"/>
       <c r="K60" s="52"/>
@@ -8396,14 +8689,28 @@
       <c r="BQ60" s="36"/>
     </row>
     <row r="61" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A61" s="36"/>
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="74"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="41"/>
+      <c r="A61" s="86"/>
+      <c r="B61" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F61" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G61" s="40">
+        <v>7</v>
+      </c>
+      <c r="H61" s="41">
+        <v>0.15</v>
+      </c>
       <c r="I61" s="50"/>
       <c r="J61" s="51"/>
       <c r="K61" s="52"/>
@@ -8466,15 +8773,29 @@
       <c r="BP61" s="57"/>
       <c r="BQ61" s="36"/>
     </row>
-    <row r="62" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A62" s="110"/>
-      <c r="B62" s="37"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="41"/>
+    <row r="62" spans="1:69" ht="32.5" customHeight="1" outlineLevel="1">
+      <c r="A62" s="36"/>
+      <c r="B62" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="39">
+        <v>45034</v>
+      </c>
+      <c r="F62" s="39">
+        <v>45036</v>
+      </c>
+      <c r="G62" s="40">
+        <v>3</v>
+      </c>
+      <c r="H62" s="41">
+        <v>0</v>
+      </c>
       <c r="I62" s="50"/>
       <c r="J62" s="51"/>
       <c r="K62" s="52"/>
@@ -8537,80 +8858,86 @@
       <c r="BP62" s="57"/>
       <c r="BQ62" s="36"/>
     </row>
-    <row r="63" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A63" s="36"/>
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="74"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="52"/>
-      <c r="L63" s="52"/>
-      <c r="M63" s="52"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="45"/>
-      <c r="Q63" s="45"/>
-      <c r="R63" s="45"/>
-      <c r="S63" s="44"/>
-      <c r="T63" s="44"/>
-      <c r="U63" s="44"/>
-      <c r="V63" s="44"/>
-      <c r="W63" s="52"/>
-      <c r="X63" s="52"/>
-      <c r="Y63" s="52"/>
-      <c r="Z63" s="52"/>
-      <c r="AA63" s="52"/>
-      <c r="AB63" s="52"/>
-      <c r="AC63" s="54"/>
-      <c r="AD63" s="54"/>
-      <c r="AE63" s="54"/>
-      <c r="AF63" s="54"/>
-      <c r="AG63" s="54"/>
-      <c r="AH63" s="52"/>
-      <c r="AI63" s="52"/>
-      <c r="AJ63" s="52"/>
-      <c r="AK63" s="52"/>
-      <c r="AL63" s="52"/>
-      <c r="AM63" s="52"/>
-      <c r="AN63" s="52"/>
-      <c r="AO63" s="52"/>
-      <c r="AP63" s="52"/>
-      <c r="AQ63" s="52"/>
-      <c r="AR63" s="55"/>
-      <c r="AS63" s="55"/>
-      <c r="AT63" s="55"/>
-      <c r="AU63" s="55"/>
-      <c r="AV63" s="55"/>
-      <c r="AW63" s="52"/>
-      <c r="AX63" s="52"/>
-      <c r="AY63" s="52"/>
-      <c r="AZ63" s="52"/>
-      <c r="BA63" s="52"/>
-      <c r="BB63" s="52"/>
-      <c r="BC63" s="52"/>
-      <c r="BD63" s="52"/>
-      <c r="BE63" s="52"/>
-      <c r="BF63" s="52"/>
-      <c r="BG63" s="56"/>
-      <c r="BH63" s="56"/>
-      <c r="BI63" s="56"/>
-      <c r="BJ63" s="56"/>
-      <c r="BK63" s="56"/>
-      <c r="BL63" s="52"/>
-      <c r="BM63" s="52"/>
-      <c r="BN63" s="52"/>
-      <c r="BO63" s="52"/>
-      <c r="BP63" s="57"/>
-      <c r="BQ63" s="36"/>
+    <row r="63" spans="1:69" ht="21" customHeight="1">
+      <c r="A63" s="21"/>
+      <c r="B63" s="31">
+        <v>7</v>
+      </c>
+      <c r="C63" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="33"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="33"/>
+      <c r="AD63" s="33"/>
+      <c r="AE63" s="33"/>
+      <c r="AF63" s="33"/>
+      <c r="AG63" s="33"/>
+      <c r="AH63" s="33"/>
+      <c r="AI63" s="33"/>
+      <c r="AJ63" s="33"/>
+      <c r="AK63" s="33"/>
+      <c r="AL63" s="33"/>
+      <c r="AM63" s="33"/>
+      <c r="AN63" s="33"/>
+      <c r="AO63" s="33"/>
+      <c r="AP63" s="33"/>
+      <c r="AQ63" s="33"/>
+      <c r="AR63" s="33"/>
+      <c r="AS63" s="33"/>
+      <c r="AT63" s="33"/>
+      <c r="AU63" s="33"/>
+      <c r="AV63" s="33"/>
+      <c r="AW63" s="33"/>
+      <c r="AX63" s="33"/>
+      <c r="AY63" s="33"/>
+      <c r="AZ63" s="33"/>
+      <c r="BA63" s="33"/>
+      <c r="BB63" s="33"/>
+      <c r="BC63" s="33"/>
+      <c r="BD63" s="33"/>
+      <c r="BE63" s="33"/>
+      <c r="BF63" s="33"/>
+      <c r="BG63" s="33"/>
+      <c r="BH63" s="33"/>
+      <c r="BI63" s="33"/>
+      <c r="BJ63" s="33"/>
+      <c r="BK63" s="33"/>
+      <c r="BL63" s="33"/>
+      <c r="BM63" s="33"/>
+      <c r="BN63" s="33"/>
+      <c r="BO63" s="33"/>
+      <c r="BP63" s="33"/>
+      <c r="BQ63" s="21"/>
     </row>
     <row r="64" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A64" s="36"/>
-      <c r="B64" s="37"/>
+      <c r="A64" s="86"/>
+      <c r="B64" s="37">
+        <v>7.1</v>
+      </c>
       <c r="C64" s="38"/>
       <c r="D64" s="74"/>
       <c r="E64" s="39"/>
@@ -8679,147 +9006,149 @@
       <c r="BP64" s="57"/>
       <c r="BQ64" s="36"/>
     </row>
-    <row r="65" spans="1:69" ht="21" customHeight="1">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="72"/>
-      <c r="H65" s="72"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-      <c r="AB65" s="21"/>
-      <c r="AC65" s="21"/>
-      <c r="AD65" s="21"/>
-      <c r="AE65" s="21"/>
-      <c r="AF65" s="21"/>
-      <c r="AG65" s="21"/>
-      <c r="AH65" s="21"/>
-      <c r="AI65" s="21"/>
-      <c r="AJ65" s="21"/>
-      <c r="AK65" s="21"/>
-      <c r="AL65" s="21"/>
-      <c r="AM65" s="21"/>
-      <c r="AN65" s="21"/>
-      <c r="AO65" s="21"/>
-      <c r="AP65" s="21"/>
-      <c r="AQ65" s="21"/>
-      <c r="AR65" s="21"/>
-      <c r="AS65" s="21"/>
-      <c r="AT65" s="21"/>
-      <c r="AU65" s="21"/>
-      <c r="AV65" s="21"/>
-      <c r="AW65" s="21"/>
-      <c r="AX65" s="21"/>
-      <c r="AY65" s="21"/>
-      <c r="AZ65" s="21"/>
-      <c r="BA65" s="21"/>
-      <c r="BB65" s="21"/>
-      <c r="BC65" s="21"/>
-      <c r="BD65" s="21"/>
-      <c r="BE65" s="21"/>
-      <c r="BF65" s="21"/>
-      <c r="BG65" s="21"/>
-      <c r="BH65" s="21"/>
-      <c r="BI65" s="21"/>
-      <c r="BJ65" s="21"/>
-      <c r="BK65" s="21"/>
-      <c r="BL65" s="21"/>
-      <c r="BM65" s="21"/>
-      <c r="BN65" s="21"/>
-      <c r="BO65" s="21"/>
-      <c r="BP65" s="21"/>
-      <c r="BQ65" s="21"/>
+    <row r="65" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A65" s="36"/>
+      <c r="B65" s="37">
+        <v>7.2</v>
+      </c>
+      <c r="C65" s="38"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="52"/>
+      <c r="L65" s="52"/>
+      <c r="M65" s="52"/>
+      <c r="N65" s="45"/>
+      <c r="O65" s="45"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="52"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="52"/>
+      <c r="Z65" s="52"/>
+      <c r="AA65" s="52"/>
+      <c r="AB65" s="52"/>
+      <c r="AC65" s="54"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="54"/>
+      <c r="AF65" s="54"/>
+      <c r="AG65" s="54"/>
+      <c r="AH65" s="52"/>
+      <c r="AI65" s="52"/>
+      <c r="AJ65" s="52"/>
+      <c r="AK65" s="52"/>
+      <c r="AL65" s="52"/>
+      <c r="AM65" s="52"/>
+      <c r="AN65" s="52"/>
+      <c r="AO65" s="52"/>
+      <c r="AP65" s="52"/>
+      <c r="AQ65" s="52"/>
+      <c r="AR65" s="55"/>
+      <c r="AS65" s="55"/>
+      <c r="AT65" s="55"/>
+      <c r="AU65" s="55"/>
+      <c r="AV65" s="55"/>
+      <c r="AW65" s="52"/>
+      <c r="AX65" s="52"/>
+      <c r="AY65" s="52"/>
+      <c r="AZ65" s="52"/>
+      <c r="BA65" s="52"/>
+      <c r="BB65" s="52"/>
+      <c r="BC65" s="52"/>
+      <c r="BD65" s="52"/>
+      <c r="BE65" s="52"/>
+      <c r="BF65" s="52"/>
+      <c r="BG65" s="56"/>
+      <c r="BH65" s="56"/>
+      <c r="BI65" s="56"/>
+      <c r="BJ65" s="56"/>
+      <c r="BK65" s="56"/>
+      <c r="BL65" s="52"/>
+      <c r="BM65" s="52"/>
+      <c r="BN65" s="52"/>
+      <c r="BO65" s="52"/>
+      <c r="BP65" s="57"/>
+      <c r="BQ65" s="36"/>
     </row>
-    <row r="66" spans="1:69" ht="21" customHeight="1">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="72"/>
-      <c r="H66" s="72"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
-      <c r="AB66" s="21"/>
-      <c r="AC66" s="21"/>
-      <c r="AD66" s="21"/>
-      <c r="AE66" s="21"/>
-      <c r="AF66" s="21"/>
-      <c r="AG66" s="21"/>
-      <c r="AH66" s="21"/>
-      <c r="AI66" s="21"/>
-      <c r="AJ66" s="21"/>
-      <c r="AK66" s="21"/>
-      <c r="AL66" s="21"/>
-      <c r="AM66" s="21"/>
-      <c r="AN66" s="21"/>
-      <c r="AO66" s="21"/>
-      <c r="AP66" s="21"/>
-      <c r="AQ66" s="21"/>
-      <c r="AR66" s="21"/>
-      <c r="AS66" s="21"/>
-      <c r="AT66" s="21"/>
-      <c r="AU66" s="21"/>
-      <c r="AV66" s="21"/>
-      <c r="AW66" s="21"/>
-      <c r="AX66" s="21"/>
-      <c r="AY66" s="21"/>
-      <c r="AZ66" s="21"/>
-      <c r="BA66" s="21"/>
-      <c r="BB66" s="21"/>
-      <c r="BC66" s="21"/>
-      <c r="BD66" s="21"/>
-      <c r="BE66" s="21"/>
-      <c r="BF66" s="21"/>
-      <c r="BG66" s="21"/>
-      <c r="BH66" s="21"/>
-      <c r="BI66" s="21"/>
-      <c r="BJ66" s="21"/>
-      <c r="BK66" s="21"/>
-      <c r="BL66" s="21"/>
-      <c r="BM66" s="21"/>
-      <c r="BN66" s="21"/>
-      <c r="BO66" s="21"/>
-      <c r="BP66" s="21"/>
-      <c r="BQ66" s="21"/>
+    <row r="66" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A66" s="36"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="45"/>
+      <c r="O66" s="45"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="52"/>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="52"/>
+      <c r="AA66" s="52"/>
+      <c r="AB66" s="52"/>
+      <c r="AC66" s="54"/>
+      <c r="AD66" s="54"/>
+      <c r="AE66" s="54"/>
+      <c r="AF66" s="54"/>
+      <c r="AG66" s="54"/>
+      <c r="AH66" s="52"/>
+      <c r="AI66" s="52"/>
+      <c r="AJ66" s="52"/>
+      <c r="AK66" s="52"/>
+      <c r="AL66" s="52"/>
+      <c r="AM66" s="52"/>
+      <c r="AN66" s="52"/>
+      <c r="AO66" s="52"/>
+      <c r="AP66" s="52"/>
+      <c r="AQ66" s="52"/>
+      <c r="AR66" s="55"/>
+      <c r="AS66" s="55"/>
+      <c r="AT66" s="55"/>
+      <c r="AU66" s="55"/>
+      <c r="AV66" s="55"/>
+      <c r="AW66" s="52"/>
+      <c r="AX66" s="52"/>
+      <c r="AY66" s="52"/>
+      <c r="AZ66" s="52"/>
+      <c r="BA66" s="52"/>
+      <c r="BB66" s="52"/>
+      <c r="BC66" s="52"/>
+      <c r="BD66" s="52"/>
+      <c r="BE66" s="52"/>
+      <c r="BF66" s="52"/>
+      <c r="BG66" s="56"/>
+      <c r="BH66" s="56"/>
+      <c r="BI66" s="56"/>
+      <c r="BJ66" s="56"/>
+      <c r="BK66" s="56"/>
+      <c r="BL66" s="52"/>
+      <c r="BM66" s="52"/>
+      <c r="BN66" s="52"/>
+      <c r="BO66" s="52"/>
+      <c r="BP66" s="57"/>
+      <c r="BQ66" s="36"/>
     </row>
     <row r="67" spans="1:69" ht="21" customHeight="1">
       <c r="A67" s="21"/>
@@ -8892,6 +9221,148 @@
       <c r="BP67" s="21"/>
       <c r="BQ67" s="21"/>
     </row>
+    <row r="68" spans="1:69" ht="21" customHeight="1">
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="72"/>
+      <c r="H68" s="72"/>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+      <c r="O68" s="21"/>
+      <c r="P68" s="21"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="21"/>
+      <c r="S68" s="21"/>
+      <c r="T68" s="21"/>
+      <c r="U68" s="21"/>
+      <c r="V68" s="21"/>
+      <c r="W68" s="21"/>
+      <c r="X68" s="21"/>
+      <c r="Y68" s="21"/>
+      <c r="Z68" s="21"/>
+      <c r="AA68" s="21"/>
+      <c r="AB68" s="21"/>
+      <c r="AC68" s="21"/>
+      <c r="AD68" s="21"/>
+      <c r="AE68" s="21"/>
+      <c r="AF68" s="21"/>
+      <c r="AG68" s="21"/>
+      <c r="AH68" s="21"/>
+      <c r="AI68" s="21"/>
+      <c r="AJ68" s="21"/>
+      <c r="AK68" s="21"/>
+      <c r="AL68" s="21"/>
+      <c r="AM68" s="21"/>
+      <c r="AN68" s="21"/>
+      <c r="AO68" s="21"/>
+      <c r="AP68" s="21"/>
+      <c r="AQ68" s="21"/>
+      <c r="AR68" s="21"/>
+      <c r="AS68" s="21"/>
+      <c r="AT68" s="21"/>
+      <c r="AU68" s="21"/>
+      <c r="AV68" s="21"/>
+      <c r="AW68" s="21"/>
+      <c r="AX68" s="21"/>
+      <c r="AY68" s="21"/>
+      <c r="AZ68" s="21"/>
+      <c r="BA68" s="21"/>
+      <c r="BB68" s="21"/>
+      <c r="BC68" s="21"/>
+      <c r="BD68" s="21"/>
+      <c r="BE68" s="21"/>
+      <c r="BF68" s="21"/>
+      <c r="BG68" s="21"/>
+      <c r="BH68" s="21"/>
+      <c r="BI68" s="21"/>
+      <c r="BJ68" s="21"/>
+      <c r="BK68" s="21"/>
+      <c r="BL68" s="21"/>
+      <c r="BM68" s="21"/>
+      <c r="BN68" s="21"/>
+      <c r="BO68" s="21"/>
+      <c r="BP68" s="21"/>
+      <c r="BQ68" s="21"/>
+    </row>
+    <row r="69" spans="1:69" ht="21" customHeight="1">
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="72"/>
+      <c r="H69" s="72"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="21"/>
+      <c r="S69" s="21"/>
+      <c r="T69" s="21"/>
+      <c r="U69" s="21"/>
+      <c r="V69" s="21"/>
+      <c r="W69" s="21"/>
+      <c r="X69" s="21"/>
+      <c r="Y69" s="21"/>
+      <c r="Z69" s="21"/>
+      <c r="AA69" s="21"/>
+      <c r="AB69" s="21"/>
+      <c r="AC69" s="21"/>
+      <c r="AD69" s="21"/>
+      <c r="AE69" s="21"/>
+      <c r="AF69" s="21"/>
+      <c r="AG69" s="21"/>
+      <c r="AH69" s="21"/>
+      <c r="AI69" s="21"/>
+      <c r="AJ69" s="21"/>
+      <c r="AK69" s="21"/>
+      <c r="AL69" s="21"/>
+      <c r="AM69" s="21"/>
+      <c r="AN69" s="21"/>
+      <c r="AO69" s="21"/>
+      <c r="AP69" s="21"/>
+      <c r="AQ69" s="21"/>
+      <c r="AR69" s="21"/>
+      <c r="AS69" s="21"/>
+      <c r="AT69" s="21"/>
+      <c r="AU69" s="21"/>
+      <c r="AV69" s="21"/>
+      <c r="AW69" s="21"/>
+      <c r="AX69" s="21"/>
+      <c r="AY69" s="21"/>
+      <c r="AZ69" s="21"/>
+      <c r="BA69" s="21"/>
+      <c r="BB69" s="21"/>
+      <c r="BC69" s="21"/>
+      <c r="BD69" s="21"/>
+      <c r="BE69" s="21"/>
+      <c r="BF69" s="21"/>
+      <c r="BG69" s="21"/>
+      <c r="BH69" s="21"/>
+      <c r="BI69" s="21"/>
+      <c r="BJ69" s="21"/>
+      <c r="BK69" s="21"/>
+      <c r="BL69" s="21"/>
+      <c r="BM69" s="21"/>
+      <c r="BN69" s="21"/>
+      <c r="BO69" s="21"/>
+      <c r="BP69" s="21"/>
+      <c r="BQ69" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="BG9:BK9"/>
@@ -8930,17 +9401,7 @@
     <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="3">
-      <formula>LEN(TRIM(K14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
-      <formula>LEN(TRIM(K14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H64">
+  <conditionalFormatting sqref="H12:H18 H20:H66">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8949,8 +9410,6 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12:H18 H20:H64">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -8960,6 +9419,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(K14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\캡스톤\Sources\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E47D64-6628-45A1-BA6B-757C970844B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7E0F26-242E-4D62-86E9-4B82E6D50BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="149">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -1253,30 +1253,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">플랜 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>CRUD</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1.1</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -1422,36 +1398,16 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">댓글 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>CRUD</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>4.1.7</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B)</t>
+    <t>5.1.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
     </r>
     <r>
       <rPr>
@@ -1461,7 +1417,444 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>결제</t>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제페토</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영진상사</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황주</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태권</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>관리자 모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>황주,신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>태권</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>리마인더 모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>프론트엔드 개발</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드 개발</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>요구사항 정의</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.2</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>DIAGRAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멘토링</t>
     </r>
     <r>
       <rPr>
@@ -1480,20 +1873,42 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>모듈</t>
+      <t xml:space="preserve">관계 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가하고 요구사항 정의</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>4.1.8</t>
+    <t>갓생플래너</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>4.1.9</t>
+    <t>중간발표 준비</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>4.1.10</t>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디버깅(웹)</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1507,12 +1922,662 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>로그인 모듈</t>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>CRUD</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>5.1.1</t>
+    <r>
+      <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> plan, challenge html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> react</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환, 링크</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.8</t>
+  </si>
+  <si>
+    <t>4.1.9</t>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>4.1.11</t>
+  </si>
+  <si>
+    <t>4.1.13</t>
+  </si>
+  <si>
+    <t>4.1.14</t>
+  </si>
+  <si>
+    <t>4.1.15</t>
+  </si>
+  <si>
+    <t>4.1.16</t>
+  </si>
+  <si>
+    <t>4.1.17</t>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랜 CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글 모듈 완성(부가 기능)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>황주</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>플랜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈 완성(부가 기능 추가)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈(부가 기능)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희,신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태권</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황주</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)M:N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매핑테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔티티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>F)</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
@@ -1563,614 +2628,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>챌린지,결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(view)</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼블리싱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>게시판</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제페토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모듈</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영진상사</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사람</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>황주</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>태권</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상희</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>관리자 모듈</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상희</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.11</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>황주,신성</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>태권</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.3</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>리마인더 모듈</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼블리싱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>멘토</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>리마인더(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view)</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드 개발</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>백엔드 개발</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>요구사항 정의</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>황주,태권</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1.1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)ER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모델</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1.2</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)ER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>DIAGRAM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1.3</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>멘토링</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">관계 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가하고 요구사항 정의</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>갓생플래너</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간발표 준비</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.12</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디버깅(웹)</t>
+      <t>챌린지, 유저</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -2912,7 +3370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3166,51 +3624,15 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3223,6 +3645,45 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3575,10 +4036,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ69"/>
+  <dimension ref="A1:BQ75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3664,46 +4125,46 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" ht="40.5">
+    <row r="2" spans="1:69" ht="40">
       <c r="A2" s="1"/>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="93" t="s">
+      <c r="I2" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
-      <c r="O2" s="100" t="s">
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
-      <c r="S2" s="94"/>
-      <c r="T2" s="94"/>
-      <c r="U2" s="94"/>
-      <c r="V2" s="94"/>
-      <c r="W2" s="94"/>
-      <c r="X2" s="94"/>
-      <c r="Y2" s="94"/>
-      <c r="Z2" s="94"/>
-      <c r="AA2" s="94"/>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="94"/>
-      <c r="AD2" s="94"/>
-      <c r="AE2" s="94"/>
-      <c r="AF2" s="94"/>
-      <c r="AG2" s="94"/>
+      <c r="P2" s="104"/>
+      <c r="Q2" s="104"/>
+      <c r="R2" s="104"/>
+      <c r="S2" s="104"/>
+      <c r="T2" s="104"/>
+      <c r="U2" s="104"/>
+      <c r="V2" s="104"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="104"/>
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="104"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -3814,41 +4275,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="101" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="102"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="98" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="97"/>
-      <c r="M4" s="97"/>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="99" t="s">
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="107" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
-      <c r="S4" s="97"/>
-      <c r="T4" s="97"/>
-      <c r="U4" s="97"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="97"/>
-      <c r="X4" s="97"/>
-      <c r="Y4" s="97"/>
-      <c r="Z4" s="97"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="97"/>
+      <c r="Q4" s="101"/>
+      <c r="R4" s="101"/>
+      <c r="S4" s="101"/>
+      <c r="T4" s="101"/>
+      <c r="U4" s="101"/>
+      <c r="V4" s="101"/>
+      <c r="W4" s="101"/>
+      <c r="X4" s="101"/>
+      <c r="Y4" s="101"/>
+      <c r="Z4" s="101"/>
+      <c r="AA4" s="101"/>
+      <c r="AB4" s="101"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -3893,40 +4354,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="96" t="s">
+      <c r="B5" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="101"/>
+      <c r="D5" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="96" t="s">
+      <c r="I5" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="98">
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
+      <c r="L5" s="101"/>
+      <c r="M5" s="101"/>
+      <c r="N5" s="101"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="106">
         <v>45035</v>
       </c>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="97"/>
-      <c r="T5" s="97"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
-      <c r="W5" s="97"/>
-      <c r="X5" s="97"/>
-      <c r="Y5" s="97"/>
-      <c r="Z5" s="97"/>
-      <c r="AA5" s="97"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="101"/>
+      <c r="T5" s="101"/>
+      <c r="U5" s="101"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
+      <c r="X5" s="101"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="101"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -4114,201 +4575,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="87" t="s">
+      <c r="C8" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="87" t="s">
+      <c r="F8" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="87" t="s">
+      <c r="G8" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="87" t="s">
+      <c r="H8" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="92" t="s">
+      <c r="I8" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="88"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="88"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="88"/>
-      <c r="P8" s="88"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="88"/>
-      <c r="T8" s="88"/>
-      <c r="U8" s="88"/>
-      <c r="V8" s="88"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="109" t="s">
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="88"/>
-      <c r="Z8" s="88"/>
-      <c r="AA8" s="88"/>
-      <c r="AB8" s="88"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="88"/>
-      <c r="AE8" s="88"/>
-      <c r="AF8" s="88"/>
-      <c r="AG8" s="88"/>
-      <c r="AH8" s="88"/>
-      <c r="AI8" s="88"/>
-      <c r="AJ8" s="88"/>
-      <c r="AK8" s="88"/>
-      <c r="AL8" s="88"/>
-      <c r="AM8" s="108" t="s">
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="88"/>
-      <c r="AO8" s="88"/>
-      <c r="AP8" s="88"/>
-      <c r="AQ8" s="88"/>
-      <c r="AR8" s="88"/>
-      <c r="AS8" s="88"/>
-      <c r="AT8" s="88"/>
-      <c r="AU8" s="88"/>
-      <c r="AV8" s="88"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="88"/>
-      <c r="AY8" s="88"/>
-      <c r="AZ8" s="88"/>
-      <c r="BA8" s="88"/>
-      <c r="BB8" s="105" t="s">
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="91"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="91"/>
+      <c r="AT8" s="91"/>
+      <c r="AU8" s="91"/>
+      <c r="AV8" s="91"/>
+      <c r="AW8" s="91"/>
+      <c r="AX8" s="91"/>
+      <c r="AY8" s="91"/>
+      <c r="AZ8" s="91"/>
+      <c r="BA8" s="91"/>
+      <c r="BB8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="88"/>
-      <c r="BD8" s="88"/>
-      <c r="BE8" s="88"/>
-      <c r="BF8" s="88"/>
-      <c r="BG8" s="88"/>
-      <c r="BH8" s="88"/>
-      <c r="BI8" s="88"/>
-      <c r="BJ8" s="88"/>
-      <c r="BK8" s="88"/>
-      <c r="BL8" s="88"/>
-      <c r="BM8" s="88"/>
-      <c r="BN8" s="88"/>
-      <c r="BO8" s="88"/>
-      <c r="BP8" s="106"/>
+      <c r="BC8" s="91"/>
+      <c r="BD8" s="91"/>
+      <c r="BE8" s="91"/>
+      <c r="BF8" s="91"/>
+      <c r="BG8" s="91"/>
+      <c r="BH8" s="91"/>
+      <c r="BI8" s="91"/>
+      <c r="BJ8" s="91"/>
+      <c r="BK8" s="91"/>
+      <c r="BL8" s="91"/>
+      <c r="BM8" s="91"/>
+      <c r="BN8" s="91"/>
+      <c r="BO8" s="91"/>
+      <c r="BP8" s="92"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="89" t="s">
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="89" t="s">
+      <c r="O9" s="88"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="88"/>
+      <c r="R9" s="89"/>
+      <c r="S9" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
-      <c r="V9" s="90"/>
-      <c r="W9" s="91"/>
-      <c r="X9" s="107" t="s">
+      <c r="T9" s="88"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="88"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="90"/>
-      <c r="Z9" s="90"/>
-      <c r="AA9" s="90"/>
-      <c r="AB9" s="91"/>
-      <c r="AC9" s="107" t="s">
+      <c r="Y9" s="88"/>
+      <c r="Z9" s="88"/>
+      <c r="AA9" s="88"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="90"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="90"/>
-      <c r="AG9" s="91"/>
-      <c r="AH9" s="107" t="s">
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="88"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="90"/>
-      <c r="AJ9" s="90"/>
-      <c r="AK9" s="90"/>
-      <c r="AL9" s="91"/>
-      <c r="AM9" s="110" t="s">
+      <c r="AI9" s="88"/>
+      <c r="AJ9" s="88"/>
+      <c r="AK9" s="88"/>
+      <c r="AL9" s="89"/>
+      <c r="AM9" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="90"/>
-      <c r="AO9" s="90"/>
-      <c r="AP9" s="90"/>
-      <c r="AQ9" s="91"/>
-      <c r="AR9" s="110" t="s">
+      <c r="AN9" s="88"/>
+      <c r="AO9" s="88"/>
+      <c r="AP9" s="88"/>
+      <c r="AQ9" s="89"/>
+      <c r="AR9" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="90"/>
-      <c r="AT9" s="90"/>
-      <c r="AU9" s="90"/>
-      <c r="AV9" s="91"/>
-      <c r="AW9" s="110" t="s">
+      <c r="AS9" s="88"/>
+      <c r="AT9" s="88"/>
+      <c r="AU9" s="88"/>
+      <c r="AV9" s="89"/>
+      <c r="AW9" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="91"/>
-      <c r="BB9" s="104" t="s">
+      <c r="AX9" s="88"/>
+      <c r="AY9" s="88"/>
+      <c r="AZ9" s="88"/>
+      <c r="BA9" s="89"/>
+      <c r="BB9" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="90"/>
-      <c r="BD9" s="90"/>
-      <c r="BE9" s="90"/>
-      <c r="BF9" s="91"/>
-      <c r="BG9" s="104" t="s">
+      <c r="BC9" s="88"/>
+      <c r="BD9" s="88"/>
+      <c r="BE9" s="88"/>
+      <c r="BF9" s="89"/>
+      <c r="BG9" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="90"/>
-      <c r="BI9" s="90"/>
-      <c r="BJ9" s="90"/>
-      <c r="BK9" s="91"/>
-      <c r="BL9" s="104" t="s">
+      <c r="BH9" s="88"/>
+      <c r="BI9" s="88"/>
+      <c r="BJ9" s="88"/>
+      <c r="BK9" s="89"/>
+      <c r="BL9" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="90"/>
-      <c r="BN9" s="90"/>
-      <c r="BO9" s="90"/>
-      <c r="BP9" s="91"/>
+      <c r="BM9" s="88"/>
+      <c r="BN9" s="88"/>
+      <c r="BO9" s="88"/>
+      <c r="BP9" s="89"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -5174,7 +5635,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -6854,7 +7315,7 @@
         <v>4</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
@@ -6932,7 +7393,7 @@
         <v>81</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E40" s="39">
         <v>45026</v>
@@ -6944,7 +7405,7 @@
         <v>21</v>
       </c>
       <c r="H40" s="41">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="43"/>
@@ -7011,13 +7472,13 @@
     <row r="41" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A41" s="36"/>
       <c r="B41" s="37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="38" t="s">
         <v>82</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E41" s="39">
         <v>885083</v>
@@ -7096,13 +7557,13 @@
     <row r="42" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A42" s="36"/>
       <c r="B42" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="D42" s="82" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E42" s="39">
         <v>885083</v>
@@ -7181,13 +7642,13 @@
     <row r="43" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A43" s="36"/>
       <c r="B43" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D43" s="38" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E43" s="39">
         <v>885083</v>
@@ -7199,7 +7660,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="41">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I43" s="50"/>
       <c r="J43" s="51"/>
@@ -7266,13 +7727,13 @@
     <row r="44" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A44" s="36"/>
       <c r="B44" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D44" s="38" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E44" s="39">
         <v>885083</v>
@@ -7284,7 +7745,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="41">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I44" s="50"/>
       <c r="J44" s="51"/>
@@ -7351,13 +7812,13 @@
     <row r="45" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A45" s="36"/>
       <c r="B45" s="37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="D45" s="74" t="s">
-        <v>116</v>
+        <v>125</v>
+      </c>
+      <c r="D45" s="83" t="s">
+        <v>109</v>
       </c>
       <c r="E45" s="39">
         <v>45026</v>
@@ -7369,7 +7830,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="41">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="I45" s="50"/>
       <c r="J45" s="51"/>
@@ -7436,13 +7897,13 @@
     <row r="46" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A46" s="36"/>
       <c r="B46" s="37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46" s="38" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E46" s="39">
         <v>45033</v>
@@ -7518,16 +7979,16 @@
       <c r="BP46" s="57"/>
       <c r="BQ46" s="36"/>
     </row>
-    <row r="47" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="47" spans="1:69" ht="15.5" customHeight="1" outlineLevel="1">
       <c r="A47" s="36"/>
       <c r="B47" s="37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="82" t="s">
-        <v>126</v>
+        <v>139</v>
+      </c>
+      <c r="D47" s="74" t="s">
+        <v>140</v>
       </c>
       <c r="E47" s="39">
         <v>45033</v>
@@ -7539,7 +8000,7 @@
         <v>7</v>
       </c>
       <c r="H47" s="41">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I47" s="50"/>
       <c r="J47" s="51"/>
@@ -7603,25 +8064,25 @@
       <c r="BP47" s="57"/>
       <c r="BQ47" s="36"/>
     </row>
-    <row r="48" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:69" ht="18" customHeight="1" outlineLevel="1">
       <c r="A48" s="36"/>
       <c r="B48" s="37" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D48" s="82" t="s">
-        <v>117</v>
+        <v>137</v>
+      </c>
+      <c r="D48" s="83" t="s">
+        <v>106</v>
       </c>
       <c r="E48" s="39">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="F48" s="39">
-        <v>45039</v>
+        <v>45043</v>
       </c>
       <c r="G48" s="40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H48" s="41">
         <v>0</v>
@@ -7691,22 +8152,22 @@
     <row r="49" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A49" s="36"/>
       <c r="B49" s="37" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="D49" s="82" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E49" s="39">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="F49" s="39">
-        <v>45046</v>
+        <v>45043</v>
       </c>
       <c r="G49" s="40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H49" s="41">
         <v>0</v>
@@ -7776,22 +8237,22 @@
     <row r="50" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A50" s="36"/>
       <c r="B50" s="37" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="D50" s="82" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="E50" s="39">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="F50" s="39">
-        <v>45046</v>
+        <v>45043</v>
       </c>
       <c r="G50" s="40">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H50" s="41">
         <v>0</v>
@@ -7861,16 +8322,16 @@
     <row r="51" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A51" s="36"/>
       <c r="B51" s="37" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="82" t="s">
-        <v>114</v>
+        <v>141</v>
+      </c>
+      <c r="D51" s="83" t="s">
+        <v>143</v>
       </c>
       <c r="E51" s="39">
-        <v>45033</v>
+        <v>45044</v>
       </c>
       <c r="F51" s="39">
         <v>45046</v>
@@ -7878,9 +8339,7 @@
       <c r="G51" s="40">
         <v>7</v>
       </c>
-      <c r="H51" s="41">
-        <v>0</v>
-      </c>
+      <c r="H51" s="41"/>
       <c r="I51" s="50"/>
       <c r="J51" s="51"/>
       <c r="K51" s="52"/>
@@ -7943,29 +8402,21 @@
       <c r="BP51" s="57"/>
       <c r="BQ51" s="36"/>
     </row>
-    <row r="52" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="52" spans="1:69" ht="19" customHeight="1" outlineLevel="1">
       <c r="A52" s="36"/>
       <c r="B52" s="37" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D52" s="82" t="s">
-        <v>114</v>
-      </c>
-      <c r="E52" s="39">
-        <v>45041</v>
-      </c>
-      <c r="F52" s="39">
-        <v>45052</v>
-      </c>
-      <c r="G52" s="40">
-        <v>12</v>
-      </c>
-      <c r="H52" s="41">
-        <v>0</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="D52" s="111" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="41"/>
       <c r="I52" s="50"/>
       <c r="J52" s="51"/>
       <c r="K52" s="52"/>
@@ -8028,103 +8479,113 @@
       <c r="BP52" s="57"/>
       <c r="BQ52" s="36"/>
     </row>
-    <row r="53" spans="1:69" ht="21" customHeight="1">
-      <c r="A53" s="21"/>
-      <c r="B53" s="31">
-        <v>5</v>
-      </c>
-      <c r="C53" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="33"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="33"/>
-      <c r="AD53" s="33"/>
-      <c r="AE53" s="33"/>
-      <c r="AF53" s="33"/>
-      <c r="AG53" s="33"/>
-      <c r="AH53" s="33"/>
-      <c r="AI53" s="33"/>
-      <c r="AJ53" s="33"/>
-      <c r="AK53" s="33"/>
-      <c r="AL53" s="33"/>
-      <c r="AM53" s="33"/>
-      <c r="AN53" s="33"/>
-      <c r="AO53" s="33"/>
-      <c r="AP53" s="33"/>
-      <c r="AQ53" s="33"/>
-      <c r="AR53" s="33"/>
-      <c r="AS53" s="33"/>
-      <c r="AT53" s="33"/>
-      <c r="AU53" s="33"/>
-      <c r="AV53" s="33"/>
-      <c r="AW53" s="33"/>
-      <c r="AX53" s="33"/>
-      <c r="AY53" s="33"/>
-      <c r="AZ53" s="33"/>
-      <c r="BA53" s="33"/>
-      <c r="BB53" s="33"/>
-      <c r="BC53" s="33"/>
-      <c r="BD53" s="33"/>
-      <c r="BE53" s="33"/>
-      <c r="BF53" s="33"/>
-      <c r="BG53" s="33"/>
-      <c r="BH53" s="33"/>
-      <c r="BI53" s="33"/>
-      <c r="BJ53" s="33"/>
-      <c r="BK53" s="33"/>
-      <c r="BL53" s="33"/>
-      <c r="BM53" s="33"/>
-      <c r="BN53" s="33"/>
-      <c r="BO53" s="33"/>
-      <c r="BP53" s="33"/>
-      <c r="BQ53" s="21"/>
+    <row r="53" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A53" s="36"/>
+      <c r="B53" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" s="39">
+        <v>45040</v>
+      </c>
+      <c r="F53" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G53" s="40">
+        <v>7</v>
+      </c>
+      <c r="H53" s="41">
+        <v>0</v>
+      </c>
+      <c r="I53" s="50"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="45"/>
+      <c r="O53" s="45"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="44"/>
+      <c r="V53" s="44"/>
+      <c r="W53" s="52"/>
+      <c r="X53" s="52"/>
+      <c r="Y53" s="52"/>
+      <c r="Z53" s="52"/>
+      <c r="AA53" s="52"/>
+      <c r="AB53" s="52"/>
+      <c r="AC53" s="54"/>
+      <c r="AD53" s="54"/>
+      <c r="AE53" s="54"/>
+      <c r="AF53" s="54"/>
+      <c r="AG53" s="54"/>
+      <c r="AH53" s="52"/>
+      <c r="AI53" s="52"/>
+      <c r="AJ53" s="52"/>
+      <c r="AK53" s="52"/>
+      <c r="AL53" s="52"/>
+      <c r="AM53" s="52"/>
+      <c r="AN53" s="52"/>
+      <c r="AO53" s="52"/>
+      <c r="AP53" s="52"/>
+      <c r="AQ53" s="52"/>
+      <c r="AR53" s="55"/>
+      <c r="AS53" s="55"/>
+      <c r="AT53" s="55"/>
+      <c r="AU53" s="55"/>
+      <c r="AV53" s="55"/>
+      <c r="AW53" s="52"/>
+      <c r="AX53" s="52"/>
+      <c r="AY53" s="52"/>
+      <c r="AZ53" s="52"/>
+      <c r="BA53" s="52"/>
+      <c r="BB53" s="52"/>
+      <c r="BC53" s="52"/>
+      <c r="BD53" s="52"/>
+      <c r="BE53" s="52"/>
+      <c r="BF53" s="52"/>
+      <c r="BG53" s="56"/>
+      <c r="BH53" s="56"/>
+      <c r="BI53" s="56"/>
+      <c r="BJ53" s="56"/>
+      <c r="BK53" s="56"/>
+      <c r="BL53" s="52"/>
+      <c r="BM53" s="52"/>
+      <c r="BN53" s="52"/>
+      <c r="BO53" s="52"/>
+      <c r="BP53" s="57"/>
+      <c r="BQ53" s="36"/>
     </row>
     <row r="54" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="36"/>
-      <c r="B54" s="37">
-        <v>5.0999999999999996</v>
+      <c r="B54" s="37" t="s">
+        <v>132</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="74" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="D54" s="82" t="s">
+        <v>108</v>
       </c>
       <c r="E54" s="39">
-        <v>885083</v>
+        <v>45040</v>
       </c>
       <c r="F54" s="39">
-        <v>885103</v>
+        <v>45046</v>
       </c>
       <c r="G54" s="40">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H54" s="41">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="I54" s="50"/>
       <c r="J54" s="51"/>
@@ -8191,25 +8652,25 @@
     <row r="55" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="36"/>
       <c r="B55" s="37" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="74" t="s">
-        <v>93</v>
+        <v>105</v>
+      </c>
+      <c r="D55" s="82" t="s">
+        <v>109</v>
       </c>
       <c r="E55" s="39">
-        <v>885083</v>
+        <v>45040</v>
       </c>
       <c r="F55" s="39">
-        <v>885089</v>
+        <v>45046</v>
       </c>
       <c r="G55" s="40">
         <v>7</v>
       </c>
       <c r="H55" s="41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" s="50"/>
       <c r="J55" s="51"/>
@@ -8276,25 +8737,25 @@
     <row r="56" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A56" s="36"/>
       <c r="B56" s="37" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="74" t="s">
-        <v>93</v>
+        <v>111</v>
+      </c>
+      <c r="D56" s="82" t="s">
+        <v>106</v>
       </c>
       <c r="E56" s="39">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="F56" s="39">
-        <v>45039</v>
+        <v>45046</v>
       </c>
       <c r="G56" s="40">
         <v>7</v>
       </c>
       <c r="H56" s="41">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="I56" s="50"/>
       <c r="J56" s="51"/>
@@ -8361,22 +8822,22 @@
     <row r="57" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A57" s="36"/>
       <c r="B57" s="37" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D57" s="74" t="s">
-        <v>93</v>
+        <v>124</v>
+      </c>
+      <c r="D57" s="82" t="s">
+        <v>106</v>
       </c>
       <c r="E57" s="39">
-        <v>45040</v>
+        <v>45041</v>
       </c>
       <c r="F57" s="39">
-        <v>45046</v>
+        <v>45052</v>
       </c>
       <c r="G57" s="40">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="H57" s="41">
         <v>0</v>
@@ -8446,10 +8907,10 @@
     <row r="58" spans="1:69" ht="21" customHeight="1">
       <c r="A58" s="21"/>
       <c r="B58" s="31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
@@ -8521,25 +8982,25 @@
     <row r="59" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A59" s="36"/>
       <c r="B59" s="37">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C59" s="38" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="D59" s="74" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E59" s="39">
-        <v>45026</v>
+        <v>885083</v>
       </c>
       <c r="F59" s="39">
-        <v>45032</v>
+        <v>885103</v>
       </c>
       <c r="G59" s="40">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H59" s="41">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="I59" s="50"/>
       <c r="J59" s="51"/>
@@ -8606,19 +9067,19 @@
     <row r="60" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A60" s="36"/>
       <c r="B60" s="37" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="D60" s="74" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E60" s="39">
-        <v>45026</v>
+        <v>885083</v>
       </c>
       <c r="F60" s="39">
-        <v>45032</v>
+        <v>885089</v>
       </c>
       <c r="G60" s="40">
         <v>7</v>
@@ -8688,16 +9149,16 @@
       <c r="BP60" s="57"/>
       <c r="BQ60" s="36"/>
     </row>
-    <row r="61" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A61" s="86"/>
+    <row r="61" spans="1:69" ht="29.5" customHeight="1" outlineLevel="1">
+      <c r="A61" s="36"/>
       <c r="B61" s="37" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D61" s="74" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="E61" s="39">
         <v>45033</v>
@@ -8709,7 +9170,7 @@
         <v>7</v>
       </c>
       <c r="H61" s="41">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="I61" s="50"/>
       <c r="J61" s="51"/>
@@ -8773,28 +9234,28 @@
       <c r="BP61" s="57"/>
       <c r="BQ61" s="36"/>
     </row>
-    <row r="62" spans="1:69" ht="32.5" customHeight="1" outlineLevel="1">
+    <row r="62" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A62" s="36"/>
       <c r="B62" s="37" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D62" s="74" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="E62" s="39">
-        <v>45034</v>
+        <v>45033</v>
       </c>
       <c r="F62" s="39">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="G62" s="40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H62" s="41">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I62" s="50"/>
       <c r="J62" s="51"/>
@@ -8858,165 +9319,189 @@
       <c r="BP62" s="57"/>
       <c r="BQ62" s="36"/>
     </row>
-    <row r="63" spans="1:69" ht="21" customHeight="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="31">
+    <row r="63" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A63" s="36"/>
+      <c r="B63" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="E63" s="39">
+        <v>45040</v>
+      </c>
+      <c r="F63" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G63" s="40">
         <v>7</v>
       </c>
-      <c r="C63" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
-      <c r="J63" s="34"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="33"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="33"/>
-      <c r="AD63" s="33"/>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="33"/>
-      <c r="AH63" s="33"/>
-      <c r="AI63" s="33"/>
-      <c r="AJ63" s="33"/>
-      <c r="AK63" s="33"/>
-      <c r="AL63" s="33"/>
-      <c r="AM63" s="33"/>
-      <c r="AN63" s="33"/>
-      <c r="AO63" s="33"/>
-      <c r="AP63" s="33"/>
-      <c r="AQ63" s="33"/>
-      <c r="AR63" s="33"/>
-      <c r="AS63" s="33"/>
-      <c r="AT63" s="33"/>
-      <c r="AU63" s="33"/>
-      <c r="AV63" s="33"/>
-      <c r="AW63" s="33"/>
-      <c r="AX63" s="33"/>
-      <c r="AY63" s="33"/>
-      <c r="AZ63" s="33"/>
-      <c r="BA63" s="33"/>
-      <c r="BB63" s="33"/>
-      <c r="BC63" s="33"/>
-      <c r="BD63" s="33"/>
-      <c r="BE63" s="33"/>
-      <c r="BF63" s="33"/>
-      <c r="BG63" s="33"/>
-      <c r="BH63" s="33"/>
-      <c r="BI63" s="33"/>
-      <c r="BJ63" s="33"/>
-      <c r="BK63" s="33"/>
-      <c r="BL63" s="33"/>
-      <c r="BM63" s="33"/>
-      <c r="BN63" s="33"/>
-      <c r="BO63" s="33"/>
-      <c r="BP63" s="33"/>
-      <c r="BQ63" s="21"/>
+      <c r="H63" s="41">
+        <v>0</v>
+      </c>
+      <c r="I63" s="50"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="52"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="45"/>
+      <c r="O63" s="45"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="52"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="52"/>
+      <c r="Z63" s="52"/>
+      <c r="AA63" s="52"/>
+      <c r="AB63" s="52"/>
+      <c r="AC63" s="54"/>
+      <c r="AD63" s="54"/>
+      <c r="AE63" s="54"/>
+      <c r="AF63" s="54"/>
+      <c r="AG63" s="54"/>
+      <c r="AH63" s="52"/>
+      <c r="AI63" s="52"/>
+      <c r="AJ63" s="52"/>
+      <c r="AK63" s="52"/>
+      <c r="AL63" s="52"/>
+      <c r="AM63" s="52"/>
+      <c r="AN63" s="52"/>
+      <c r="AO63" s="52"/>
+      <c r="AP63" s="52"/>
+      <c r="AQ63" s="52"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
+      <c r="AW63" s="52"/>
+      <c r="AX63" s="52"/>
+      <c r="AY63" s="52"/>
+      <c r="AZ63" s="52"/>
+      <c r="BA63" s="52"/>
+      <c r="BB63" s="52"/>
+      <c r="BC63" s="52"/>
+      <c r="BD63" s="52"/>
+      <c r="BE63" s="52"/>
+      <c r="BF63" s="52"/>
+      <c r="BG63" s="56"/>
+      <c r="BH63" s="56"/>
+      <c r="BI63" s="56"/>
+      <c r="BJ63" s="56"/>
+      <c r="BK63" s="56"/>
+      <c r="BL63" s="52"/>
+      <c r="BM63" s="52"/>
+      <c r="BN63" s="52"/>
+      <c r="BO63" s="52"/>
+      <c r="BP63" s="57"/>
+      <c r="BQ63" s="36"/>
     </row>
-    <row r="64" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A64" s="86"/>
-      <c r="B64" s="37">
-        <v>7.1</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="74"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="50"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="45"/>
-      <c r="Q64" s="45"/>
-      <c r="R64" s="45"/>
-      <c r="S64" s="44"/>
-      <c r="T64" s="44"/>
-      <c r="U64" s="44"/>
-      <c r="V64" s="44"/>
-      <c r="W64" s="52"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="52"/>
-      <c r="Z64" s="52"/>
-      <c r="AA64" s="52"/>
-      <c r="AB64" s="52"/>
-      <c r="AC64" s="54"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="54"/>
-      <c r="AF64" s="54"/>
-      <c r="AG64" s="54"/>
-      <c r="AH64" s="52"/>
-      <c r="AI64" s="52"/>
-      <c r="AJ64" s="52"/>
-      <c r="AK64" s="52"/>
-      <c r="AL64" s="52"/>
-      <c r="AM64" s="52"/>
-      <c r="AN64" s="52"/>
-      <c r="AO64" s="52"/>
-      <c r="AP64" s="52"/>
-      <c r="AQ64" s="52"/>
-      <c r="AR64" s="55"/>
-      <c r="AS64" s="55"/>
-      <c r="AT64" s="55"/>
-      <c r="AU64" s="55"/>
-      <c r="AV64" s="55"/>
-      <c r="AW64" s="52"/>
-      <c r="AX64" s="52"/>
-      <c r="AY64" s="52"/>
-      <c r="AZ64" s="52"/>
-      <c r="BA64" s="52"/>
-      <c r="BB64" s="52"/>
-      <c r="BC64" s="52"/>
-      <c r="BD64" s="52"/>
-      <c r="BE64" s="52"/>
-      <c r="BF64" s="52"/>
-      <c r="BG64" s="56"/>
-      <c r="BH64" s="56"/>
-      <c r="BI64" s="56"/>
-      <c r="BJ64" s="56"/>
-      <c r="BK64" s="56"/>
-      <c r="BL64" s="52"/>
-      <c r="BM64" s="52"/>
-      <c r="BN64" s="52"/>
-      <c r="BO64" s="52"/>
-      <c r="BP64" s="57"/>
-      <c r="BQ64" s="36"/>
+    <row r="64" spans="1:69" ht="21" customHeight="1">
+      <c r="A64" s="21"/>
+      <c r="B64" s="31">
+        <v>6</v>
+      </c>
+      <c r="C64" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="34"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="33"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="33"/>
+      <c r="AD64" s="33"/>
+      <c r="AE64" s="33"/>
+      <c r="AF64" s="33"/>
+      <c r="AG64" s="33"/>
+      <c r="AH64" s="33"/>
+      <c r="AI64" s="33"/>
+      <c r="AJ64" s="33"/>
+      <c r="AK64" s="33"/>
+      <c r="AL64" s="33"/>
+      <c r="AM64" s="33"/>
+      <c r="AN64" s="33"/>
+      <c r="AO64" s="33"/>
+      <c r="AP64" s="33"/>
+      <c r="AQ64" s="33"/>
+      <c r="AR64" s="33"/>
+      <c r="AS64" s="33"/>
+      <c r="AT64" s="33"/>
+      <c r="AU64" s="33"/>
+      <c r="AV64" s="33"/>
+      <c r="AW64" s="33"/>
+      <c r="AX64" s="33"/>
+      <c r="AY64" s="33"/>
+      <c r="AZ64" s="33"/>
+      <c r="BA64" s="33"/>
+      <c r="BB64" s="33"/>
+      <c r="BC64" s="33"/>
+      <c r="BD64" s="33"/>
+      <c r="BE64" s="33"/>
+      <c r="BF64" s="33"/>
+      <c r="BG64" s="33"/>
+      <c r="BH64" s="33"/>
+      <c r="BI64" s="33"/>
+      <c r="BJ64" s="33"/>
+      <c r="BK64" s="33"/>
+      <c r="BL64" s="33"/>
+      <c r="BM64" s="33"/>
+      <c r="BN64" s="33"/>
+      <c r="BO64" s="33"/>
+      <c r="BP64" s="33"/>
+      <c r="BQ64" s="21"/>
     </row>
     <row r="65" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A65" s="36"/>
       <c r="B65" s="37">
-        <v>7.2</v>
-      </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="74"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="41"/>
+        <v>6.1</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="39">
+        <v>45026</v>
+      </c>
+      <c r="F65" s="39">
+        <v>45032</v>
+      </c>
+      <c r="G65" s="40">
+        <v>7</v>
+      </c>
+      <c r="H65" s="41">
+        <v>1</v>
+      </c>
       <c r="I65" s="50"/>
       <c r="J65" s="51"/>
       <c r="K65" s="52"/>
@@ -9081,13 +9566,27 @@
     </row>
     <row r="66" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A66" s="36"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="74"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="41"/>
+      <c r="B66" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C66" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D66" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="39">
+        <v>45026</v>
+      </c>
+      <c r="F66" s="39">
+        <v>45032</v>
+      </c>
+      <c r="G66" s="40">
+        <v>7</v>
+      </c>
+      <c r="H66" s="41">
+        <v>1</v>
+      </c>
       <c r="I66" s="50"/>
       <c r="J66" s="51"/>
       <c r="K66" s="52"/>
@@ -9150,221 +9649,705 @@
       <c r="BP66" s="57"/>
       <c r="BQ66" s="36"/>
     </row>
-    <row r="67" spans="1:69" ht="21" customHeight="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="72"/>
-      <c r="H67" s="72"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-      <c r="AB67" s="21"/>
-      <c r="AC67" s="21"/>
-      <c r="AD67" s="21"/>
-      <c r="AE67" s="21"/>
-      <c r="AF67" s="21"/>
-      <c r="AG67" s="21"/>
-      <c r="AH67" s="21"/>
-      <c r="AI67" s="21"/>
-      <c r="AJ67" s="21"/>
-      <c r="AK67" s="21"/>
-      <c r="AL67" s="21"/>
-      <c r="AM67" s="21"/>
-      <c r="AN67" s="21"/>
-      <c r="AO67" s="21"/>
-      <c r="AP67" s="21"/>
-      <c r="AQ67" s="21"/>
-      <c r="AR67" s="21"/>
-      <c r="AS67" s="21"/>
-      <c r="AT67" s="21"/>
-      <c r="AU67" s="21"/>
-      <c r="AV67" s="21"/>
-      <c r="AW67" s="21"/>
-      <c r="AX67" s="21"/>
-      <c r="AY67" s="21"/>
-      <c r="AZ67" s="21"/>
-      <c r="BA67" s="21"/>
-      <c r="BB67" s="21"/>
-      <c r="BC67" s="21"/>
-      <c r="BD67" s="21"/>
-      <c r="BE67" s="21"/>
-      <c r="BF67" s="21"/>
-      <c r="BG67" s="21"/>
-      <c r="BH67" s="21"/>
-      <c r="BI67" s="21"/>
-      <c r="BJ67" s="21"/>
-      <c r="BK67" s="21"/>
-      <c r="BL67" s="21"/>
-      <c r="BM67" s="21"/>
-      <c r="BN67" s="21"/>
-      <c r="BO67" s="21"/>
-      <c r="BP67" s="21"/>
-      <c r="BQ67" s="21"/>
+    <row r="67" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A67" s="86"/>
+      <c r="B67" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="39">
+        <v>45033</v>
+      </c>
+      <c r="F67" s="39">
+        <v>45039</v>
+      </c>
+      <c r="G67" s="40">
+        <v>7</v>
+      </c>
+      <c r="H67" s="41">
+        <v>0.15</v>
+      </c>
+      <c r="I67" s="50"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="45"/>
+      <c r="O67" s="45"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="52"/>
+      <c r="X67" s="52"/>
+      <c r="Y67" s="52"/>
+      <c r="Z67" s="52"/>
+      <c r="AA67" s="52"/>
+      <c r="AB67" s="52"/>
+      <c r="AC67" s="54"/>
+      <c r="AD67" s="54"/>
+      <c r="AE67" s="54"/>
+      <c r="AF67" s="54"/>
+      <c r="AG67" s="54"/>
+      <c r="AH67" s="52"/>
+      <c r="AI67" s="52"/>
+      <c r="AJ67" s="52"/>
+      <c r="AK67" s="52"/>
+      <c r="AL67" s="52"/>
+      <c r="AM67" s="52"/>
+      <c r="AN67" s="52"/>
+      <c r="AO67" s="52"/>
+      <c r="AP67" s="52"/>
+      <c r="AQ67" s="52"/>
+      <c r="AR67" s="55"/>
+      <c r="AS67" s="55"/>
+      <c r="AT67" s="55"/>
+      <c r="AU67" s="55"/>
+      <c r="AV67" s="55"/>
+      <c r="AW67" s="52"/>
+      <c r="AX67" s="52"/>
+      <c r="AY67" s="52"/>
+      <c r="AZ67" s="52"/>
+      <c r="BA67" s="52"/>
+      <c r="BB67" s="52"/>
+      <c r="BC67" s="52"/>
+      <c r="BD67" s="52"/>
+      <c r="BE67" s="52"/>
+      <c r="BF67" s="52"/>
+      <c r="BG67" s="56"/>
+      <c r="BH67" s="56"/>
+      <c r="BI67" s="56"/>
+      <c r="BJ67" s="56"/>
+      <c r="BK67" s="56"/>
+      <c r="BL67" s="52"/>
+      <c r="BM67" s="52"/>
+      <c r="BN67" s="52"/>
+      <c r="BO67" s="52"/>
+      <c r="BP67" s="57"/>
+      <c r="BQ67" s="36"/>
     </row>
-    <row r="68" spans="1:69" ht="21" customHeight="1">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="72"/>
-      <c r="H68" s="72"/>
-      <c r="I68" s="21"/>
-      <c r="J68" s="21"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="21"/>
-      <c r="M68" s="21"/>
-      <c r="N68" s="21"/>
-      <c r="O68" s="21"/>
-      <c r="P68" s="21"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="21"/>
-      <c r="S68" s="21"/>
-      <c r="T68" s="21"/>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="21"/>
-      <c r="X68" s="21"/>
-      <c r="Y68" s="21"/>
-      <c r="Z68" s="21"/>
-      <c r="AA68" s="21"/>
-      <c r="AB68" s="21"/>
-      <c r="AC68" s="21"/>
-      <c r="AD68" s="21"/>
-      <c r="AE68" s="21"/>
-      <c r="AF68" s="21"/>
-      <c r="AG68" s="21"/>
-      <c r="AH68" s="21"/>
-      <c r="AI68" s="21"/>
-      <c r="AJ68" s="21"/>
-      <c r="AK68" s="21"/>
-      <c r="AL68" s="21"/>
-      <c r="AM68" s="21"/>
-      <c r="AN68" s="21"/>
-      <c r="AO68" s="21"/>
-      <c r="AP68" s="21"/>
-      <c r="AQ68" s="21"/>
-      <c r="AR68" s="21"/>
-      <c r="AS68" s="21"/>
-      <c r="AT68" s="21"/>
-      <c r="AU68" s="21"/>
-      <c r="AV68" s="21"/>
-      <c r="AW68" s="21"/>
-      <c r="AX68" s="21"/>
-      <c r="AY68" s="21"/>
-      <c r="AZ68" s="21"/>
-      <c r="BA68" s="21"/>
-      <c r="BB68" s="21"/>
-      <c r="BC68" s="21"/>
-      <c r="BD68" s="21"/>
-      <c r="BE68" s="21"/>
-      <c r="BF68" s="21"/>
-      <c r="BG68" s="21"/>
-      <c r="BH68" s="21"/>
-      <c r="BI68" s="21"/>
-      <c r="BJ68" s="21"/>
-      <c r="BK68" s="21"/>
-      <c r="BL68" s="21"/>
-      <c r="BM68" s="21"/>
-      <c r="BN68" s="21"/>
-      <c r="BO68" s="21"/>
-      <c r="BP68" s="21"/>
-      <c r="BQ68" s="21"/>
+    <row r="68" spans="1:69" ht="32.5" customHeight="1" outlineLevel="1">
+      <c r="A68" s="36"/>
+      <c r="B68" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="39">
+        <v>45034</v>
+      </c>
+      <c r="F68" s="39">
+        <v>45036</v>
+      </c>
+      <c r="G68" s="40">
+        <v>3</v>
+      </c>
+      <c r="H68" s="41">
+        <v>0</v>
+      </c>
+      <c r="I68" s="50"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="45"/>
+      <c r="O68" s="45"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="52"/>
+      <c r="X68" s="52"/>
+      <c r="Y68" s="52"/>
+      <c r="Z68" s="52"/>
+      <c r="AA68" s="52"/>
+      <c r="AB68" s="52"/>
+      <c r="AC68" s="54"/>
+      <c r="AD68" s="54"/>
+      <c r="AE68" s="54"/>
+      <c r="AF68" s="54"/>
+      <c r="AG68" s="54"/>
+      <c r="AH68" s="52"/>
+      <c r="AI68" s="52"/>
+      <c r="AJ68" s="52"/>
+      <c r="AK68" s="52"/>
+      <c r="AL68" s="52"/>
+      <c r="AM68" s="52"/>
+      <c r="AN68" s="52"/>
+      <c r="AO68" s="52"/>
+      <c r="AP68" s="52"/>
+      <c r="AQ68" s="52"/>
+      <c r="AR68" s="55"/>
+      <c r="AS68" s="55"/>
+      <c r="AT68" s="55"/>
+      <c r="AU68" s="55"/>
+      <c r="AV68" s="55"/>
+      <c r="AW68" s="52"/>
+      <c r="AX68" s="52"/>
+      <c r="AY68" s="52"/>
+      <c r="AZ68" s="52"/>
+      <c r="BA68" s="52"/>
+      <c r="BB68" s="52"/>
+      <c r="BC68" s="52"/>
+      <c r="BD68" s="52"/>
+      <c r="BE68" s="52"/>
+      <c r="BF68" s="52"/>
+      <c r="BG68" s="56"/>
+      <c r="BH68" s="56"/>
+      <c r="BI68" s="56"/>
+      <c r="BJ68" s="56"/>
+      <c r="BK68" s="56"/>
+      <c r="BL68" s="52"/>
+      <c r="BM68" s="52"/>
+      <c r="BN68" s="52"/>
+      <c r="BO68" s="52"/>
+      <c r="BP68" s="57"/>
+      <c r="BQ68" s="36"/>
     </row>
     <row r="69" spans="1:69" ht="21" customHeight="1">
       <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="72"/>
-      <c r="H69" s="72"/>
-      <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="21"/>
-      <c r="M69" s="21"/>
-      <c r="N69" s="21"/>
-      <c r="O69" s="21"/>
-      <c r="P69" s="21"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="21"/>
-      <c r="S69" s="21"/>
-      <c r="T69" s="21"/>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="21"/>
-      <c r="X69" s="21"/>
-      <c r="Y69" s="21"/>
-      <c r="Z69" s="21"/>
-      <c r="AA69" s="21"/>
-      <c r="AB69" s="21"/>
-      <c r="AC69" s="21"/>
-      <c r="AD69" s="21"/>
-      <c r="AE69" s="21"/>
-      <c r="AF69" s="21"/>
-      <c r="AG69" s="21"/>
-      <c r="AH69" s="21"/>
-      <c r="AI69" s="21"/>
-      <c r="AJ69" s="21"/>
-      <c r="AK69" s="21"/>
-      <c r="AL69" s="21"/>
-      <c r="AM69" s="21"/>
-      <c r="AN69" s="21"/>
-      <c r="AO69" s="21"/>
-      <c r="AP69" s="21"/>
-      <c r="AQ69" s="21"/>
-      <c r="AR69" s="21"/>
-      <c r="AS69" s="21"/>
-      <c r="AT69" s="21"/>
-      <c r="AU69" s="21"/>
-      <c r="AV69" s="21"/>
-      <c r="AW69" s="21"/>
-      <c r="AX69" s="21"/>
-      <c r="AY69" s="21"/>
-      <c r="AZ69" s="21"/>
-      <c r="BA69" s="21"/>
-      <c r="BB69" s="21"/>
-      <c r="BC69" s="21"/>
-      <c r="BD69" s="21"/>
-      <c r="BE69" s="21"/>
-      <c r="BF69" s="21"/>
-      <c r="BG69" s="21"/>
-      <c r="BH69" s="21"/>
-      <c r="BI69" s="21"/>
-      <c r="BJ69" s="21"/>
-      <c r="BK69" s="21"/>
-      <c r="BL69" s="21"/>
-      <c r="BM69" s="21"/>
-      <c r="BN69" s="21"/>
-      <c r="BO69" s="21"/>
-      <c r="BP69" s="21"/>
+      <c r="B69" s="31">
+        <v>7</v>
+      </c>
+      <c r="C69" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="34"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="33"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="33"/>
+      <c r="AD69" s="33"/>
+      <c r="AE69" s="33"/>
+      <c r="AF69" s="33"/>
+      <c r="AG69" s="33"/>
+      <c r="AH69" s="33"/>
+      <c r="AI69" s="33"/>
+      <c r="AJ69" s="33"/>
+      <c r="AK69" s="33"/>
+      <c r="AL69" s="33"/>
+      <c r="AM69" s="33"/>
+      <c r="AN69" s="33"/>
+      <c r="AO69" s="33"/>
+      <c r="AP69" s="33"/>
+      <c r="AQ69" s="33"/>
+      <c r="AR69" s="33"/>
+      <c r="AS69" s="33"/>
+      <c r="AT69" s="33"/>
+      <c r="AU69" s="33"/>
+      <c r="AV69" s="33"/>
+      <c r="AW69" s="33"/>
+      <c r="AX69" s="33"/>
+      <c r="AY69" s="33"/>
+      <c r="AZ69" s="33"/>
+      <c r="BA69" s="33"/>
+      <c r="BB69" s="33"/>
+      <c r="BC69" s="33"/>
+      <c r="BD69" s="33"/>
+      <c r="BE69" s="33"/>
+      <c r="BF69" s="33"/>
+      <c r="BG69" s="33"/>
+      <c r="BH69" s="33"/>
+      <c r="BI69" s="33"/>
+      <c r="BJ69" s="33"/>
+      <c r="BK69" s="33"/>
+      <c r="BL69" s="33"/>
+      <c r="BM69" s="33"/>
+      <c r="BN69" s="33"/>
+      <c r="BO69" s="33"/>
+      <c r="BP69" s="33"/>
       <c r="BQ69" s="21"/>
+    </row>
+    <row r="70" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A70" s="86"/>
+      <c r="B70" s="37">
+        <v>7.1</v>
+      </c>
+      <c r="C70" s="38"/>
+      <c r="D70" s="74"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="50"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="45"/>
+      <c r="O70" s="45"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="44"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="52"/>
+      <c r="X70" s="52"/>
+      <c r="Y70" s="52"/>
+      <c r="Z70" s="52"/>
+      <c r="AA70" s="52"/>
+      <c r="AB70" s="52"/>
+      <c r="AC70" s="54"/>
+      <c r="AD70" s="54"/>
+      <c r="AE70" s="54"/>
+      <c r="AF70" s="54"/>
+      <c r="AG70" s="54"/>
+      <c r="AH70" s="52"/>
+      <c r="AI70" s="52"/>
+      <c r="AJ70" s="52"/>
+      <c r="AK70" s="52"/>
+      <c r="AL70" s="52"/>
+      <c r="AM70" s="52"/>
+      <c r="AN70" s="52"/>
+      <c r="AO70" s="52"/>
+      <c r="AP70" s="52"/>
+      <c r="AQ70" s="52"/>
+      <c r="AR70" s="55"/>
+      <c r="AS70" s="55"/>
+      <c r="AT70" s="55"/>
+      <c r="AU70" s="55"/>
+      <c r="AV70" s="55"/>
+      <c r="AW70" s="52"/>
+      <c r="AX70" s="52"/>
+      <c r="AY70" s="52"/>
+      <c r="AZ70" s="52"/>
+      <c r="BA70" s="52"/>
+      <c r="BB70" s="52"/>
+      <c r="BC70" s="52"/>
+      <c r="BD70" s="52"/>
+      <c r="BE70" s="52"/>
+      <c r="BF70" s="52"/>
+      <c r="BG70" s="56"/>
+      <c r="BH70" s="56"/>
+      <c r="BI70" s="56"/>
+      <c r="BJ70" s="56"/>
+      <c r="BK70" s="56"/>
+      <c r="BL70" s="52"/>
+      <c r="BM70" s="52"/>
+      <c r="BN70" s="52"/>
+      <c r="BO70" s="52"/>
+      <c r="BP70" s="57"/>
+      <c r="BQ70" s="36"/>
+    </row>
+    <row r="71" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A71" s="36"/>
+      <c r="B71" s="37">
+        <v>7.2</v>
+      </c>
+      <c r="C71" s="38"/>
+      <c r="D71" s="74"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="40"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="50"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="45"/>
+      <c r="O71" s="45"/>
+      <c r="P71" s="45"/>
+      <c r="Q71" s="45"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="52"/>
+      <c r="X71" s="52"/>
+      <c r="Y71" s="52"/>
+      <c r="Z71" s="52"/>
+      <c r="AA71" s="52"/>
+      <c r="AB71" s="52"/>
+      <c r="AC71" s="54"/>
+      <c r="AD71" s="54"/>
+      <c r="AE71" s="54"/>
+      <c r="AF71" s="54"/>
+      <c r="AG71" s="54"/>
+      <c r="AH71" s="52"/>
+      <c r="AI71" s="52"/>
+      <c r="AJ71" s="52"/>
+      <c r="AK71" s="52"/>
+      <c r="AL71" s="52"/>
+      <c r="AM71" s="52"/>
+      <c r="AN71" s="52"/>
+      <c r="AO71" s="52"/>
+      <c r="AP71" s="52"/>
+      <c r="AQ71" s="52"/>
+      <c r="AR71" s="55"/>
+      <c r="AS71" s="55"/>
+      <c r="AT71" s="55"/>
+      <c r="AU71" s="55"/>
+      <c r="AV71" s="55"/>
+      <c r="AW71" s="52"/>
+      <c r="AX71" s="52"/>
+      <c r="AY71" s="52"/>
+      <c r="AZ71" s="52"/>
+      <c r="BA71" s="52"/>
+      <c r="BB71" s="52"/>
+      <c r="BC71" s="52"/>
+      <c r="BD71" s="52"/>
+      <c r="BE71" s="52"/>
+      <c r="BF71" s="52"/>
+      <c r="BG71" s="56"/>
+      <c r="BH71" s="56"/>
+      <c r="BI71" s="56"/>
+      <c r="BJ71" s="56"/>
+      <c r="BK71" s="56"/>
+      <c r="BL71" s="52"/>
+      <c r="BM71" s="52"/>
+      <c r="BN71" s="52"/>
+      <c r="BO71" s="52"/>
+      <c r="BP71" s="57"/>
+      <c r="BQ71" s="36"/>
+    </row>
+    <row r="72" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A72" s="36"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="40"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="45"/>
+      <c r="O72" s="45"/>
+      <c r="P72" s="45"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="52"/>
+      <c r="X72" s="52"/>
+      <c r="Y72" s="52"/>
+      <c r="Z72" s="52"/>
+      <c r="AA72" s="52"/>
+      <c r="AB72" s="52"/>
+      <c r="AC72" s="54"/>
+      <c r="AD72" s="54"/>
+      <c r="AE72" s="54"/>
+      <c r="AF72" s="54"/>
+      <c r="AG72" s="54"/>
+      <c r="AH72" s="52"/>
+      <c r="AI72" s="52"/>
+      <c r="AJ72" s="52"/>
+      <c r="AK72" s="52"/>
+      <c r="AL72" s="52"/>
+      <c r="AM72" s="52"/>
+      <c r="AN72" s="52"/>
+      <c r="AO72" s="52"/>
+      <c r="AP72" s="52"/>
+      <c r="AQ72" s="52"/>
+      <c r="AR72" s="55"/>
+      <c r="AS72" s="55"/>
+      <c r="AT72" s="55"/>
+      <c r="AU72" s="55"/>
+      <c r="AV72" s="55"/>
+      <c r="AW72" s="52"/>
+      <c r="AX72" s="52"/>
+      <c r="AY72" s="52"/>
+      <c r="AZ72" s="52"/>
+      <c r="BA72" s="52"/>
+      <c r="BB72" s="52"/>
+      <c r="BC72" s="52"/>
+      <c r="BD72" s="52"/>
+      <c r="BE72" s="52"/>
+      <c r="BF72" s="52"/>
+      <c r="BG72" s="56"/>
+      <c r="BH72" s="56"/>
+      <c r="BI72" s="56"/>
+      <c r="BJ72" s="56"/>
+      <c r="BK72" s="56"/>
+      <c r="BL72" s="52"/>
+      <c r="BM72" s="52"/>
+      <c r="BN72" s="52"/>
+      <c r="BO72" s="52"/>
+      <c r="BP72" s="57"/>
+      <c r="BQ72" s="36"/>
+    </row>
+    <row r="73" spans="1:69" ht="21" customHeight="1">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="72"/>
+      <c r="H73" s="72"/>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+      <c r="O73" s="21"/>
+      <c r="P73" s="21"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="21"/>
+      <c r="S73" s="21"/>
+      <c r="T73" s="21"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="21"/>
+      <c r="X73" s="21"/>
+      <c r="Y73" s="21"/>
+      <c r="Z73" s="21"/>
+      <c r="AA73" s="21"/>
+      <c r="AB73" s="21"/>
+      <c r="AC73" s="21"/>
+      <c r="AD73" s="21"/>
+      <c r="AE73" s="21"/>
+      <c r="AF73" s="21"/>
+      <c r="AG73" s="21"/>
+      <c r="AH73" s="21"/>
+      <c r="AI73" s="21"/>
+      <c r="AJ73" s="21"/>
+      <c r="AK73" s="21"/>
+      <c r="AL73" s="21"/>
+      <c r="AM73" s="21"/>
+      <c r="AN73" s="21"/>
+      <c r="AO73" s="21"/>
+      <c r="AP73" s="21"/>
+      <c r="AQ73" s="21"/>
+      <c r="AR73" s="21"/>
+      <c r="AS73" s="21"/>
+      <c r="AT73" s="21"/>
+      <c r="AU73" s="21"/>
+      <c r="AV73" s="21"/>
+      <c r="AW73" s="21"/>
+      <c r="AX73" s="21"/>
+      <c r="AY73" s="21"/>
+      <c r="AZ73" s="21"/>
+      <c r="BA73" s="21"/>
+      <c r="BB73" s="21"/>
+      <c r="BC73" s="21"/>
+      <c r="BD73" s="21"/>
+      <c r="BE73" s="21"/>
+      <c r="BF73" s="21"/>
+      <c r="BG73" s="21"/>
+      <c r="BH73" s="21"/>
+      <c r="BI73" s="21"/>
+      <c r="BJ73" s="21"/>
+      <c r="BK73" s="21"/>
+      <c r="BL73" s="21"/>
+      <c r="BM73" s="21"/>
+      <c r="BN73" s="21"/>
+      <c r="BO73" s="21"/>
+      <c r="BP73" s="21"/>
+      <c r="BQ73" s="21"/>
+    </row>
+    <row r="74" spans="1:69" ht="21" customHeight="1">
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="72"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="21"/>
+      <c r="S74" s="21"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="21"/>
+      <c r="V74" s="21"/>
+      <c r="W74" s="21"/>
+      <c r="X74" s="21"/>
+      <c r="Y74" s="21"/>
+      <c r="Z74" s="21"/>
+      <c r="AA74" s="21"/>
+      <c r="AB74" s="21"/>
+      <c r="AC74" s="21"/>
+      <c r="AD74" s="21"/>
+      <c r="AE74" s="21"/>
+      <c r="AF74" s="21"/>
+      <c r="AG74" s="21"/>
+      <c r="AH74" s="21"/>
+      <c r="AI74" s="21"/>
+      <c r="AJ74" s="21"/>
+      <c r="AK74" s="21"/>
+      <c r="AL74" s="21"/>
+      <c r="AM74" s="21"/>
+      <c r="AN74" s="21"/>
+      <c r="AO74" s="21"/>
+      <c r="AP74" s="21"/>
+      <c r="AQ74" s="21"/>
+      <c r="AR74" s="21"/>
+      <c r="AS74" s="21"/>
+      <c r="AT74" s="21"/>
+      <c r="AU74" s="21"/>
+      <c r="AV74" s="21"/>
+      <c r="AW74" s="21"/>
+      <c r="AX74" s="21"/>
+      <c r="AY74" s="21"/>
+      <c r="AZ74" s="21"/>
+      <c r="BA74" s="21"/>
+      <c r="BB74" s="21"/>
+      <c r="BC74" s="21"/>
+      <c r="BD74" s="21"/>
+      <c r="BE74" s="21"/>
+      <c r="BF74" s="21"/>
+      <c r="BG74" s="21"/>
+      <c r="BH74" s="21"/>
+      <c r="BI74" s="21"/>
+      <c r="BJ74" s="21"/>
+      <c r="BK74" s="21"/>
+      <c r="BL74" s="21"/>
+      <c r="BM74" s="21"/>
+      <c r="BN74" s="21"/>
+      <c r="BO74" s="21"/>
+      <c r="BP74" s="21"/>
+      <c r="BQ74" s="21"/>
+    </row>
+    <row r="75" spans="1:69" ht="21" customHeight="1">
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="72"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="21"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="21"/>
+      <c r="R75" s="21"/>
+      <c r="S75" s="21"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="21"/>
+      <c r="V75" s="21"/>
+      <c r="W75" s="21"/>
+      <c r="X75" s="21"/>
+      <c r="Y75" s="21"/>
+      <c r="Z75" s="21"/>
+      <c r="AA75" s="21"/>
+      <c r="AB75" s="21"/>
+      <c r="AC75" s="21"/>
+      <c r="AD75" s="21"/>
+      <c r="AE75" s="21"/>
+      <c r="AF75" s="21"/>
+      <c r="AG75" s="21"/>
+      <c r="AH75" s="21"/>
+      <c r="AI75" s="21"/>
+      <c r="AJ75" s="21"/>
+      <c r="AK75" s="21"/>
+      <c r="AL75" s="21"/>
+      <c r="AM75" s="21"/>
+      <c r="AN75" s="21"/>
+      <c r="AO75" s="21"/>
+      <c r="AP75" s="21"/>
+      <c r="AQ75" s="21"/>
+      <c r="AR75" s="21"/>
+      <c r="AS75" s="21"/>
+      <c r="AT75" s="21"/>
+      <c r="AU75" s="21"/>
+      <c r="AV75" s="21"/>
+      <c r="AW75" s="21"/>
+      <c r="AX75" s="21"/>
+      <c r="AY75" s="21"/>
+      <c r="AZ75" s="21"/>
+      <c r="BA75" s="21"/>
+      <c r="BB75" s="21"/>
+      <c r="BC75" s="21"/>
+      <c r="BD75" s="21"/>
+      <c r="BE75" s="21"/>
+      <c r="BF75" s="21"/>
+      <c r="BG75" s="21"/>
+      <c r="BH75" s="21"/>
+      <c r="BI75" s="21"/>
+      <c r="BJ75" s="21"/>
+      <c r="BK75" s="21"/>
+      <c r="BL75" s="21"/>
+      <c r="BM75" s="21"/>
+      <c r="BN75" s="21"/>
+      <c r="BO75" s="21"/>
+      <c r="BP75" s="21"/>
+      <c r="BQ75" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -9377,31 +10360,9 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H18 H20:H66">
+  <conditionalFormatting sqref="H12:H18 H20:H72">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\캡스톤\Sources\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7E0F26-242E-4D62-86E9-4B82E6D50BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50199E73-15F7-4043-BD20-6688A633F32D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="156">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -1646,8 +1646,20 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B)</t>
+    <t>프론트엔드 개발</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엔드 개발</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)</t>
     </r>
     <r>
       <rPr>
@@ -1656,25 +1668,74 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>리마인더 모듈</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>프론트엔드 개발</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>백엔드 개발</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)</t>
+      <t>요구사항 정의</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.1</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.2</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>DIAGRAM</t>
     </r>
     <r>
       <rPr>
@@ -1683,17 +1744,17 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>요구사항 정의</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1.1</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)ER</t>
+      <t>작성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.3</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)(</t>
     </r>
     <r>
       <rPr>
@@ -1703,7 +1764,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>모델</t>
+      <t>추가</t>
     </r>
     <r>
       <rPr>
@@ -1712,7 +1773,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>)</t>
     </r>
     <r>
       <rPr>
@@ -1722,17 +1783,787 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1.2</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)ER</t>
+      <t>유저와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멘토링</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">관계 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가하고 요구사항 정의</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓생플래너</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>중간발표 준비</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디버깅(웹)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>게시글</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> plan, challenge html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> react</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변환, 링크</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.1.8</t>
+  </si>
+  <si>
+    <t>4.1.9</t>
+  </si>
+  <si>
+    <t>4.1.10</t>
+  </si>
+  <si>
+    <t>4.1.11</t>
+  </si>
+  <si>
+    <t>4.1.13</t>
+  </si>
+  <si>
+    <t>4.1.14</t>
+  </si>
+  <si>
+    <t>4.1.15</t>
+  </si>
+  <si>
+    <t>4.1.16</t>
+  </si>
+  <si>
+    <t>4.1.17</t>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>플랜 CRUD</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시글 모듈 완성(부가 기능)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>황주</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>플랜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈 완성(부가 기능 추가)</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유저</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈(부가 기능)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희,신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태권</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황주</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)M:N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관계</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매핑테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엔티티</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만들기</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>완성</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
     </r>
     <r>
       <rPr>
@@ -1742,7 +2573,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>-</t>
+      <t>웹</t>
     </r>
     <r>
       <rPr>
@@ -1750,7 +2581,41 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>DIAGRAM</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지, 유저</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
     </r>
     <r>
       <rPr>
@@ -1759,18 +2624,15 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>작성</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1.3</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)(</t>
-    </r>
+      <t>웹 퍼블리싱 마이페이지,게시판</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 리허설</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1779,7 +2641,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>추가</t>
+      <t>발표</t>
     </r>
     <r>
       <rPr>
@@ -1788,7 +2650,66 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>)</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ppt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제작</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 자료 제작(FrontEnd)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 자료 제작(Backend)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,민화,신성</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희,황주,태권</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>알람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1798,72 +2719,13 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>유저와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사이에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>멘토링</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>모듈</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
     </r>
     <r>
       <rPr>
@@ -1871,764 +2733,8 @@
         <color rgb="FF434343"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">관계 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가하고 요구사항 정의</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>갓생플래너</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>중간발표 준비</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>디버깅(웹)</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>게시글</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>CRUD</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼블리싱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> plan, challenge html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> react</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>변환, 링크</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.8</t>
-  </si>
-  <si>
-    <t>4.1.9</t>
-  </si>
-  <si>
-    <t>4.1.10</t>
-  </si>
-  <si>
-    <t>4.1.11</t>
-  </si>
-  <si>
-    <t>4.1.13</t>
-  </si>
-  <si>
-    <t>4.1.14</t>
-  </si>
-  <si>
-    <t>4.1.15</t>
-  </si>
-  <si>
-    <t>4.1.16</t>
-  </si>
-  <si>
-    <t>4.1.17</t>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>플랜 CRUD</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모듈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완성</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>부가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>게시판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시글 모듈 완성(부가 기능)</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모듈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>완성</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>황주</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>플랜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모듈 완성(부가 기능 추가)</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유저</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모듈(부가 기능)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>완성</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>상희,신성</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상희</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>태권</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>황주</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)M:N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관계</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매핑테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엔티티</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만들기</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모듈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>완성</t>
-    </r>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <t>F)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼블리싱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챌린지, 유저</t>
+      </rPr>
+      <t>프로토타입 완성</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -3370,7 +3476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3579,9 +3685,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3624,15 +3727,54 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3645,45 +3787,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4036,10 +4139,10 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BQ75"/>
+  <dimension ref="A1:BQ74"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -4125,46 +4228,46 @@
       <c r="BP1" s="1"/>
       <c r="BQ1" s="1"/>
     </row>
-    <row r="2" spans="1:69" ht="40">
+    <row r="2" spans="1:69" ht="40.5">
       <c r="A2" s="1"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="103" t="s">
+      <c r="I2" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="108" t="s">
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
-      <c r="R2" s="104"/>
-      <c r="S2" s="104"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="94"/>
+      <c r="AD2" s="94"/>
+      <c r="AE2" s="94"/>
+      <c r="AF2" s="94"/>
+      <c r="AG2" s="94"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -4275,41 +4378,41 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="96" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="98" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="100" t="s">
+      <c r="I4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="107" t="s">
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="101"/>
-      <c r="R4" s="101"/>
-      <c r="S4" s="101"/>
-      <c r="T4" s="101"/>
-      <c r="U4" s="101"/>
-      <c r="V4" s="101"/>
-      <c r="W4" s="101"/>
-      <c r="X4" s="101"/>
-      <c r="Y4" s="101"/>
-      <c r="Z4" s="101"/>
-      <c r="AA4" s="101"/>
-      <c r="AB4" s="101"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
+      <c r="X4" s="97"/>
+      <c r="Y4" s="97"/>
+      <c r="Z4" s="97"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
       <c r="AC4" s="17"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -4354,40 +4457,40 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102" t="s">
+      <c r="C5" s="97"/>
+      <c r="D5" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="18"/>
-      <c r="I5" s="100" t="s">
+      <c r="I5" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="101"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="106">
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="98">
         <v>45035</v>
       </c>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="101"/>
-      <c r="T5" s="101"/>
-      <c r="U5" s="101"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
-      <c r="X5" s="101"/>
-      <c r="Y5" s="101"/>
-      <c r="Z5" s="101"/>
-      <c r="AA5" s="101"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="17"/>
       <c r="AD5" s="1"/>
@@ -4575,201 +4678,201 @@
     </row>
     <row r="8" spans="1:69" ht="17.25" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="D8" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="97" t="s">
+      <c r="F8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="G8" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="95" t="s">
+      <c r="J8" s="88"/>
+      <c r="K8" s="88"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="88"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="88"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="88"/>
+      <c r="R8" s="88"/>
+      <c r="S8" s="88"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="88"/>
+      <c r="X8" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="91"/>
-      <c r="AM8" s="94" t="s">
+      <c r="Y8" s="88"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="88"/>
+      <c r="AB8" s="88"/>
+      <c r="AC8" s="88"/>
+      <c r="AD8" s="88"/>
+      <c r="AE8" s="88"/>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="88"/>
+      <c r="AJ8" s="88"/>
+      <c r="AK8" s="88"/>
+      <c r="AL8" s="88"/>
+      <c r="AM8" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="91"/>
-      <c r="AT8" s="91"/>
-      <c r="AU8" s="91"/>
-      <c r="AV8" s="91"/>
-      <c r="AW8" s="91"/>
-      <c r="AX8" s="91"/>
-      <c r="AY8" s="91"/>
-      <c r="AZ8" s="91"/>
-      <c r="BA8" s="91"/>
-      <c r="BB8" s="90" t="s">
+      <c r="AN8" s="88"/>
+      <c r="AO8" s="88"/>
+      <c r="AP8" s="88"/>
+      <c r="AQ8" s="88"/>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="88"/>
+      <c r="AV8" s="88"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="88"/>
+      <c r="AY8" s="88"/>
+      <c r="AZ8" s="88"/>
+      <c r="BA8" s="88"/>
+      <c r="BB8" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="BC8" s="91"/>
-      <c r="BD8" s="91"/>
-      <c r="BE8" s="91"/>
-      <c r="BF8" s="91"/>
-      <c r="BG8" s="91"/>
-      <c r="BH8" s="91"/>
-      <c r="BI8" s="91"/>
-      <c r="BJ8" s="91"/>
-      <c r="BK8" s="91"/>
-      <c r="BL8" s="91"/>
-      <c r="BM8" s="91"/>
-      <c r="BN8" s="91"/>
-      <c r="BO8" s="91"/>
-      <c r="BP8" s="92"/>
+      <c r="BC8" s="88"/>
+      <c r="BD8" s="88"/>
+      <c r="BE8" s="88"/>
+      <c r="BF8" s="88"/>
+      <c r="BG8" s="88"/>
+      <c r="BH8" s="88"/>
+      <c r="BI8" s="88"/>
+      <c r="BJ8" s="88"/>
+      <c r="BK8" s="88"/>
+      <c r="BL8" s="88"/>
+      <c r="BM8" s="88"/>
+      <c r="BN8" s="88"/>
+      <c r="BO8" s="88"/>
+      <c r="BP8" s="106"/>
       <c r="BQ8" s="21"/>
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="109" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="88"/>
+      <c r="I9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="109" t="s">
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
-      <c r="Q9" s="88"/>
-      <c r="R9" s="89"/>
-      <c r="S9" s="109" t="s">
+      <c r="O9" s="90"/>
+      <c r="P9" s="90"/>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="88"/>
-      <c r="U9" s="88"/>
-      <c r="V9" s="88"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="93" t="s">
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="90"/>
+      <c r="W9" s="91"/>
+      <c r="X9" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="88"/>
-      <c r="Z9" s="88"/>
-      <c r="AA9" s="88"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="93" t="s">
+      <c r="Y9" s="90"/>
+      <c r="Z9" s="90"/>
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="88"/>
-      <c r="AG9" s="89"/>
-      <c r="AH9" s="93" t="s">
+      <c r="AD9" s="90"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="90"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="AI9" s="88"/>
-      <c r="AJ9" s="88"/>
-      <c r="AK9" s="88"/>
-      <c r="AL9" s="89"/>
-      <c r="AM9" s="96" t="s">
+      <c r="AI9" s="90"/>
+      <c r="AJ9" s="90"/>
+      <c r="AK9" s="90"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AN9" s="88"/>
-      <c r="AO9" s="88"/>
-      <c r="AP9" s="88"/>
-      <c r="AQ9" s="89"/>
-      <c r="AR9" s="96" t="s">
+      <c r="AN9" s="90"/>
+      <c r="AO9" s="90"/>
+      <c r="AP9" s="90"/>
+      <c r="AQ9" s="91"/>
+      <c r="AR9" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="AS9" s="88"/>
-      <c r="AT9" s="88"/>
-      <c r="AU9" s="88"/>
-      <c r="AV9" s="89"/>
-      <c r="AW9" s="96" t="s">
+      <c r="AS9" s="90"/>
+      <c r="AT9" s="90"/>
+      <c r="AU9" s="90"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="110" t="s">
         <v>26</v>
       </c>
-      <c r="AX9" s="88"/>
-      <c r="AY9" s="88"/>
-      <c r="AZ9" s="88"/>
-      <c r="BA9" s="89"/>
-      <c r="BB9" s="87" t="s">
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="91"/>
+      <c r="BB9" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="BC9" s="88"/>
-      <c r="BD9" s="88"/>
-      <c r="BE9" s="88"/>
-      <c r="BF9" s="89"/>
-      <c r="BG9" s="87" t="s">
+      <c r="BC9" s="90"/>
+      <c r="BD9" s="90"/>
+      <c r="BE9" s="90"/>
+      <c r="BF9" s="91"/>
+      <c r="BG9" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="BH9" s="88"/>
-      <c r="BI9" s="88"/>
-      <c r="BJ9" s="88"/>
-      <c r="BK9" s="89"/>
-      <c r="BL9" s="87" t="s">
+      <c r="BH9" s="90"/>
+      <c r="BI9" s="90"/>
+      <c r="BJ9" s="90"/>
+      <c r="BK9" s="91"/>
+      <c r="BL9" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="BM9" s="88"/>
-      <c r="BN9" s="88"/>
-      <c r="BO9" s="88"/>
-      <c r="BP9" s="89"/>
+      <c r="BM9" s="90"/>
+      <c r="BN9" s="90"/>
+      <c r="BO9" s="90"/>
+      <c r="BP9" s="91"/>
       <c r="BQ9" s="25"/>
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="27" t="s">
         <v>30</v>
       </c>
@@ -4957,7 +5060,7 @@
       <c r="B11" s="31">
         <v>1</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="78" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="32"/>
@@ -5032,10 +5135,10 @@
       <c r="B12" s="37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C12" s="73" t="s">
+      <c r="C12" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E12" s="39">
@@ -5118,10 +5221,10 @@
       <c r="B13" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="39">
@@ -5204,10 +5307,10 @@
       <c r="B14" s="37">
         <v>1.2</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="39">
@@ -5290,10 +5393,10 @@
       <c r="B15" s="37">
         <v>1.3</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="76" t="s">
+      <c r="D15" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="39">
@@ -5379,7 +5482,7 @@
       <c r="C16" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E16" s="39">
@@ -5462,10 +5565,10 @@
       <c r="B17" s="37">
         <v>1.5</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E17" s="39">
@@ -5478,7 +5581,7 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H17" s="80" t="s">
+      <c r="H17" s="79" t="s">
         <v>49</v>
       </c>
       <c r="I17" s="50"/>
@@ -5551,7 +5654,7 @@
       <c r="C18" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="76" t="s">
+      <c r="D18" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="61">
@@ -5634,7 +5737,7 @@
       <c r="B19" s="31">
         <v>2</v>
       </c>
-      <c r="C19" s="85" t="s">
+      <c r="C19" s="84" t="s">
         <v>90</v>
       </c>
       <c r="D19" s="32"/>
@@ -5712,7 +5815,7 @@
       <c r="C20" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="76" t="s">
+      <c r="D20" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E20" s="39">
@@ -5797,7 +5900,7 @@
       <c r="C21" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="76" t="s">
+      <c r="D21" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="39">
@@ -5882,7 +5985,7 @@
       <c r="C22" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="76" t="s">
+      <c r="D22" s="75" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="39">
@@ -5964,10 +6067,10 @@
       <c r="B23" s="37">
         <v>2.4</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="39">
@@ -6052,7 +6155,7 @@
       <c r="C24" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="76" t="s">
+      <c r="D24" s="75" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="39">
@@ -6137,7 +6240,7 @@
       <c r="C25" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="76" t="s">
+      <c r="D25" s="75" t="s">
         <v>57</v>
       </c>
       <c r="E25" s="39">
@@ -6219,10 +6322,10 @@
       <c r="B26" s="37">
         <v>2.7</v>
       </c>
-      <c r="C26" s="81" t="s">
+      <c r="C26" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="76" t="s">
+      <c r="D26" s="75" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="39">
@@ -6304,7 +6407,7 @@
       <c r="B27" s="31">
         <v>3</v>
       </c>
-      <c r="C27" s="84" t="s">
+      <c r="C27" s="83" t="s">
         <v>80</v>
       </c>
       <c r="D27" s="32"/>
@@ -6379,10 +6482,10 @@
       <c r="B28" s="37">
         <v>3.1</v>
       </c>
-      <c r="C28" s="77" t="s">
+      <c r="C28" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="74" t="s">
         <v>41</v>
       </c>
       <c r="E28" s="39">
@@ -6464,10 +6567,10 @@
       <c r="B29" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="77" t="s">
+      <c r="C29" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E29" s="39">
@@ -6549,10 +6652,10 @@
       <c r="B30" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="77" t="s">
+      <c r="C30" s="76" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="76" t="s">
+      <c r="D30" s="75" t="s">
         <v>76</v>
       </c>
       <c r="E30" s="39">
@@ -6634,10 +6737,10 @@
       <c r="B31" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="83" t="s">
+      <c r="C31" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="76" t="s">
+      <c r="D31" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="39">
@@ -6719,10 +6822,10 @@
       <c r="B32" s="37">
         <v>3.2</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="C32" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="73" t="s">
+      <c r="D32" s="72" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="39">
@@ -6804,10 +6907,10 @@
       <c r="B33" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="77" t="s">
+      <c r="C33" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="39">
@@ -6889,10 +6992,10 @@
       <c r="B34" s="37">
         <v>3.3</v>
       </c>
-      <c r="C34" s="77" t="s">
+      <c r="C34" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="39">
@@ -6974,10 +7077,10 @@
       <c r="B35" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="77" t="s">
+      <c r="C35" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="75" t="s">
         <v>79</v>
       </c>
       <c r="E35" s="39">
@@ -7059,10 +7162,10 @@
       <c r="B36" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="75" t="s">
         <v>56</v>
       </c>
       <c r="E36" s="39">
@@ -7144,10 +7247,10 @@
       <c r="B37" s="37">
         <v>3.4</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E37" s="39">
@@ -7232,7 +7335,7 @@
       <c r="C38" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="76" t="s">
+      <c r="D38" s="75" t="s">
         <v>41</v>
       </c>
       <c r="E38" s="39">
@@ -7314,8 +7417,8 @@
       <c r="B39" s="31">
         <v>4</v>
       </c>
-      <c r="C39" s="84" t="s">
-        <v>113</v>
+      <c r="C39" s="83" t="s">
+        <v>112</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
@@ -7560,9 +7663,9 @@
         <v>84</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" s="81" t="s">
         <v>106</v>
       </c>
       <c r="E42" s="39">
@@ -7739,10 +7842,10 @@
         <v>885083</v>
       </c>
       <c r="F44" s="39">
-        <v>885089</v>
+        <v>45039</v>
       </c>
       <c r="G44" s="40">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H44" s="41">
         <v>0.6</v>
@@ -7815,19 +7918,19 @@
         <v>89</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="82" t="s">
         <v>109</v>
       </c>
       <c r="E45" s="39">
         <v>45026</v>
       </c>
       <c r="F45" s="39">
-        <v>45032</v>
+        <v>45039</v>
       </c>
       <c r="G45" s="40">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H45" s="41">
         <v>0.6</v>
@@ -7985,10 +8088,10 @@
         <v>96</v>
       </c>
       <c r="C47" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="73" t="s">
         <v>139</v>
-      </c>
-      <c r="D47" s="74" t="s">
-        <v>140</v>
       </c>
       <c r="E47" s="39">
         <v>45033</v>
@@ -8067,12 +8170,12 @@
     <row r="48" spans="1:69" ht="18" customHeight="1" outlineLevel="1">
       <c r="A48" s="36"/>
       <c r="B48" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="82" t="s">
         <v>106</v>
       </c>
       <c r="E48" s="39">
@@ -8152,12 +8255,12 @@
     <row r="49" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A49" s="36"/>
       <c r="B49" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" s="81" t="s">
         <v>109</v>
       </c>
       <c r="E49" s="39">
@@ -8237,13 +8340,13 @@
     <row r="50" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A50" s="36"/>
       <c r="B50" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="82" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="D50" s="81" t="s">
+        <v>139</v>
       </c>
       <c r="E50" s="39">
         <v>45040</v>
@@ -8322,13 +8425,13 @@
     <row r="51" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A51" s="36"/>
       <c r="B51" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="83" t="s">
-        <v>143</v>
+        <v>140</v>
+      </c>
+      <c r="D51" s="82" t="s">
+        <v>142</v>
       </c>
       <c r="E51" s="39">
         <v>45044</v>
@@ -8337,9 +8440,11 @@
         <v>45046</v>
       </c>
       <c r="G51" s="40">
-        <v>7</v>
-      </c>
-      <c r="H51" s="41"/>
+        <v>3</v>
+      </c>
+      <c r="H51" s="41">
+        <v>0</v>
+      </c>
       <c r="I51" s="50"/>
       <c r="J51" s="51"/>
       <c r="K51" s="52"/>
@@ -8405,18 +8510,26 @@
     <row r="52" spans="1:69" ht="19" customHeight="1" outlineLevel="1">
       <c r="A52" s="36"/>
       <c r="B52" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="41"/>
+      <c r="D52" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="39">
+        <v>45040</v>
+      </c>
+      <c r="F52" s="39">
+        <v>45043</v>
+      </c>
+      <c r="G52" s="40">
+        <v>4</v>
+      </c>
+      <c r="H52" s="41">
+        <v>0</v>
+      </c>
       <c r="I52" s="50"/>
       <c r="J52" s="51"/>
       <c r="K52" s="52"/>
@@ -8482,12 +8595,12 @@
     <row r="53" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A53" s="36"/>
       <c r="B53" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="D53" s="82" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="81" t="s">
         <v>108</v>
       </c>
       <c r="E53" s="39">
@@ -8567,12 +8680,12 @@
     <row r="54" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="36"/>
       <c r="B54" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="D54" s="82" t="s">
+      <c r="D54" s="81" t="s">
         <v>108</v>
       </c>
       <c r="E54" s="39">
@@ -8652,12 +8765,12 @@
     <row r="55" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="36"/>
       <c r="B55" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="82" t="s">
+      <c r="D55" s="81" t="s">
         <v>109</v>
       </c>
       <c r="E55" s="39">
@@ -8737,13 +8850,13 @@
     <row r="56" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A56" s="36"/>
       <c r="B56" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C56" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="D56" s="82" t="s">
-        <v>106</v>
+        <v>154</v>
+      </c>
+      <c r="D56" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="E56" s="39">
         <v>45040</v>
@@ -8822,12 +8935,12 @@
     <row r="57" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A57" s="36"/>
       <c r="B57" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D57" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" s="81" t="s">
         <v>106</v>
       </c>
       <c r="E57" s="39">
@@ -8904,188 +9017,188 @@
       <c r="BP57" s="57"/>
       <c r="BQ57" s="36"/>
     </row>
-    <row r="58" spans="1:69" ht="21" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="31">
+    <row r="58" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A58" s="36"/>
+      <c r="B58" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D58" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" s="39">
+        <v>45047</v>
+      </c>
+      <c r="F58" s="39">
+        <v>45053</v>
+      </c>
+      <c r="G58" s="40">
+        <v>7</v>
+      </c>
+      <c r="H58" s="41">
+        <v>0</v>
+      </c>
+      <c r="I58" s="50"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="45"/>
+      <c r="O58" s="45"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="52"/>
+      <c r="X58" s="52"/>
+      <c r="Y58" s="52"/>
+      <c r="Z58" s="52"/>
+      <c r="AA58" s="52"/>
+      <c r="AB58" s="52"/>
+      <c r="AC58" s="54"/>
+      <c r="AD58" s="54"/>
+      <c r="AE58" s="54"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="52"/>
+      <c r="AI58" s="52"/>
+      <c r="AJ58" s="52"/>
+      <c r="AK58" s="52"/>
+      <c r="AL58" s="52"/>
+      <c r="AM58" s="52"/>
+      <c r="AN58" s="52"/>
+      <c r="AO58" s="52"/>
+      <c r="AP58" s="52"/>
+      <c r="AQ58" s="52"/>
+      <c r="AR58" s="55"/>
+      <c r="AS58" s="55"/>
+      <c r="AT58" s="55"/>
+      <c r="AU58" s="55"/>
+      <c r="AV58" s="55"/>
+      <c r="AW58" s="52"/>
+      <c r="AX58" s="52"/>
+      <c r="AY58" s="52"/>
+      <c r="AZ58" s="52"/>
+      <c r="BA58" s="52"/>
+      <c r="BB58" s="52"/>
+      <c r="BC58" s="52"/>
+      <c r="BD58" s="52"/>
+      <c r="BE58" s="52"/>
+      <c r="BF58" s="52"/>
+      <c r="BG58" s="56"/>
+      <c r="BH58" s="56"/>
+      <c r="BI58" s="56"/>
+      <c r="BJ58" s="56"/>
+      <c r="BK58" s="56"/>
+      <c r="BL58" s="52"/>
+      <c r="BM58" s="52"/>
+      <c r="BN58" s="52"/>
+      <c r="BO58" s="52"/>
+      <c r="BP58" s="57"/>
+      <c r="BQ58" s="36"/>
+    </row>
+    <row r="59" spans="1:69" ht="21" customHeight="1">
+      <c r="A59" s="21"/>
+      <c r="B59" s="31">
         <v>5</v>
       </c>
-      <c r="C58" s="84" t="s">
-        <v>112</v>
-      </c>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="32"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32"/>
-      <c r="I58" s="33"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="33"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="33"/>
-      <c r="AD58" s="33"/>
-      <c r="AE58" s="33"/>
-      <c r="AF58" s="33"/>
-      <c r="AG58" s="33"/>
-      <c r="AH58" s="33"/>
-      <c r="AI58" s="33"/>
-      <c r="AJ58" s="33"/>
-      <c r="AK58" s="33"/>
-      <c r="AL58" s="33"/>
-      <c r="AM58" s="33"/>
-      <c r="AN58" s="33"/>
-      <c r="AO58" s="33"/>
-      <c r="AP58" s="33"/>
-      <c r="AQ58" s="33"/>
-      <c r="AR58" s="33"/>
-      <c r="AS58" s="33"/>
-      <c r="AT58" s="33"/>
-      <c r="AU58" s="33"/>
-      <c r="AV58" s="33"/>
-      <c r="AW58" s="33"/>
-      <c r="AX58" s="33"/>
-      <c r="AY58" s="33"/>
-      <c r="AZ58" s="33"/>
-      <c r="BA58" s="33"/>
-      <c r="BB58" s="33"/>
-      <c r="BC58" s="33"/>
-      <c r="BD58" s="33"/>
-      <c r="BE58" s="33"/>
-      <c r="BF58" s="33"/>
-      <c r="BG58" s="33"/>
-      <c r="BH58" s="33"/>
-      <c r="BI58" s="33"/>
-      <c r="BJ58" s="33"/>
-      <c r="BK58" s="33"/>
-      <c r="BL58" s="33"/>
-      <c r="BM58" s="33"/>
-      <c r="BN58" s="33"/>
-      <c r="BO58" s="33"/>
-      <c r="BP58" s="33"/>
-      <c r="BQ58" s="21"/>
-    </row>
-    <row r="59" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A59" s="36"/>
-      <c r="B59" s="37">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" s="74" t="s">
-        <v>92</v>
-      </c>
-      <c r="E59" s="39">
-        <v>885083</v>
-      </c>
-      <c r="F59" s="39">
-        <v>885103</v>
-      </c>
-      <c r="G59" s="40">
-        <v>21</v>
-      </c>
-      <c r="H59" s="41">
-        <v>0.45</v>
-      </c>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="45"/>
-      <c r="O59" s="45"/>
-      <c r="P59" s="45"/>
-      <c r="Q59" s="45"/>
-      <c r="R59" s="45"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="52"/>
-      <c r="X59" s="52"/>
-      <c r="Y59" s="52"/>
-      <c r="Z59" s="52"/>
-      <c r="AA59" s="52"/>
-      <c r="AB59" s="52"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="52"/>
-      <c r="AI59" s="52"/>
-      <c r="AJ59" s="52"/>
-      <c r="AK59" s="52"/>
-      <c r="AL59" s="52"/>
-      <c r="AM59" s="52"/>
-      <c r="AN59" s="52"/>
-      <c r="AO59" s="52"/>
-      <c r="AP59" s="52"/>
-      <c r="AQ59" s="52"/>
-      <c r="AR59" s="55"/>
-      <c r="AS59" s="55"/>
-      <c r="AT59" s="55"/>
-      <c r="AU59" s="55"/>
-      <c r="AV59" s="55"/>
-      <c r="AW59" s="52"/>
-      <c r="AX59" s="52"/>
-      <c r="AY59" s="52"/>
-      <c r="AZ59" s="52"/>
-      <c r="BA59" s="52"/>
-      <c r="BB59" s="52"/>
-      <c r="BC59" s="52"/>
-      <c r="BD59" s="52"/>
-      <c r="BE59" s="52"/>
-      <c r="BF59" s="52"/>
-      <c r="BG59" s="56"/>
-      <c r="BH59" s="56"/>
-      <c r="BI59" s="56"/>
-      <c r="BJ59" s="56"/>
-      <c r="BK59" s="56"/>
-      <c r="BL59" s="52"/>
-      <c r="BM59" s="52"/>
-      <c r="BN59" s="52"/>
-      <c r="BO59" s="52"/>
-      <c r="BP59" s="57"/>
-      <c r="BQ59" s="36"/>
+      <c r="C59" s="83" t="s">
+        <v>111</v>
+      </c>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="33"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
+      <c r="AG59" s="33"/>
+      <c r="AH59" s="33"/>
+      <c r="AI59" s="33"/>
+      <c r="AJ59" s="33"/>
+      <c r="AK59" s="33"/>
+      <c r="AL59" s="33"/>
+      <c r="AM59" s="33"/>
+      <c r="AN59" s="33"/>
+      <c r="AO59" s="33"/>
+      <c r="AP59" s="33"/>
+      <c r="AQ59" s="33"/>
+      <c r="AR59" s="33"/>
+      <c r="AS59" s="33"/>
+      <c r="AT59" s="33"/>
+      <c r="AU59" s="33"/>
+      <c r="AV59" s="33"/>
+      <c r="AW59" s="33"/>
+      <c r="AX59" s="33"/>
+      <c r="AY59" s="33"/>
+      <c r="AZ59" s="33"/>
+      <c r="BA59" s="33"/>
+      <c r="BB59" s="33"/>
+      <c r="BC59" s="33"/>
+      <c r="BD59" s="33"/>
+      <c r="BE59" s="33"/>
+      <c r="BF59" s="33"/>
+      <c r="BG59" s="33"/>
+      <c r="BH59" s="33"/>
+      <c r="BI59" s="33"/>
+      <c r="BJ59" s="33"/>
+      <c r="BK59" s="33"/>
+      <c r="BL59" s="33"/>
+      <c r="BM59" s="33"/>
+      <c r="BN59" s="33"/>
+      <c r="BO59" s="33"/>
+      <c r="BP59" s="33"/>
+      <c r="BQ59" s="21"/>
     </row>
     <row r="60" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A60" s="36"/>
-      <c r="B60" s="37" t="s">
-        <v>97</v>
+      <c r="B60" s="37">
+        <v>5.0999999999999996</v>
       </c>
       <c r="C60" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="74" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="73" t="s">
         <v>92</v>
       </c>
       <c r="E60" s="39">
         <v>885083</v>
       </c>
       <c r="F60" s="39">
-        <v>885089</v>
+        <v>885103</v>
       </c>
       <c r="G60" s="40">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="H60" s="41">
-        <v>1</v>
+        <v>0.45</v>
       </c>
       <c r="I60" s="50"/>
       <c r="J60" s="51"/>
@@ -9149,28 +9262,28 @@
       <c r="BP60" s="57"/>
       <c r="BQ60" s="36"/>
     </row>
-    <row r="61" spans="1:69" ht="29.5" customHeight="1" outlineLevel="1">
+    <row r="61" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A61" s="36"/>
       <c r="B61" s="37" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C61" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="74" t="s">
-        <v>107</v>
+        <v>98</v>
+      </c>
+      <c r="D61" s="73" t="s">
+        <v>92</v>
       </c>
       <c r="E61" s="39">
-        <v>45033</v>
+        <v>885083</v>
       </c>
       <c r="F61" s="39">
-        <v>45039</v>
+        <v>885089</v>
       </c>
       <c r="G61" s="40">
         <v>7</v>
       </c>
       <c r="H61" s="41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I61" s="50"/>
       <c r="J61" s="51"/>
@@ -9234,16 +9347,16 @@
       <c r="BP61" s="57"/>
       <c r="BQ61" s="36"/>
     </row>
-    <row r="62" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="62" spans="1:69" ht="29.5" customHeight="1" outlineLevel="1">
       <c r="A62" s="36"/>
       <c r="B62" s="37" t="s">
         <v>93</v>
       </c>
       <c r="C62" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="D62" s="74" t="s">
-        <v>92</v>
+        <v>125</v>
+      </c>
+      <c r="D62" s="73" t="s">
+        <v>107</v>
       </c>
       <c r="E62" s="39">
         <v>45033</v>
@@ -9255,7 +9368,7 @@
         <v>7</v>
       </c>
       <c r="H62" s="41">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="I62" s="50"/>
       <c r="J62" s="51"/>
@@ -9322,25 +9435,25 @@
     <row r="63" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A63" s="36"/>
       <c r="B63" s="37" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C63" s="38" t="s">
-        <v>147</v>
-      </c>
-      <c r="D63" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="73" t="s">
         <v>92</v>
       </c>
       <c r="E63" s="39">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="F63" s="39">
-        <v>45046</v>
+        <v>45039</v>
       </c>
       <c r="G63" s="40">
         <v>7</v>
       </c>
       <c r="H63" s="41">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="I63" s="50"/>
       <c r="J63" s="51"/>
@@ -9404,175 +9517,175 @@
       <c r="BP63" s="57"/>
       <c r="BQ63" s="36"/>
     </row>
-    <row r="64" spans="1:69" ht="21" customHeight="1">
-      <c r="A64" s="21"/>
-      <c r="B64" s="31">
+    <row r="64" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A64" s="36"/>
+      <c r="B64" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="73" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="39">
+        <v>45040</v>
+      </c>
+      <c r="F64" s="39">
+        <v>45046</v>
+      </c>
+      <c r="G64" s="40">
+        <v>7</v>
+      </c>
+      <c r="H64" s="41">
+        <v>0</v>
+      </c>
+      <c r="I64" s="50"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="45"/>
+      <c r="O64" s="45"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="52"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="52"/>
+      <c r="Z64" s="52"/>
+      <c r="AA64" s="52"/>
+      <c r="AB64" s="52"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="52"/>
+      <c r="AI64" s="52"/>
+      <c r="AJ64" s="52"/>
+      <c r="AK64" s="52"/>
+      <c r="AL64" s="52"/>
+      <c r="AM64" s="52"/>
+      <c r="AN64" s="52"/>
+      <c r="AO64" s="52"/>
+      <c r="AP64" s="52"/>
+      <c r="AQ64" s="52"/>
+      <c r="AR64" s="55"/>
+      <c r="AS64" s="55"/>
+      <c r="AT64" s="55"/>
+      <c r="AU64" s="55"/>
+      <c r="AV64" s="55"/>
+      <c r="AW64" s="52"/>
+      <c r="AX64" s="52"/>
+      <c r="AY64" s="52"/>
+      <c r="AZ64" s="52"/>
+      <c r="BA64" s="52"/>
+      <c r="BB64" s="52"/>
+      <c r="BC64" s="52"/>
+      <c r="BD64" s="52"/>
+      <c r="BE64" s="52"/>
+      <c r="BF64" s="52"/>
+      <c r="BG64" s="56"/>
+      <c r="BH64" s="56"/>
+      <c r="BI64" s="56"/>
+      <c r="BJ64" s="56"/>
+      <c r="BK64" s="56"/>
+      <c r="BL64" s="52"/>
+      <c r="BM64" s="52"/>
+      <c r="BN64" s="52"/>
+      <c r="BO64" s="52"/>
+      <c r="BP64" s="57"/>
+      <c r="BQ64" s="36"/>
+    </row>
+    <row r="65" spans="1:69" ht="21" customHeight="1">
+      <c r="A65" s="21"/>
+      <c r="B65" s="31">
         <v>6</v>
       </c>
-      <c r="C64" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="32"/>
-      <c r="I64" s="33"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="33"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="33"/>
-      <c r="AD64" s="33"/>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="33"/>
-      <c r="AG64" s="33"/>
-      <c r="AH64" s="33"/>
-      <c r="AI64" s="33"/>
-      <c r="AJ64" s="33"/>
-      <c r="AK64" s="33"/>
-      <c r="AL64" s="33"/>
-      <c r="AM64" s="33"/>
-      <c r="AN64" s="33"/>
-      <c r="AO64" s="33"/>
-      <c r="AP64" s="33"/>
-      <c r="AQ64" s="33"/>
-      <c r="AR64" s="33"/>
-      <c r="AS64" s="33"/>
-      <c r="AT64" s="33"/>
-      <c r="AU64" s="33"/>
-      <c r="AV64" s="33"/>
-      <c r="AW64" s="33"/>
-      <c r="AX64" s="33"/>
-      <c r="AY64" s="33"/>
-      <c r="AZ64" s="33"/>
-      <c r="BA64" s="33"/>
-      <c r="BB64" s="33"/>
-      <c r="BC64" s="33"/>
-      <c r="BD64" s="33"/>
-      <c r="BE64" s="33"/>
-      <c r="BF64" s="33"/>
-      <c r="BG64" s="33"/>
-      <c r="BH64" s="33"/>
-      <c r="BI64" s="33"/>
-      <c r="BJ64" s="33"/>
-      <c r="BK64" s="33"/>
-      <c r="BL64" s="33"/>
-      <c r="BM64" s="33"/>
-      <c r="BN64" s="33"/>
-      <c r="BO64" s="33"/>
-      <c r="BP64" s="33"/>
-      <c r="BQ64" s="21"/>
-    </row>
-    <row r="65" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A65" s="36"/>
-      <c r="B65" s="37">
-        <v>6.1</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D65" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="E65" s="39">
-        <v>45026</v>
-      </c>
-      <c r="F65" s="39">
-        <v>45032</v>
-      </c>
-      <c r="G65" s="40">
-        <v>7</v>
-      </c>
-      <c r="H65" s="41">
-        <v>1</v>
-      </c>
-      <c r="I65" s="50"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="52"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="45"/>
-      <c r="Q65" s="45"/>
-      <c r="R65" s="45"/>
-      <c r="S65" s="44"/>
-      <c r="T65" s="44"/>
-      <c r="U65" s="44"/>
-      <c r="V65" s="44"/>
-      <c r="W65" s="52"/>
-      <c r="X65" s="52"/>
-      <c r="Y65" s="52"/>
-      <c r="Z65" s="52"/>
-      <c r="AA65" s="52"/>
-      <c r="AB65" s="52"/>
-      <c r="AC65" s="54"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="54"/>
-      <c r="AF65" s="54"/>
-      <c r="AG65" s="54"/>
-      <c r="AH65" s="52"/>
-      <c r="AI65" s="52"/>
-      <c r="AJ65" s="52"/>
-      <c r="AK65" s="52"/>
-      <c r="AL65" s="52"/>
-      <c r="AM65" s="52"/>
-      <c r="AN65" s="52"/>
-      <c r="AO65" s="52"/>
-      <c r="AP65" s="52"/>
-      <c r="AQ65" s="52"/>
-      <c r="AR65" s="55"/>
-      <c r="AS65" s="55"/>
-      <c r="AT65" s="55"/>
-      <c r="AU65" s="55"/>
-      <c r="AV65" s="55"/>
-      <c r="AW65" s="52"/>
-      <c r="AX65" s="52"/>
-      <c r="AY65" s="52"/>
-      <c r="AZ65" s="52"/>
-      <c r="BA65" s="52"/>
-      <c r="BB65" s="52"/>
-      <c r="BC65" s="52"/>
-      <c r="BD65" s="52"/>
-      <c r="BE65" s="52"/>
-      <c r="BF65" s="52"/>
-      <c r="BG65" s="56"/>
-      <c r="BH65" s="56"/>
-      <c r="BI65" s="56"/>
-      <c r="BJ65" s="56"/>
-      <c r="BK65" s="56"/>
-      <c r="BL65" s="52"/>
-      <c r="BM65" s="52"/>
-      <c r="BN65" s="52"/>
-      <c r="BO65" s="52"/>
-      <c r="BP65" s="57"/>
-      <c r="BQ65" s="36"/>
+      <c r="C65" s="83" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="33"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="33"/>
+      <c r="AD65" s="33"/>
+      <c r="AE65" s="33"/>
+      <c r="AF65" s="33"/>
+      <c r="AG65" s="33"/>
+      <c r="AH65" s="33"/>
+      <c r="AI65" s="33"/>
+      <c r="AJ65" s="33"/>
+      <c r="AK65" s="33"/>
+      <c r="AL65" s="33"/>
+      <c r="AM65" s="33"/>
+      <c r="AN65" s="33"/>
+      <c r="AO65" s="33"/>
+      <c r="AP65" s="33"/>
+      <c r="AQ65" s="33"/>
+      <c r="AR65" s="33"/>
+      <c r="AS65" s="33"/>
+      <c r="AT65" s="33"/>
+      <c r="AU65" s="33"/>
+      <c r="AV65" s="33"/>
+      <c r="AW65" s="33"/>
+      <c r="AX65" s="33"/>
+      <c r="AY65" s="33"/>
+      <c r="AZ65" s="33"/>
+      <c r="BA65" s="33"/>
+      <c r="BB65" s="33"/>
+      <c r="BC65" s="33"/>
+      <c r="BD65" s="33"/>
+      <c r="BE65" s="33"/>
+      <c r="BF65" s="33"/>
+      <c r="BG65" s="33"/>
+      <c r="BH65" s="33"/>
+      <c r="BI65" s="33"/>
+      <c r="BJ65" s="33"/>
+      <c r="BK65" s="33"/>
+      <c r="BL65" s="33"/>
+      <c r="BM65" s="33"/>
+      <c r="BN65" s="33"/>
+      <c r="BO65" s="33"/>
+      <c r="BP65" s="33"/>
+      <c r="BQ65" s="21"/>
     </row>
     <row r="66" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A66" s="36"/>
-      <c r="B66" s="37" t="s">
-        <v>116</v>
+      <c r="B66" s="37">
+        <v>6.1</v>
       </c>
       <c r="C66" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E66" s="39">
@@ -9650,27 +9763,27 @@
       <c r="BQ66" s="36"/>
     </row>
     <row r="67" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A67" s="86"/>
+      <c r="A67" s="36"/>
       <c r="B67" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C67" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E67" s="39">
-        <v>45033</v>
+        <v>45026</v>
       </c>
       <c r="F67" s="39">
-        <v>45039</v>
+        <v>45032</v>
       </c>
       <c r="G67" s="40">
         <v>7</v>
       </c>
       <c r="H67" s="41">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="I67" s="50"/>
       <c r="J67" s="51"/>
@@ -9734,28 +9847,28 @@
       <c r="BP67" s="57"/>
       <c r="BQ67" s="36"/>
     </row>
-    <row r="68" spans="1:69" ht="32.5" customHeight="1" outlineLevel="1">
-      <c r="A68" s="36"/>
+    <row r="68" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A68" s="85"/>
       <c r="B68" s="37" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D68" s="73" t="s">
         <v>41</v>
       </c>
       <c r="E68" s="39">
-        <v>45034</v>
+        <v>45033</v>
       </c>
       <c r="F68" s="39">
-        <v>45036</v>
+        <v>45039</v>
       </c>
       <c r="G68" s="40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H68" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I68" s="50"/>
       <c r="J68" s="51"/>
@@ -9819,165 +9932,189 @@
       <c r="BP68" s="57"/>
       <c r="BQ68" s="36"/>
     </row>
-    <row r="69" spans="1:69" ht="21" customHeight="1">
-      <c r="A69" s="21"/>
-      <c r="B69" s="31">
+    <row r="69" spans="1:69" ht="32.5" customHeight="1" outlineLevel="1">
+      <c r="A69" s="36"/>
+      <c r="B69" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D69" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="39">
+        <v>45034</v>
+      </c>
+      <c r="F69" s="39">
+        <v>45036</v>
+      </c>
+      <c r="G69" s="40">
+        <v>3</v>
+      </c>
+      <c r="H69" s="41">
+        <v>0</v>
+      </c>
+      <c r="I69" s="50"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="45"/>
+      <c r="O69" s="45"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="52"/>
+      <c r="X69" s="52"/>
+      <c r="Y69" s="52"/>
+      <c r="Z69" s="52"/>
+      <c r="AA69" s="52"/>
+      <c r="AB69" s="52"/>
+      <c r="AC69" s="54"/>
+      <c r="AD69" s="54"/>
+      <c r="AE69" s="54"/>
+      <c r="AF69" s="54"/>
+      <c r="AG69" s="54"/>
+      <c r="AH69" s="52"/>
+      <c r="AI69" s="52"/>
+      <c r="AJ69" s="52"/>
+      <c r="AK69" s="52"/>
+      <c r="AL69" s="52"/>
+      <c r="AM69" s="52"/>
+      <c r="AN69" s="52"/>
+      <c r="AO69" s="52"/>
+      <c r="AP69" s="52"/>
+      <c r="AQ69" s="52"/>
+      <c r="AR69" s="55"/>
+      <c r="AS69" s="55"/>
+      <c r="AT69" s="55"/>
+      <c r="AU69" s="55"/>
+      <c r="AV69" s="55"/>
+      <c r="AW69" s="52"/>
+      <c r="AX69" s="52"/>
+      <c r="AY69" s="52"/>
+      <c r="AZ69" s="52"/>
+      <c r="BA69" s="52"/>
+      <c r="BB69" s="52"/>
+      <c r="BC69" s="52"/>
+      <c r="BD69" s="52"/>
+      <c r="BE69" s="52"/>
+      <c r="BF69" s="52"/>
+      <c r="BG69" s="56"/>
+      <c r="BH69" s="56"/>
+      <c r="BI69" s="56"/>
+      <c r="BJ69" s="56"/>
+      <c r="BK69" s="56"/>
+      <c r="BL69" s="52"/>
+      <c r="BM69" s="52"/>
+      <c r="BN69" s="52"/>
+      <c r="BO69" s="52"/>
+      <c r="BP69" s="57"/>
+      <c r="BQ69" s="36"/>
+    </row>
+    <row r="70" spans="1:69" ht="21" customHeight="1">
+      <c r="A70" s="21"/>
+      <c r="B70" s="31">
         <v>7</v>
       </c>
-      <c r="C69" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
-      <c r="I69" s="33"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="33"/>
-      <c r="AC69" s="33"/>
-      <c r="AD69" s="33"/>
-      <c r="AE69" s="33"/>
-      <c r="AF69" s="33"/>
-      <c r="AG69" s="33"/>
-      <c r="AH69" s="33"/>
-      <c r="AI69" s="33"/>
-      <c r="AJ69" s="33"/>
-      <c r="AK69" s="33"/>
-      <c r="AL69" s="33"/>
-      <c r="AM69" s="33"/>
-      <c r="AN69" s="33"/>
-      <c r="AO69" s="33"/>
-      <c r="AP69" s="33"/>
-      <c r="AQ69" s="33"/>
-      <c r="AR69" s="33"/>
-      <c r="AS69" s="33"/>
-      <c r="AT69" s="33"/>
-      <c r="AU69" s="33"/>
-      <c r="AV69" s="33"/>
-      <c r="AW69" s="33"/>
-      <c r="AX69" s="33"/>
-      <c r="AY69" s="33"/>
-      <c r="AZ69" s="33"/>
-      <c r="BA69" s="33"/>
-      <c r="BB69" s="33"/>
-      <c r="BC69" s="33"/>
-      <c r="BD69" s="33"/>
-      <c r="BE69" s="33"/>
-      <c r="BF69" s="33"/>
-      <c r="BG69" s="33"/>
-      <c r="BH69" s="33"/>
-      <c r="BI69" s="33"/>
-      <c r="BJ69" s="33"/>
-      <c r="BK69" s="33"/>
-      <c r="BL69" s="33"/>
-      <c r="BM69" s="33"/>
-      <c r="BN69" s="33"/>
-      <c r="BO69" s="33"/>
-      <c r="BP69" s="33"/>
-      <c r="BQ69" s="21"/>
-    </row>
-    <row r="70" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A70" s="86"/>
-      <c r="B70" s="37">
-        <v>7.1</v>
-      </c>
-      <c r="C70" s="38"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="39"/>
-      <c r="F70" s="39"/>
-      <c r="G70" s="40"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="50"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="45"/>
-      <c r="Q70" s="45"/>
-      <c r="R70" s="45"/>
-      <c r="S70" s="44"/>
-      <c r="T70" s="44"/>
-      <c r="U70" s="44"/>
-      <c r="V70" s="44"/>
-      <c r="W70" s="52"/>
-      <c r="X70" s="52"/>
-      <c r="Y70" s="52"/>
-      <c r="Z70" s="52"/>
-      <c r="AA70" s="52"/>
-      <c r="AB70" s="52"/>
-      <c r="AC70" s="54"/>
-      <c r="AD70" s="54"/>
-      <c r="AE70" s="54"/>
-      <c r="AF70" s="54"/>
-      <c r="AG70" s="54"/>
-      <c r="AH70" s="52"/>
-      <c r="AI70" s="52"/>
-      <c r="AJ70" s="52"/>
-      <c r="AK70" s="52"/>
-      <c r="AL70" s="52"/>
-      <c r="AM70" s="52"/>
-      <c r="AN70" s="52"/>
-      <c r="AO70" s="52"/>
-      <c r="AP70" s="52"/>
-      <c r="AQ70" s="52"/>
-      <c r="AR70" s="55"/>
-      <c r="AS70" s="55"/>
-      <c r="AT70" s="55"/>
-      <c r="AU70" s="55"/>
-      <c r="AV70" s="55"/>
-      <c r="AW70" s="52"/>
-      <c r="AX70" s="52"/>
-      <c r="AY70" s="52"/>
-      <c r="AZ70" s="52"/>
-      <c r="BA70" s="52"/>
-      <c r="BB70" s="52"/>
-      <c r="BC70" s="52"/>
-      <c r="BD70" s="52"/>
-      <c r="BE70" s="52"/>
-      <c r="BF70" s="52"/>
-      <c r="BG70" s="56"/>
-      <c r="BH70" s="56"/>
-      <c r="BI70" s="56"/>
-      <c r="BJ70" s="56"/>
-      <c r="BK70" s="56"/>
-      <c r="BL70" s="52"/>
-      <c r="BM70" s="52"/>
-      <c r="BN70" s="52"/>
-      <c r="BO70" s="52"/>
-      <c r="BP70" s="57"/>
-      <c r="BQ70" s="36"/>
+      <c r="C70" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="34"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="33"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="33"/>
+      <c r="AC70" s="33"/>
+      <c r="AD70" s="33"/>
+      <c r="AE70" s="33"/>
+      <c r="AF70" s="33"/>
+      <c r="AG70" s="33"/>
+      <c r="AH70" s="33"/>
+      <c r="AI70" s="33"/>
+      <c r="AJ70" s="33"/>
+      <c r="AK70" s="33"/>
+      <c r="AL70" s="33"/>
+      <c r="AM70" s="33"/>
+      <c r="AN70" s="33"/>
+      <c r="AO70" s="33"/>
+      <c r="AP70" s="33"/>
+      <c r="AQ70" s="33"/>
+      <c r="AR70" s="33"/>
+      <c r="AS70" s="33"/>
+      <c r="AT70" s="33"/>
+      <c r="AU70" s="33"/>
+      <c r="AV70" s="33"/>
+      <c r="AW70" s="33"/>
+      <c r="AX70" s="33"/>
+      <c r="AY70" s="33"/>
+      <c r="AZ70" s="33"/>
+      <c r="BA70" s="33"/>
+      <c r="BB70" s="33"/>
+      <c r="BC70" s="33"/>
+      <c r="BD70" s="33"/>
+      <c r="BE70" s="33"/>
+      <c r="BF70" s="33"/>
+      <c r="BG70" s="33"/>
+      <c r="BH70" s="33"/>
+      <c r="BI70" s="33"/>
+      <c r="BJ70" s="33"/>
+      <c r="BK70" s="33"/>
+      <c r="BL70" s="33"/>
+      <c r="BM70" s="33"/>
+      <c r="BN70" s="33"/>
+      <c r="BO70" s="33"/>
+      <c r="BP70" s="33"/>
+      <c r="BQ70" s="21"/>
     </row>
     <row r="71" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A71" s="36"/>
+      <c r="A71" s="85"/>
       <c r="B71" s="37">
-        <v>7.2</v>
-      </c>
-      <c r="C71" s="38"/>
-      <c r="D71" s="74"/>
-      <c r="E71" s="39"/>
-      <c r="F71" s="39"/>
-      <c r="G71" s="40"/>
-      <c r="H71" s="41"/>
+        <v>7.1</v>
+      </c>
+      <c r="C71" s="86" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="39">
+        <v>45047</v>
+      </c>
+      <c r="F71" s="39">
+        <v>45053</v>
+      </c>
+      <c r="G71" s="40">
+        <v>7</v>
+      </c>
+      <c r="H71" s="41">
+        <v>0</v>
+      </c>
       <c r="I71" s="50"/>
       <c r="J71" s="51"/>
       <c r="K71" s="52"/>
@@ -10041,14 +10178,28 @@
       <c r="BQ71" s="36"/>
     </row>
     <row r="72" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A72" s="36"/>
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="74"/>
-      <c r="E72" s="39"/>
-      <c r="F72" s="39"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="41"/>
+      <c r="A72" s="85"/>
+      <c r="B72" s="37">
+        <v>7.2</v>
+      </c>
+      <c r="C72" s="86" t="s">
+        <v>151</v>
+      </c>
+      <c r="D72" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="39">
+        <v>45047</v>
+      </c>
+      <c r="F72" s="39">
+        <v>45053</v>
+      </c>
+      <c r="G72" s="40">
+        <v>7</v>
+      </c>
+      <c r="H72" s="41">
+        <v>0</v>
+      </c>
       <c r="I72" s="50"/>
       <c r="J72" s="51"/>
       <c r="K72" s="52"/>
@@ -10111,243 +10262,178 @@
       <c r="BP72" s="57"/>
       <c r="BQ72" s="36"/>
     </row>
-    <row r="73" spans="1:69" ht="21" customHeight="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="72"/>
-      <c r="H73" s="72"/>
-      <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="21"/>
-      <c r="M73" s="21"/>
-      <c r="N73" s="21"/>
-      <c r="O73" s="21"/>
-      <c r="P73" s="21"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="21"/>
-      <c r="S73" s="21"/>
-      <c r="T73" s="21"/>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="21"/>
-      <c r="X73" s="21"/>
-      <c r="Y73" s="21"/>
-      <c r="Z73" s="21"/>
-      <c r="AA73" s="21"/>
-      <c r="AB73" s="21"/>
-      <c r="AC73" s="21"/>
-      <c r="AD73" s="21"/>
-      <c r="AE73" s="21"/>
-      <c r="AF73" s="21"/>
-      <c r="AG73" s="21"/>
-      <c r="AH73" s="21"/>
-      <c r="AI73" s="21"/>
-      <c r="AJ73" s="21"/>
-      <c r="AK73" s="21"/>
-      <c r="AL73" s="21"/>
-      <c r="AM73" s="21"/>
-      <c r="AN73" s="21"/>
-      <c r="AO73" s="21"/>
-      <c r="AP73" s="21"/>
-      <c r="AQ73" s="21"/>
-      <c r="AR73" s="21"/>
-      <c r="AS73" s="21"/>
-      <c r="AT73" s="21"/>
-      <c r="AU73" s="21"/>
-      <c r="AV73" s="21"/>
-      <c r="AW73" s="21"/>
-      <c r="AX73" s="21"/>
-      <c r="AY73" s="21"/>
-      <c r="AZ73" s="21"/>
-      <c r="BA73" s="21"/>
-      <c r="BB73" s="21"/>
-      <c r="BC73" s="21"/>
-      <c r="BD73" s="21"/>
-      <c r="BE73" s="21"/>
-      <c r="BF73" s="21"/>
-      <c r="BG73" s="21"/>
-      <c r="BH73" s="21"/>
-      <c r="BI73" s="21"/>
-      <c r="BJ73" s="21"/>
-      <c r="BK73" s="21"/>
-      <c r="BL73" s="21"/>
-      <c r="BM73" s="21"/>
-      <c r="BN73" s="21"/>
-      <c r="BO73" s="21"/>
-      <c r="BP73" s="21"/>
-      <c r="BQ73" s="21"/>
+    <row r="73" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A73" s="85"/>
+      <c r="B73" s="37">
+        <v>7.3</v>
+      </c>
+      <c r="C73" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="D73" s="82" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="39">
+        <v>45047</v>
+      </c>
+      <c r="F73" s="39">
+        <v>45053</v>
+      </c>
+      <c r="G73" s="40">
+        <v>7</v>
+      </c>
+      <c r="H73" s="41">
+        <v>0</v>
+      </c>
+      <c r="I73" s="50"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="52"/>
+      <c r="L73" s="52"/>
+      <c r="M73" s="52"/>
+      <c r="N73" s="45"/>
+      <c r="O73" s="45"/>
+      <c r="P73" s="45"/>
+      <c r="Q73" s="45"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="44"/>
+      <c r="V73" s="44"/>
+      <c r="W73" s="52"/>
+      <c r="X73" s="52"/>
+      <c r="Y73" s="52"/>
+      <c r="Z73" s="52"/>
+      <c r="AA73" s="52"/>
+      <c r="AB73" s="52"/>
+      <c r="AC73" s="54"/>
+      <c r="AD73" s="54"/>
+      <c r="AE73" s="54"/>
+      <c r="AF73" s="54"/>
+      <c r="AG73" s="54"/>
+      <c r="AH73" s="52"/>
+      <c r="AI73" s="52"/>
+      <c r="AJ73" s="52"/>
+      <c r="AK73" s="52"/>
+      <c r="AL73" s="52"/>
+      <c r="AM73" s="52"/>
+      <c r="AN73" s="52"/>
+      <c r="AO73" s="52"/>
+      <c r="AP73" s="52"/>
+      <c r="AQ73" s="52"/>
+      <c r="AR73" s="55"/>
+      <c r="AS73" s="55"/>
+      <c r="AT73" s="55"/>
+      <c r="AU73" s="55"/>
+      <c r="AV73" s="55"/>
+      <c r="AW73" s="52"/>
+      <c r="AX73" s="52"/>
+      <c r="AY73" s="52"/>
+      <c r="AZ73" s="52"/>
+      <c r="BA73" s="52"/>
+      <c r="BB73" s="52"/>
+      <c r="BC73" s="52"/>
+      <c r="BD73" s="52"/>
+      <c r="BE73" s="52"/>
+      <c r="BF73" s="52"/>
+      <c r="BG73" s="56"/>
+      <c r="BH73" s="56"/>
+      <c r="BI73" s="56"/>
+      <c r="BJ73" s="56"/>
+      <c r="BK73" s="56"/>
+      <c r="BL73" s="52"/>
+      <c r="BM73" s="52"/>
+      <c r="BN73" s="52"/>
+      <c r="BO73" s="52"/>
+      <c r="BP73" s="57"/>
+      <c r="BQ73" s="36"/>
     </row>
-    <row r="74" spans="1:69" ht="21" customHeight="1">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="21"/>
-      <c r="S74" s="21"/>
-      <c r="T74" s="21"/>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="21"/>
-      <c r="X74" s="21"/>
-      <c r="Y74" s="21"/>
-      <c r="Z74" s="21"/>
-      <c r="AA74" s="21"/>
-      <c r="AB74" s="21"/>
-      <c r="AC74" s="21"/>
-      <c r="AD74" s="21"/>
-      <c r="AE74" s="21"/>
-      <c r="AF74" s="21"/>
-      <c r="AG74" s="21"/>
-      <c r="AH74" s="21"/>
-      <c r="AI74" s="21"/>
-      <c r="AJ74" s="21"/>
-      <c r="AK74" s="21"/>
-      <c r="AL74" s="21"/>
-      <c r="AM74" s="21"/>
-      <c r="AN74" s="21"/>
-      <c r="AO74" s="21"/>
-      <c r="AP74" s="21"/>
-      <c r="AQ74" s="21"/>
-      <c r="AR74" s="21"/>
-      <c r="AS74" s="21"/>
-      <c r="AT74" s="21"/>
-      <c r="AU74" s="21"/>
-      <c r="AV74" s="21"/>
-      <c r="AW74" s="21"/>
-      <c r="AX74" s="21"/>
-      <c r="AY74" s="21"/>
-      <c r="AZ74" s="21"/>
-      <c r="BA74" s="21"/>
-      <c r="BB74" s="21"/>
-      <c r="BC74" s="21"/>
-      <c r="BD74" s="21"/>
-      <c r="BE74" s="21"/>
-      <c r="BF74" s="21"/>
-      <c r="BG74" s="21"/>
-      <c r="BH74" s="21"/>
-      <c r="BI74" s="21"/>
-      <c r="BJ74" s="21"/>
-      <c r="BK74" s="21"/>
-      <c r="BL74" s="21"/>
-      <c r="BM74" s="21"/>
-      <c r="BN74" s="21"/>
-      <c r="BO74" s="21"/>
-      <c r="BP74" s="21"/>
-      <c r="BQ74" s="21"/>
-    </row>
-    <row r="75" spans="1:69" ht="21" customHeight="1">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
-      <c r="I75" s="21"/>
-      <c r="J75" s="21"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="21"/>
-      <c r="M75" s="21"/>
-      <c r="N75" s="21"/>
-      <c r="O75" s="21"/>
-      <c r="P75" s="21"/>
-      <c r="Q75" s="21"/>
-      <c r="R75" s="21"/>
-      <c r="S75" s="21"/>
-      <c r="T75" s="21"/>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="21"/>
-      <c r="X75" s="21"/>
-      <c r="Y75" s="21"/>
-      <c r="Z75" s="21"/>
-      <c r="AA75" s="21"/>
-      <c r="AB75" s="21"/>
-      <c r="AC75" s="21"/>
-      <c r="AD75" s="21"/>
-      <c r="AE75" s="21"/>
-      <c r="AF75" s="21"/>
-      <c r="AG75" s="21"/>
-      <c r="AH75" s="21"/>
-      <c r="AI75" s="21"/>
-      <c r="AJ75" s="21"/>
-      <c r="AK75" s="21"/>
-      <c r="AL75" s="21"/>
-      <c r="AM75" s="21"/>
-      <c r="AN75" s="21"/>
-      <c r="AO75" s="21"/>
-      <c r="AP75" s="21"/>
-      <c r="AQ75" s="21"/>
-      <c r="AR75" s="21"/>
-      <c r="AS75" s="21"/>
-      <c r="AT75" s="21"/>
-      <c r="AU75" s="21"/>
-      <c r="AV75" s="21"/>
-      <c r="AW75" s="21"/>
-      <c r="AX75" s="21"/>
-      <c r="AY75" s="21"/>
-      <c r="AZ75" s="21"/>
-      <c r="BA75" s="21"/>
-      <c r="BB75" s="21"/>
-      <c r="BC75" s="21"/>
-      <c r="BD75" s="21"/>
-      <c r="BE75" s="21"/>
-      <c r="BF75" s="21"/>
-      <c r="BG75" s="21"/>
-      <c r="BH75" s="21"/>
-      <c r="BI75" s="21"/>
-      <c r="BJ75" s="21"/>
-      <c r="BK75" s="21"/>
-      <c r="BL75" s="21"/>
-      <c r="BM75" s="21"/>
-      <c r="BN75" s="21"/>
-      <c r="BO75" s="21"/>
-      <c r="BP75" s="21"/>
-      <c r="BQ75" s="21"/>
+    <row r="74" spans="1:69" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A74" s="36"/>
+      <c r="B74" s="37">
+        <v>7.4</v>
+      </c>
+      <c r="C74" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D74" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="39">
+        <v>45053</v>
+      </c>
+      <c r="F74" s="39">
+        <v>45053</v>
+      </c>
+      <c r="G74" s="40">
+        <v>1</v>
+      </c>
+      <c r="H74" s="41">
+        <v>0</v>
+      </c>
+      <c r="I74" s="50"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="45"/>
+      <c r="O74" s="45"/>
+      <c r="P74" s="45"/>
+      <c r="Q74" s="45"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="44"/>
+      <c r="V74" s="44"/>
+      <c r="W74" s="52"/>
+      <c r="X74" s="52"/>
+      <c r="Y74" s="52"/>
+      <c r="Z74" s="52"/>
+      <c r="AA74" s="52"/>
+      <c r="AB74" s="52"/>
+      <c r="AC74" s="54"/>
+      <c r="AD74" s="54"/>
+      <c r="AE74" s="54"/>
+      <c r="AF74" s="54"/>
+      <c r="AG74" s="54"/>
+      <c r="AH74" s="52"/>
+      <c r="AI74" s="52"/>
+      <c r="AJ74" s="52"/>
+      <c r="AK74" s="52"/>
+      <c r="AL74" s="52"/>
+      <c r="AM74" s="52"/>
+      <c r="AN74" s="52"/>
+      <c r="AO74" s="52"/>
+      <c r="AP74" s="52"/>
+      <c r="AQ74" s="52"/>
+      <c r="AR74" s="55"/>
+      <c r="AS74" s="55"/>
+      <c r="AT74" s="55"/>
+      <c r="AU74" s="55"/>
+      <c r="AV74" s="55"/>
+      <c r="AW74" s="52"/>
+      <c r="AX74" s="52"/>
+      <c r="AY74" s="52"/>
+      <c r="AZ74" s="52"/>
+      <c r="BA74" s="52"/>
+      <c r="BB74" s="52"/>
+      <c r="BC74" s="52"/>
+      <c r="BD74" s="52"/>
+      <c r="BE74" s="52"/>
+      <c r="BF74" s="52"/>
+      <c r="BG74" s="56"/>
+      <c r="BH74" s="56"/>
+      <c r="BI74" s="56"/>
+      <c r="BJ74" s="56"/>
+      <c r="BK74" s="56"/>
+      <c r="BL74" s="52"/>
+      <c r="BM74" s="52"/>
+      <c r="BN74" s="52"/>
+      <c r="BO74" s="52"/>
+      <c r="BP74" s="57"/>
+      <c r="BQ74" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H8:H10"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="I9:M9"/>
-    <mergeCell ref="I8:W8"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:AA5"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:AB4"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
     <mergeCell ref="BG9:BK9"/>
     <mergeCell ref="BL9:BP9"/>
     <mergeCell ref="BB9:BF9"/>
@@ -10360,10 +10446,37 @@
     <mergeCell ref="AR9:AV9"/>
     <mergeCell ref="AW9:BA9"/>
     <mergeCell ref="AM9:AQ9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:AB4"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="I9:M9"/>
+    <mergeCell ref="I8:W8"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
-  <conditionalFormatting sqref="H12:H18 H20:H72">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="K14">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
+      <formula>LEN(TRIM(K14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12:H18 H20:H74">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10371,7 +10484,7 @@
         <color rgb="FF57BB8A"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -10380,11 +10493,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
-      <formula>LEN(TRIM(K14))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\캡스톤\Sources\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\바탕 화면\YJSANGSACAPSTONE\Sources_MY\Sources\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C67DB2D-7A31-41DE-BEEB-BDDA755F3403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E28A98-CEFA-4171-9327-710039DB92B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갠트 차트 템플릿" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -265,24 +263,33 @@
   </si>
   <si>
     <r>
-      <t>F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t>영진상사</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사람</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -290,55 +297,55 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>퍼블리싱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
+      <t>이름</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>파트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>,</t>
+      <t>황주</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태권</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
     </r>
     <r>
       <rPr>
@@ -347,113 +354,12 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>게시판</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>영진상사</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사람</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>황주</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>태권</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상희</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
       <t>관리자 모듈</t>
     </r>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <t>상희</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>신성</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
@@ -2274,6 +2180,452 @@
         <charset val="129"/>
       </rPr>
       <t>수정</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.6</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,상희</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.7</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F&amp;B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리액트 스프링 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AXIOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>plan)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F&amp;B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리액트 스프링 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AXIOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>challenge)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.8</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.9</t>
+  </si>
+  <si>
+    <t>5.1.10</t>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> plan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F&amp;B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리액트 스프링 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AXIOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신
+(board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,태권</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>&amp;MYPAGE</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,황주</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F&amp;B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리액트 스프링 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AXIOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신
+(MYPAGE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>앱 개발</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 모듈</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>플래너 모듈</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 모듈</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지 모듈</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>챌린지 모듈</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>태권, 황주</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>상희, 유현</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>민화, 신성</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>황주, 민화, 신성</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 테스트</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5단계</t>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(06.26)</t>
     </r>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -2286,7 +2638,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2583,8 +2935,14 @@
       <color theme="2" tint="-0.249977111117893"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2705,8 +3063,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2902,11 +3266,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFB7B7B7"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB7B7B7"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB7B7B7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3058,15 +3442,66 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="28" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3080,55 +3515,38 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="28" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="28" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="28" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3473,25 +3891,25 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:CH63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" customWidth="1"/>
-    <col min="5" max="6" width="14.26953125" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" customWidth="1"/>
-    <col min="8" max="67" width="3.453125" customWidth="1"/>
-    <col min="68" max="68" width="3.81640625" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="67" width="3.42578125" customWidth="1"/>
+    <col min="68" max="72" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="21" customHeight="1">
+    <row r="1" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3560,46 +3978,50 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
       <c r="BP1" s="1"/>
+      <c r="BQ1" s="1"/>
+      <c r="BR1" s="1"/>
+      <c r="BS1" s="1"/>
+      <c r="BT1" s="1"/>
     </row>
-    <row r="2" spans="1:68" ht="38">
+    <row r="2" spans="1:86" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="69" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="74" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
-      <c r="X2" s="70"/>
-      <c r="Y2" s="70"/>
-      <c r="Z2" s="70"/>
-      <c r="AA2" s="70"/>
-      <c r="AB2" s="70"/>
-      <c r="AC2" s="70"/>
-      <c r="AD2" s="70"/>
-      <c r="AE2" s="70"/>
-      <c r="AF2" s="70"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
       <c r="AI2" s="10"/>
@@ -3636,8 +4058,12 @@
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
     </row>
-    <row r="3" spans="1:68" ht="21" customHeight="1">
+    <row r="3" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -3706,19 +4132,23 @@
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
       <c r="BP3" s="1"/>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="1"/>
+      <c r="BS3" s="1"/>
+      <c r="BT3" s="1"/>
     </row>
-    <row r="4" spans="1:68" ht="21" customHeight="1">
+    <row r="4" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1"/>
       <c r="B4" s="66" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="67"/>
-      <c r="D4" s="64" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
+      <c r="D4" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="66" t="s">
         <v>4</v>
       </c>
@@ -3728,7 +4158,7 @@
       <c r="L4" s="67"/>
       <c r="M4" s="67"/>
       <c r="N4" s="67"/>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="69" t="s">
         <v>22</v>
       </c>
       <c r="P4" s="67"/>
@@ -3784,14 +4214,18 @@
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="1"/>
+      <c r="BS4" s="1"/>
+      <c r="BT4" s="1"/>
     </row>
-    <row r="5" spans="1:68" ht="21" customHeight="1">
+    <row r="5" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="1"/>
       <c r="B5" s="66" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="67"/>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="74" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="67"/>
@@ -3806,7 +4240,7 @@
       <c r="L5" s="67"/>
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
-      <c r="O5" s="72">
+      <c r="O5" s="68">
         <v>45043</v>
       </c>
       <c r="P5" s="67"/>
@@ -3862,8 +4296,12 @@
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
     </row>
-    <row r="6" spans="1:68" ht="21" customHeight="1">
+    <row r="6" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -3932,8 +4370,12 @@
       <c r="BN6" s="18"/>
       <c r="BO6" s="18"/>
       <c r="BP6" s="18"/>
+      <c r="BQ6" s="18"/>
+      <c r="BR6" s="18"/>
+      <c r="BS6" s="18"/>
+      <c r="BT6" s="18"/>
     </row>
-    <row r="7" spans="1:68" ht="21" customHeight="1">
+    <row r="7" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4002,197 +4444,236 @@
       <c r="BN7" s="18"/>
       <c r="BO7" s="18"/>
       <c r="BP7" s="18"/>
+      <c r="BQ7" s="18"/>
+      <c r="BR7" s="18"/>
+      <c r="BS7" s="18"/>
+      <c r="BT7" s="18"/>
+      <c r="BU7" s="89"/>
+      <c r="BV7" s="89"/>
+      <c r="BW7" s="89"/>
     </row>
-    <row r="8" spans="1:68" ht="17.25" customHeight="1">
+    <row r="8" spans="1:86" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21"/>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="63" t="s">
+      <c r="G8" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="76" t="s">
+      <c r="H8" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="61" t="s">
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="57"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AJ8" s="57"/>
-      <c r="AK8" s="57"/>
-      <c r="AL8" s="60" t="s">
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62"/>
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AO8" s="57"/>
-      <c r="AP8" s="57"/>
-      <c r="AQ8" s="57"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AT8" s="57"/>
-      <c r="AU8" s="57"/>
-      <c r="AV8" s="57"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="57"/>
-      <c r="AZ8" s="57"/>
-      <c r="BA8" s="56" t="s">
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="62"/>
+      <c r="AY8" s="62"/>
+      <c r="AZ8" s="62"/>
+      <c r="BA8" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="BB8" s="57"/>
-      <c r="BC8" s="57"/>
-      <c r="BD8" s="57"/>
-      <c r="BE8" s="57"/>
-      <c r="BF8" s="57"/>
-      <c r="BG8" s="57"/>
-      <c r="BH8" s="57"/>
-      <c r="BI8" s="57"/>
-      <c r="BJ8" s="57"/>
-      <c r="BK8" s="57"/>
-      <c r="BL8" s="57"/>
-      <c r="BM8" s="57"/>
-      <c r="BN8" s="57"/>
-      <c r="BO8" s="58"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="62"/>
+      <c r="BD8" s="62"/>
+      <c r="BE8" s="62"/>
+      <c r="BF8" s="62"/>
+      <c r="BG8" s="62"/>
+      <c r="BH8" s="62"/>
+      <c r="BI8" s="62"/>
+      <c r="BJ8" s="62"/>
+      <c r="BK8" s="62"/>
+      <c r="BL8" s="62"/>
+      <c r="BM8" s="62"/>
+      <c r="BN8" s="62"/>
+      <c r="BO8" s="77"/>
+      <c r="BP8" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="BQ8" s="88"/>
+      <c r="BR8" s="88"/>
+      <c r="BS8" s="88"/>
+      <c r="BT8" s="88"/>
+      <c r="BU8" s="90"/>
+      <c r="BV8" s="91"/>
+      <c r="BW8" s="91"/>
+      <c r="BX8" s="83"/>
+      <c r="BY8" s="83"/>
+      <c r="BZ8" s="83"/>
+      <c r="CA8" s="83"/>
+      <c r="CB8" s="83"/>
+      <c r="CC8" s="83"/>
+      <c r="CD8" s="83"/>
+      <c r="CE8" s="83"/>
+      <c r="CF8" s="83"/>
+      <c r="CG8" s="83"/>
+      <c r="CH8" s="84"/>
     </row>
-    <row r="9" spans="1:68" ht="17.25" customHeight="1">
+    <row r="9" spans="1:86" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="75" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="59"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="75" t="s">
+      <c r="S9" s="59"/>
+      <c r="T9" s="59"/>
+      <c r="U9" s="59"/>
+      <c r="V9" s="60"/>
+      <c r="W9" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="75" t="s">
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="59"/>
+      <c r="AA9" s="60"/>
+      <c r="AB9" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="59" t="s">
+      <c r="AC9" s="59"/>
+      <c r="AD9" s="59"/>
+      <c r="AE9" s="59"/>
+      <c r="AF9" s="60"/>
+      <c r="AG9" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="X9" s="54"/>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="55"/>
-      <c r="AB9" s="59" t="s">
+      <c r="AH9" s="59"/>
+      <c r="AI9" s="59"/>
+      <c r="AJ9" s="59"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="81" t="s">
         <v>91</v>
       </c>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AF9" s="55"/>
-      <c r="AG9" s="59" t="s">
+      <c r="AM9" s="59"/>
+      <c r="AN9" s="59"/>
+      <c r="AO9" s="59"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="81" t="s">
         <v>92</v>
       </c>
-      <c r="AH9" s="54"/>
-      <c r="AI9" s="54"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="55"/>
-      <c r="AL9" s="62" t="s">
+      <c r="AR9" s="59"/>
+      <c r="AS9" s="59"/>
+      <c r="AT9" s="59"/>
+      <c r="AU9" s="60"/>
+      <c r="AV9" s="81" t="s">
         <v>93</v>
       </c>
-      <c r="AM9" s="54"/>
-      <c r="AN9" s="54"/>
-      <c r="AO9" s="54"/>
-      <c r="AP9" s="55"/>
-      <c r="AQ9" s="62" t="s">
+      <c r="AW9" s="59"/>
+      <c r="AX9" s="59"/>
+      <c r="AY9" s="59"/>
+      <c r="AZ9" s="60"/>
+      <c r="BA9" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="AR9" s="54"/>
-      <c r="AS9" s="54"/>
-      <c r="AT9" s="54"/>
-      <c r="AU9" s="55"/>
-      <c r="AV9" s="62" t="s">
+      <c r="BB9" s="59"/>
+      <c r="BC9" s="59"/>
+      <c r="BD9" s="59"/>
+      <c r="BE9" s="60"/>
+      <c r="BF9" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="AW9" s="54"/>
-      <c r="AX9" s="54"/>
-      <c r="AY9" s="54"/>
-      <c r="AZ9" s="55"/>
-      <c r="BA9" s="53" t="s">
+      <c r="BG9" s="59"/>
+      <c r="BH9" s="59"/>
+      <c r="BI9" s="59"/>
+      <c r="BJ9" s="60"/>
+      <c r="BK9" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="BB9" s="54"/>
-      <c r="BC9" s="54"/>
-      <c r="BD9" s="54"/>
-      <c r="BE9" s="55"/>
-      <c r="BF9" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG9" s="54"/>
-      <c r="BH9" s="54"/>
-      <c r="BI9" s="54"/>
-      <c r="BJ9" s="55"/>
-      <c r="BK9" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="BL9" s="54"/>
-      <c r="BM9" s="54"/>
-      <c r="BN9" s="54"/>
-      <c r="BO9" s="55"/>
+      <c r="BL9" s="59"/>
+      <c r="BM9" s="59"/>
+      <c r="BN9" s="59"/>
+      <c r="BO9" s="60"/>
+      <c r="BP9" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="BQ9" s="86"/>
+      <c r="BR9" s="86"/>
+      <c r="BS9" s="86"/>
+      <c r="BT9" s="86"/>
+      <c r="BU9" s="92"/>
+      <c r="BV9" s="93"/>
+      <c r="BW9" s="93"/>
+      <c r="BX9" s="85"/>
     </row>
-    <row r="10" spans="1:68" ht="17.25" customHeight="1">
+    <row r="10" spans="1:86" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
       <c r="H10" s="24" t="s">
         <v>17</v>
       </c>
@@ -4373,14 +4854,32 @@
       <c r="BO10" s="27" t="s">
         <v>21</v>
       </c>
+      <c r="BP10" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="BR10" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="BS10" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT10" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="BU10" s="94"/>
+      <c r="BV10" s="89"/>
+      <c r="BW10" s="89"/>
     </row>
-    <row r="11" spans="1:68" ht="21" customHeight="1">
+    <row r="11" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="28">
         <v>1</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -4446,15 +4945,22 @@
       <c r="BM11" s="30"/>
       <c r="BN11" s="30"/>
       <c r="BO11" s="30"/>
-      <c r="BP11" s="18"/>
+      <c r="BP11" s="30"/>
+      <c r="BQ11" s="30"/>
+      <c r="BR11" s="30"/>
+      <c r="BS11" s="30"/>
+      <c r="BT11" s="30"/>
+      <c r="BU11" s="89"/>
+      <c r="BV11" s="89"/>
+      <c r="BW11" s="89"/>
     </row>
-    <row r="12" spans="1:68" ht="21" customHeight="1">
+    <row r="12" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="28">
         <v>2</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -4520,15 +5026,19 @@
       <c r="BM12" s="30"/>
       <c r="BN12" s="30"/>
       <c r="BO12" s="30"/>
-      <c r="BP12" s="18"/>
+      <c r="BP12" s="30"/>
+      <c r="BQ12" s="30"/>
+      <c r="BR12" s="30"/>
+      <c r="BS12" s="30"/>
+      <c r="BT12" s="30"/>
     </row>
-    <row r="13" spans="1:68" ht="21" customHeight="1">
+    <row r="13" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="28">
         <v>3</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -4594,15 +5104,19 @@
       <c r="BM13" s="30"/>
       <c r="BN13" s="30"/>
       <c r="BO13" s="30"/>
-      <c r="BP13" s="18"/>
+      <c r="BP13" s="30"/>
+      <c r="BQ13" s="30"/>
+      <c r="BR13" s="30"/>
+      <c r="BS13" s="30"/>
+      <c r="BT13" s="30"/>
     </row>
-    <row r="14" spans="1:68" ht="21" customHeight="1">
+    <row r="14" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="28">
         <v>4</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -4668,9 +5182,13 @@
       <c r="BM14" s="30"/>
       <c r="BN14" s="30"/>
       <c r="BO14" s="30"/>
-      <c r="BP14" s="18"/>
+      <c r="BP14" s="30"/>
+      <c r="BQ14" s="30"/>
+      <c r="BR14" s="30"/>
+      <c r="BS14" s="30"/>
+      <c r="BT14" s="30"/>
     </row>
-    <row r="15" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:86" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="33"/>
       <c r="B15" s="34">
         <v>4.0999999999999996</v>
@@ -4679,7 +5197,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="36">
         <v>45026</v>
@@ -4694,21 +5212,21 @@
       <c r="J15" s="39"/>
       <c r="K15" s="39"/>
       <c r="L15" s="39"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="77"/>
-      <c r="W15" s="77"/>
-      <c r="X15" s="77"/>
-      <c r="Y15" s="77"/>
-      <c r="Z15" s="77"/>
-      <c r="AA15" s="77"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="53"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="53"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+      <c r="W15" s="53"/>
+      <c r="X15" s="53"/>
+      <c r="Y15" s="53"/>
+      <c r="Z15" s="53"/>
+      <c r="AA15" s="53"/>
       <c r="AB15" s="39"/>
       <c r="AC15" s="39"/>
       <c r="AD15" s="39"/>
@@ -4749,9 +5267,13 @@
       <c r="BM15" s="39"/>
       <c r="BN15" s="39"/>
       <c r="BO15" s="40"/>
-      <c r="BP15" s="33"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="39"/>
+      <c r="BR15" s="39"/>
+      <c r="BS15" s="39"/>
+      <c r="BT15" s="40"/>
     </row>
-    <row r="16" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:86" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
         <v>27</v>
@@ -4760,7 +5282,7 @@
         <v>26</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="36">
         <v>885083</v>
@@ -4776,11 +5298,11 @@
       <c r="J16" s="43"/>
       <c r="K16" s="43"/>
       <c r="L16" s="43"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="53"/>
+      <c r="Q16" s="53"/>
       <c r="R16" s="43"/>
       <c r="S16" s="43"/>
       <c r="T16" s="43"/>
@@ -4831,18 +5353,22 @@
       <c r="BM16" s="43"/>
       <c r="BN16" s="43"/>
       <c r="BO16" s="44"/>
-      <c r="BP16" s="33"/>
+      <c r="BP16" s="43"/>
+      <c r="BQ16" s="43"/>
+      <c r="BR16" s="43"/>
+      <c r="BS16" s="43"/>
+      <c r="BT16" s="44"/>
     </row>
-    <row r="17" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="33"/>
       <c r="B17" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D17" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E17" s="36">
         <v>885083</v>
@@ -4858,11 +5384,11 @@
       <c r="J17" s="43"/>
       <c r="K17" s="43"/>
       <c r="L17" s="43"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
       <c r="R17" s="43"/>
       <c r="S17" s="43"/>
       <c r="T17" s="43"/>
@@ -4913,18 +5439,22 @@
       <c r="BM17" s="43"/>
       <c r="BN17" s="43"/>
       <c r="BO17" s="44"/>
-      <c r="BP17" s="33"/>
+      <c r="BP17" s="43"/>
+      <c r="BQ17" s="43"/>
+      <c r="BR17" s="43"/>
+      <c r="BS17" s="43"/>
+      <c r="BT17" s="44"/>
     </row>
-    <row r="18" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
       <c r="B18" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="36">
         <v>885083</v>
@@ -4940,11 +5470,11 @@
       <c r="J18" s="43"/>
       <c r="K18" s="43"/>
       <c r="L18" s="43"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="53"/>
       <c r="R18" s="43"/>
       <c r="S18" s="43"/>
       <c r="T18" s="43"/>
@@ -4995,18 +5525,22 @@
       <c r="BM18" s="43"/>
       <c r="BN18" s="43"/>
       <c r="BO18" s="44"/>
-      <c r="BP18" s="33"/>
+      <c r="BP18" s="43"/>
+      <c r="BQ18" s="43"/>
+      <c r="BR18" s="43"/>
+      <c r="BS18" s="43"/>
+      <c r="BT18" s="44"/>
     </row>
-    <row r="19" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33"/>
       <c r="B19" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E19" s="36">
         <v>885083</v>
@@ -5022,11 +5556,11 @@
       <c r="J19" s="43"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
       <c r="R19" s="43"/>
       <c r="S19" s="43"/>
       <c r="T19" s="43"/>
@@ -5077,18 +5611,22 @@
       <c r="BM19" s="43"/>
       <c r="BN19" s="43"/>
       <c r="BO19" s="44"/>
-      <c r="BP19" s="33"/>
+      <c r="BP19" s="43"/>
+      <c r="BQ19" s="43"/>
+      <c r="BR19" s="43"/>
+      <c r="BS19" s="43"/>
+      <c r="BT19" s="44"/>
     </row>
-    <row r="20" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="20" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="33"/>
       <c r="B20" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E20" s="36">
         <v>45026</v>
@@ -5104,11 +5642,11 @@
       <c r="J20" s="43"/>
       <c r="K20" s="43"/>
       <c r="L20" s="43"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
       <c r="R20" s="43"/>
       <c r="S20" s="43"/>
       <c r="T20" s="43"/>
@@ -5159,18 +5697,22 @@
       <c r="BM20" s="43"/>
       <c r="BN20" s="43"/>
       <c r="BO20" s="44"/>
-      <c r="BP20" s="33"/>
+      <c r="BP20" s="43"/>
+      <c r="BQ20" s="43"/>
+      <c r="BR20" s="43"/>
+      <c r="BS20" s="43"/>
+      <c r="BT20" s="44"/>
     </row>
-    <row r="21" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="21" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="33"/>
       <c r="B21" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="36">
         <v>45029</v>
@@ -5189,13 +5731,13 @@
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
       <c r="O21" s="43"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="77"/>
-      <c r="U21" s="77"/>
-      <c r="V21" s="77"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="53"/>
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
       <c r="W21" s="43"/>
       <c r="X21" s="43"/>
       <c r="Y21" s="43"/>
@@ -5241,18 +5783,22 @@
       <c r="BM21" s="43"/>
       <c r="BN21" s="43"/>
       <c r="BO21" s="44"/>
-      <c r="BP21" s="33"/>
+      <c r="BP21" s="43"/>
+      <c r="BQ21" s="43"/>
+      <c r="BR21" s="43"/>
+      <c r="BS21" s="43"/>
+      <c r="BT21" s="44"/>
     </row>
-    <row r="22" spans="1:68" ht="15.5" customHeight="1" outlineLevel="1">
+    <row r="22" spans="1:72" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33"/>
       <c r="B22" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E22" s="36">
         <v>45033</v>
@@ -5273,11 +5819,11 @@
       <c r="O22" s="43"/>
       <c r="P22" s="43"/>
       <c r="Q22" s="44"/>
-      <c r="R22" s="77"/>
-      <c r="S22" s="77"/>
-      <c r="T22" s="77"/>
-      <c r="U22" s="77"/>
-      <c r="V22" s="77"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
       <c r="W22" s="43"/>
       <c r="X22" s="43"/>
       <c r="Y22" s="43"/>
@@ -5323,18 +5869,22 @@
       <c r="BM22" s="43"/>
       <c r="BN22" s="43"/>
       <c r="BO22" s="44"/>
-      <c r="BP22" s="33"/>
+      <c r="BP22" s="43"/>
+      <c r="BQ22" s="43"/>
+      <c r="BR22" s="43"/>
+      <c r="BS22" s="43"/>
+      <c r="BT22" s="44"/>
     </row>
-    <row r="23" spans="1:68" ht="18" customHeight="1" outlineLevel="1">
+    <row r="23" spans="1:72" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="33"/>
       <c r="B23" s="34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="36">
         <v>45040</v>
@@ -5360,13 +5910,13 @@
       <c r="T23" s="43"/>
       <c r="U23" s="43"/>
       <c r="V23" s="44"/>
-      <c r="W23" s="77"/>
-      <c r="X23" s="77"/>
-      <c r="Y23" s="77"/>
-      <c r="Z23" s="77"/>
-      <c r="AA23" s="77"/>
-      <c r="AB23" s="77"/>
-      <c r="AC23" s="77"/>
+      <c r="W23" s="53"/>
+      <c r="X23" s="53"/>
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="53"/>
+      <c r="AC23" s="53"/>
       <c r="AD23" s="43"/>
       <c r="AE23" s="43"/>
       <c r="AF23" s="44"/>
@@ -5405,18 +5955,22 @@
       <c r="BM23" s="43"/>
       <c r="BN23" s="43"/>
       <c r="BO23" s="44"/>
-      <c r="BP23" s="33"/>
+      <c r="BP23" s="43"/>
+      <c r="BQ23" s="43"/>
+      <c r="BR23" s="43"/>
+      <c r="BS23" s="43"/>
+      <c r="BT23" s="44"/>
     </row>
-    <row r="24" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="24" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33"/>
       <c r="B24" s="34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D24" s="47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E24" s="36">
         <v>45040</v>
@@ -5442,13 +5996,13 @@
       <c r="T24" s="43"/>
       <c r="U24" s="43"/>
       <c r="V24" s="44"/>
-      <c r="W24" s="77"/>
-      <c r="X24" s="77"/>
-      <c r="Y24" s="77"/>
-      <c r="Z24" s="77"/>
-      <c r="AA24" s="77"/>
-      <c r="AB24" s="77"/>
-      <c r="AC24" s="77"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="53"/>
+      <c r="AC24" s="53"/>
       <c r="AD24" s="43"/>
       <c r="AE24" s="43"/>
       <c r="AF24" s="44"/>
@@ -5487,18 +6041,22 @@
       <c r="BM24" s="43"/>
       <c r="BN24" s="43"/>
       <c r="BO24" s="44"/>
-      <c r="BP24" s="33"/>
+      <c r="BP24" s="43"/>
+      <c r="BQ24" s="43"/>
+      <c r="BR24" s="43"/>
+      <c r="BS24" s="43"/>
+      <c r="BT24" s="44"/>
     </row>
-    <row r="25" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="25" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A25" s="33"/>
       <c r="B25" s="34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D25" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" s="36">
         <v>45040</v>
@@ -5524,10 +6082,10 @@
       <c r="T25" s="43"/>
       <c r="U25" s="43"/>
       <c r="V25" s="44"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="77"/>
-      <c r="Z25" s="77"/>
+      <c r="W25" s="53"/>
+      <c r="X25" s="53"/>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="53"/>
       <c r="AA25" s="44"/>
       <c r="AB25" s="43"/>
       <c r="AC25" s="43"/>
@@ -5569,18 +6127,22 @@
       <c r="BM25" s="43"/>
       <c r="BN25" s="43"/>
       <c r="BO25" s="44"/>
-      <c r="BP25" s="33"/>
+      <c r="BP25" s="43"/>
+      <c r="BQ25" s="43"/>
+      <c r="BR25" s="43"/>
+      <c r="BS25" s="43"/>
+      <c r="BT25" s="44"/>
     </row>
-    <row r="26" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="26" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A26" s="33"/>
       <c r="B26" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="48" t="s">
         <v>72</v>
-      </c>
-      <c r="D26" s="48" t="s">
-        <v>74</v>
       </c>
       <c r="E26" s="36">
         <v>45044</v>
@@ -5610,9 +6172,9 @@
       <c r="X26" s="43"/>
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
-      <c r="AA26" s="77"/>
-      <c r="AB26" s="77"/>
-      <c r="AC26" s="77"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="53"/>
+      <c r="AC26" s="53"/>
       <c r="AD26" s="43"/>
       <c r="AE26" s="43"/>
       <c r="AF26" s="43"/>
@@ -5651,18 +6213,22 @@
       <c r="BM26" s="43"/>
       <c r="BN26" s="43"/>
       <c r="BO26" s="43"/>
-      <c r="BP26" s="33"/>
+      <c r="BP26" s="43"/>
+      <c r="BQ26" s="43"/>
+      <c r="BR26" s="43"/>
+      <c r="BS26" s="43"/>
+      <c r="BT26" s="43"/>
     </row>
-    <row r="27" spans="1:68" ht="19" customHeight="1" outlineLevel="1">
+    <row r="27" spans="1:72" ht="18.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="33"/>
       <c r="B27" s="34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="36">
         <v>45040</v>
@@ -5688,10 +6254,10 @@
       <c r="T27" s="43"/>
       <c r="U27" s="43"/>
       <c r="V27" s="43"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="77"/>
-      <c r="Z27" s="77"/>
+      <c r="W27" s="53"/>
+      <c r="X27" s="53"/>
+      <c r="Y27" s="53"/>
+      <c r="Z27" s="53"/>
       <c r="AA27" s="43"/>
       <c r="AC27" s="43"/>
       <c r="AD27" s="43"/>
@@ -5732,18 +6298,22 @@
       <c r="BM27" s="43"/>
       <c r="BN27" s="43"/>
       <c r="BO27" s="43"/>
-      <c r="BP27" s="33"/>
+      <c r="BP27" s="43"/>
+      <c r="BQ27" s="43"/>
+      <c r="BR27" s="43"/>
+      <c r="BS27" s="43"/>
+      <c r="BT27" s="43"/>
     </row>
-    <row r="28" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="28" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="33"/>
       <c r="B28" s="34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E28" s="36">
         <v>45044</v>
@@ -5773,12 +6343,12 @@
       <c r="X28" s="43"/>
       <c r="Y28" s="43"/>
       <c r="Z28" s="43"/>
-      <c r="AA28" s="77"/>
-      <c r="AB28" s="77"/>
-      <c r="AC28" s="77"/>
-      <c r="AD28" s="77"/>
-      <c r="AE28" s="77"/>
-      <c r="AF28" s="77"/>
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="53"/>
+      <c r="AC28" s="53"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="53"/>
+      <c r="AF28" s="53"/>
       <c r="AG28" s="43"/>
       <c r="AH28" s="43"/>
       <c r="AI28" s="43"/>
@@ -5814,18 +6384,22 @@
       <c r="BM28" s="43"/>
       <c r="BN28" s="43"/>
       <c r="BO28" s="43"/>
-      <c r="BP28" s="33"/>
+      <c r="BP28" s="43"/>
+      <c r="BQ28" s="43"/>
+      <c r="BR28" s="43"/>
+      <c r="BS28" s="43"/>
+      <c r="BT28" s="43"/>
     </row>
-    <row r="29" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="29" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="33"/>
       <c r="B29" s="34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="36">
         <v>45044</v>
@@ -5855,9 +6429,9 @@
       <c r="X29" s="43"/>
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
-      <c r="AA29" s="77"/>
-      <c r="AB29" s="77"/>
-      <c r="AC29" s="77"/>
+      <c r="AA29" s="53"/>
+      <c r="AB29" s="53"/>
+      <c r="AC29" s="53"/>
       <c r="AD29" s="43"/>
       <c r="AE29" s="43"/>
       <c r="AF29" s="43"/>
@@ -5896,18 +6470,22 @@
       <c r="BM29" s="43"/>
       <c r="BN29" s="43"/>
       <c r="BO29" s="43"/>
-      <c r="BP29" s="33"/>
+      <c r="BP29" s="43"/>
+      <c r="BQ29" s="43"/>
+      <c r="BR29" s="43"/>
+      <c r="BS29" s="43"/>
+      <c r="BT29" s="43"/>
     </row>
-    <row r="30" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="30" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="33"/>
       <c r="B30" s="34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D30" s="47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="36">
         <v>45044</v>
@@ -5937,12 +6515,12 @@
       <c r="X30" s="43"/>
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
-      <c r="AA30" s="77"/>
-      <c r="AB30" s="77"/>
-      <c r="AC30" s="77"/>
-      <c r="AD30" s="77"/>
-      <c r="AE30" s="77"/>
-      <c r="AF30" s="77"/>
+      <c r="AA30" s="53"/>
+      <c r="AB30" s="53"/>
+      <c r="AC30" s="53"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="53"/>
+      <c r="AF30" s="53"/>
       <c r="AG30" s="43"/>
       <c r="AH30" s="43"/>
       <c r="AI30" s="43"/>
@@ -5978,15 +6556,19 @@
       <c r="BM30" s="43"/>
       <c r="BN30" s="43"/>
       <c r="BO30" s="43"/>
-      <c r="BP30" s="33"/>
+      <c r="BP30" s="43"/>
+      <c r="BQ30" s="43"/>
+      <c r="BR30" s="43"/>
+      <c r="BS30" s="43"/>
+      <c r="BT30" s="43"/>
     </row>
-    <row r="31" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="31" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="33"/>
       <c r="B31" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D31" s="47" t="s">
         <v>24</v>
@@ -6016,15 +6598,15 @@
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
+      <c r="X31" s="53"/>
+      <c r="Y31" s="53"/>
+      <c r="Z31" s="53"/>
+      <c r="AA31" s="53"/>
+      <c r="AB31" s="53"/>
+      <c r="AC31" s="53"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="53"/>
+      <c r="AF31" s="53"/>
       <c r="AG31" s="43"/>
       <c r="AH31" s="43"/>
       <c r="AI31" s="43"/>
@@ -6060,15 +6642,19 @@
       <c r="BM31" s="43"/>
       <c r="BN31" s="43"/>
       <c r="BO31" s="43"/>
-      <c r="BP31" s="33"/>
+      <c r="BP31" s="43"/>
+      <c r="BQ31" s="43"/>
+      <c r="BR31" s="43"/>
+      <c r="BS31" s="43"/>
+      <c r="BT31" s="43"/>
     </row>
-    <row r="32" spans="1:68" ht="21" customHeight="1">
+    <row r="32" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
       <c r="B32" s="28">
         <v>5</v>
       </c>
       <c r="C32" s="49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
@@ -6134,9 +6720,13 @@
       <c r="BM32" s="30"/>
       <c r="BN32" s="30"/>
       <c r="BO32" s="30"/>
-      <c r="BP32" s="18"/>
+      <c r="BP32" s="30"/>
+      <c r="BQ32" s="30"/>
+      <c r="BR32" s="30"/>
+      <c r="BS32" s="30"/>
+      <c r="BT32" s="30"/>
     </row>
-    <row r="33" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A33" s="33"/>
       <c r="B33" s="34">
         <v>5.0999999999999996</v>
@@ -6161,21 +6751,21 @@
       <c r="J33" s="43"/>
       <c r="K33" s="43"/>
       <c r="L33" s="43"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="54"/>
+      <c r="R33" s="54"/>
+      <c r="S33" s="54"/>
+      <c r="T33" s="54"/>
+      <c r="U33" s="54"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="54"/>
+      <c r="X33" s="54"/>
+      <c r="Y33" s="54"/>
+      <c r="Z33" s="54"/>
+      <c r="AA33" s="54"/>
       <c r="AB33" s="41"/>
       <c r="AC33" s="42"/>
       <c r="AD33" s="43"/>
@@ -6216,15 +6806,19 @@
       <c r="BM33" s="43"/>
       <c r="BN33" s="43"/>
       <c r="BO33" s="43"/>
-      <c r="BP33" s="33"/>
+      <c r="BP33" s="41"/>
+      <c r="BQ33" s="42"/>
+      <c r="BR33" s="43"/>
+      <c r="BS33" s="43"/>
+      <c r="BT33" s="43"/>
     </row>
-    <row r="34" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>33</v>
@@ -6243,11 +6837,11 @@
       <c r="J34" s="43"/>
       <c r="K34" s="43"/>
       <c r="L34" s="43"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="54"/>
       <c r="R34" s="41"/>
       <c r="S34" s="42"/>
       <c r="T34" s="43"/>
@@ -6298,18 +6892,22 @@
       <c r="BM34" s="43"/>
       <c r="BN34" s="43"/>
       <c r="BO34" s="43"/>
-      <c r="BP34" s="33"/>
+      <c r="BP34" s="41"/>
+      <c r="BQ34" s="42"/>
+      <c r="BR34" s="43"/>
+      <c r="BS34" s="43"/>
+      <c r="BT34" s="43"/>
     </row>
-    <row r="35" spans="1:68" ht="29.5" customHeight="1" outlineLevel="1">
+    <row r="35" spans="1:72" ht="29.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="E35" s="36">
         <v>45033</v>
@@ -6330,11 +6928,11 @@
       <c r="O35" s="43"/>
       <c r="P35" s="43"/>
       <c r="Q35" s="43"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
-      <c r="U35" s="78"/>
-      <c r="V35" s="78"/>
+      <c r="R35" s="54"/>
+      <c r="S35" s="54"/>
+      <c r="T35" s="54"/>
+      <c r="U35" s="54"/>
+      <c r="V35" s="54"/>
       <c r="W35" s="41"/>
       <c r="X35" s="42"/>
       <c r="Y35" s="43"/>
@@ -6380,15 +6978,19 @@
       <c r="BM35" s="43"/>
       <c r="BN35" s="43"/>
       <c r="BO35" s="43"/>
-      <c r="BP35" s="33"/>
+      <c r="BP35" s="41"/>
+      <c r="BQ35" s="42"/>
+      <c r="BR35" s="43"/>
+      <c r="BS35" s="43"/>
+      <c r="BT35" s="43"/>
     </row>
-    <row r="36" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="36" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="45" t="s">
         <v>33</v>
@@ -6412,11 +7014,11 @@
       <c r="O36" s="43"/>
       <c r="P36" s="43"/>
       <c r="Q36" s="43"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
-      <c r="U36" s="78"/>
-      <c r="V36" s="78"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="54"/>
+      <c r="T36" s="54"/>
+      <c r="U36" s="54"/>
+      <c r="V36" s="54"/>
       <c r="W36" s="41"/>
       <c r="X36" s="42"/>
       <c r="Y36" s="43"/>
@@ -6462,15 +7064,19 @@
       <c r="BM36" s="43"/>
       <c r="BN36" s="43"/>
       <c r="BO36" s="43"/>
-      <c r="BP36" s="33"/>
+      <c r="BP36" s="41"/>
+      <c r="BQ36" s="42"/>
+      <c r="BR36" s="43"/>
+      <c r="BS36" s="43"/>
+      <c r="BT36" s="43"/>
     </row>
-    <row r="37" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="37" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="33"/>
       <c r="B37" s="34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="45" t="s">
         <v>33</v>
@@ -6499,11 +7105,11 @@
       <c r="T37" s="43"/>
       <c r="U37" s="43"/>
       <c r="V37" s="43"/>
-      <c r="W37" s="78"/>
-      <c r="X37" s="78"/>
-      <c r="Y37" s="78"/>
-      <c r="Z37" s="78"/>
-      <c r="AA37" s="78"/>
+      <c r="W37" s="54"/>
+      <c r="X37" s="54"/>
+      <c r="Y37" s="54"/>
+      <c r="Z37" s="54"/>
+      <c r="AA37" s="54"/>
       <c r="AB37" s="41"/>
       <c r="AC37" s="42"/>
       <c r="AD37" s="43"/>
@@ -6544,18 +7150,22 @@
       <c r="BM37" s="43"/>
       <c r="BN37" s="43"/>
       <c r="BO37" s="43"/>
-      <c r="BP37" s="33"/>
+      <c r="BP37" s="41"/>
+      <c r="BQ37" s="42"/>
+      <c r="BR37" s="43"/>
+      <c r="BS37" s="43"/>
+      <c r="BT37" s="43"/>
     </row>
-    <row r="38" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="38" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="33"/>
       <c r="B38" s="34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E38" s="36">
         <v>45042</v>
@@ -6583,11 +7193,11 @@
       <c r="V38" s="43"/>
       <c r="W38" s="43"/>
       <c r="X38" s="43"/>
-      <c r="Y38" s="78"/>
-      <c r="Z38" s="78"/>
-      <c r="AA38" s="78"/>
-      <c r="AB38" s="78"/>
-      <c r="AC38" s="78"/>
+      <c r="Y38" s="54"/>
+      <c r="Z38" s="54"/>
+      <c r="AA38" s="54"/>
+      <c r="AB38" s="54"/>
+      <c r="AC38" s="54"/>
       <c r="AD38" s="43"/>
       <c r="AE38" s="43"/>
       <c r="AF38" s="43"/>
@@ -6626,15 +7236,19 @@
       <c r="BM38" s="43"/>
       <c r="BN38" s="43"/>
       <c r="BO38" s="43"/>
-      <c r="BP38" s="33"/>
+      <c r="BP38" s="41"/>
+      <c r="BQ38" s="42"/>
+      <c r="BR38" s="43"/>
+      <c r="BS38" s="43"/>
+      <c r="BT38" s="43"/>
     </row>
-    <row r="39" spans="1:68" ht="36.5" customHeight="1" outlineLevel="1">
+    <row r="39" spans="1:72" ht="36.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D39" s="45" t="s">
         <v>33</v>
@@ -6663,13 +7277,13 @@
       <c r="T39" s="43"/>
       <c r="U39" s="43"/>
       <c r="V39" s="43"/>
-      <c r="W39" s="78"/>
-      <c r="X39" s="78"/>
-      <c r="Y39" s="78"/>
-      <c r="Z39" s="78"/>
-      <c r="AA39" s="78"/>
-      <c r="AB39" s="78"/>
-      <c r="AC39" s="78"/>
+      <c r="W39" s="54"/>
+      <c r="X39" s="54"/>
+      <c r="Y39" s="54"/>
+      <c r="Z39" s="54"/>
+      <c r="AA39" s="54"/>
+      <c r="AB39" s="54"/>
+      <c r="AC39" s="54"/>
       <c r="AD39" s="43"/>
       <c r="AE39" s="43"/>
       <c r="AF39" s="43"/>
@@ -6708,524 +7322,554 @@
       <c r="BM39" s="43"/>
       <c r="BN39" s="43"/>
       <c r="BO39" s="43"/>
-      <c r="BP39" s="33"/>
+      <c r="BP39" s="41"/>
+      <c r="BQ39" s="42"/>
+      <c r="BR39" s="43"/>
+      <c r="BS39" s="43"/>
+      <c r="BT39" s="43"/>
     </row>
-    <row r="40" spans="1:68" ht="21" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="28">
-        <v>6</v>
-      </c>
-      <c r="C40" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="30"/>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
-      <c r="Z40" s="30"/>
-      <c r="AA40" s="30"/>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AD40" s="30"/>
-      <c r="AE40" s="30"/>
-      <c r="AF40" s="30"/>
-      <c r="AG40" s="30"/>
-      <c r="AH40" s="30"/>
-      <c r="AI40" s="30"/>
-      <c r="AJ40" s="30"/>
-      <c r="AK40" s="30"/>
-      <c r="AL40" s="30"/>
-      <c r="AM40" s="30"/>
-      <c r="AN40" s="30"/>
-      <c r="AO40" s="30"/>
-      <c r="AP40" s="30"/>
-      <c r="AQ40" s="30"/>
-      <c r="AR40" s="30"/>
-      <c r="AS40" s="30"/>
-      <c r="AT40" s="30"/>
-      <c r="AU40" s="30"/>
-      <c r="AV40" s="30"/>
-      <c r="AW40" s="30"/>
-      <c r="AX40" s="30"/>
-      <c r="AY40" s="30"/>
-      <c r="AZ40" s="30"/>
-      <c r="BA40" s="30"/>
-      <c r="BB40" s="30"/>
-      <c r="BC40" s="30"/>
-      <c r="BD40" s="30"/>
-      <c r="BE40" s="30"/>
-      <c r="BF40" s="30"/>
-      <c r="BG40" s="30"/>
-      <c r="BH40" s="30"/>
-      <c r="BI40" s="30"/>
-      <c r="BJ40" s="30"/>
-      <c r="BK40" s="30"/>
-      <c r="BL40" s="30"/>
-      <c r="BM40" s="30"/>
-      <c r="BN40" s="30"/>
-      <c r="BO40" s="30"/>
-      <c r="BP40" s="18"/>
+    <row r="40" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="36">
+        <v>885102</v>
+      </c>
+      <c r="F40" s="36">
+        <v>885103</v>
+      </c>
+      <c r="G40" s="37">
+        <v>2</v>
+      </c>
+      <c r="H40" s="41"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="39"/>
+      <c r="Y40" s="82"/>
+      <c r="Z40" s="82"/>
+      <c r="AA40" s="54"/>
+      <c r="AB40" s="54"/>
+      <c r="AC40" s="82"/>
+      <c r="AD40" s="43"/>
+      <c r="AE40" s="43"/>
+      <c r="AF40" s="43"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="42"/>
+      <c r="AI40" s="43"/>
+      <c r="AJ40" s="43"/>
+      <c r="AK40" s="43"/>
+      <c r="AL40" s="41"/>
+      <c r="AM40" s="42"/>
+      <c r="AN40" s="43"/>
+      <c r="AO40" s="43"/>
+      <c r="AP40" s="43"/>
+      <c r="AQ40" s="41"/>
+      <c r="AR40" s="42"/>
+      <c r="AS40" s="43"/>
+      <c r="AT40" s="43"/>
+      <c r="AU40" s="43"/>
+      <c r="AV40" s="41"/>
+      <c r="AW40" s="42"/>
+      <c r="AX40" s="43"/>
+      <c r="AY40" s="43"/>
+      <c r="AZ40" s="43"/>
+      <c r="BA40" s="41"/>
+      <c r="BB40" s="42"/>
+      <c r="BC40" s="43"/>
+      <c r="BD40" s="43"/>
+      <c r="BE40" s="43"/>
+      <c r="BF40" s="41"/>
+      <c r="BG40" s="42"/>
+      <c r="BH40" s="43"/>
+      <c r="BI40" s="43"/>
+      <c r="BJ40" s="43"/>
+      <c r="BK40" s="41"/>
+      <c r="BL40" s="42"/>
+      <c r="BM40" s="43"/>
+      <c r="BN40" s="43"/>
+      <c r="BO40" s="43"/>
+      <c r="BP40" s="41"/>
+      <c r="BQ40" s="42"/>
+      <c r="BR40" s="43"/>
+      <c r="BS40" s="43"/>
+      <c r="BT40" s="43"/>
     </row>
-    <row r="41" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="41" spans="1:72" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="33"/>
-      <c r="B41" s="34">
-        <v>6.1</v>
+      <c r="B41" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="D41" s="45" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="E41" s="36">
-        <v>45026</v>
+        <v>885104</v>
       </c>
       <c r="F41" s="36">
-        <v>45032</v>
+        <v>885105</v>
       </c>
       <c r="G41" s="37">
-        <v>7</v>
-      </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="H41" s="41"/>
+      <c r="I41" s="42"/>
       <c r="J41" s="43"/>
       <c r="K41" s="43"/>
-      <c r="L41" s="44"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="42"/>
       <c r="T41" s="43"/>
       <c r="U41" s="43"/>
-      <c r="V41" s="44"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="44"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="82"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="82"/>
+      <c r="AB41" s="54"/>
+      <c r="AC41" s="54"/>
       <c r="AD41" s="43"/>
       <c r="AE41" s="43"/>
-      <c r="AF41" s="44"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="41"/>
+      <c r="AH41" s="42"/>
       <c r="AI41" s="43"/>
       <c r="AJ41" s="43"/>
-      <c r="AK41" s="44"/>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="41"/>
+      <c r="AM41" s="42"/>
       <c r="AN41" s="43"/>
       <c r="AO41" s="43"/>
-      <c r="AP41" s="44"/>
-      <c r="AQ41" s="43"/>
-      <c r="AR41" s="43"/>
+      <c r="AP41" s="43"/>
+      <c r="AQ41" s="41"/>
+      <c r="AR41" s="42"/>
       <c r="AS41" s="43"/>
       <c r="AT41" s="43"/>
-      <c r="AU41" s="44"/>
-      <c r="AV41" s="43"/>
-      <c r="AW41" s="43"/>
+      <c r="AU41" s="43"/>
+      <c r="AV41" s="41"/>
+      <c r="AW41" s="42"/>
       <c r="AX41" s="43"/>
       <c r="AY41" s="43"/>
-      <c r="AZ41" s="44"/>
-      <c r="BA41" s="43"/>
-      <c r="BB41" s="43"/>
+      <c r="AZ41" s="43"/>
+      <c r="BA41" s="41"/>
+      <c r="BB41" s="42"/>
       <c r="BC41" s="43"/>
       <c r="BD41" s="43"/>
-      <c r="BE41" s="44"/>
-      <c r="BF41" s="43"/>
-      <c r="BG41" s="43"/>
+      <c r="BE41" s="43"/>
+      <c r="BF41" s="41"/>
+      <c r="BG41" s="42"/>
       <c r="BH41" s="43"/>
       <c r="BI41" s="43"/>
-      <c r="BJ41" s="44"/>
-      <c r="BK41" s="43"/>
-      <c r="BL41" s="43"/>
+      <c r="BJ41" s="43"/>
+      <c r="BK41" s="41"/>
+      <c r="BL41" s="42"/>
       <c r="BM41" s="43"/>
       <c r="BN41" s="43"/>
-      <c r="BO41" s="44"/>
-      <c r="BP41" s="33"/>
+      <c r="BO41" s="43"/>
+      <c r="BP41" s="41"/>
+      <c r="BQ41" s="42"/>
+      <c r="BR41" s="43"/>
+      <c r="BS41" s="43"/>
+      <c r="BT41" s="43"/>
     </row>
-    <row r="42" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="42" spans="1:72" ht="27.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33"/>
       <c r="B42" s="34" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>54</v>
+        <v>127</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>24</v>
+        <v>115</v>
       </c>
       <c r="E42" s="36">
-        <v>45026</v>
+        <v>885106</v>
       </c>
       <c r="F42" s="36">
-        <v>45032</v>
+        <v>885106</v>
       </c>
       <c r="G42" s="37">
-        <v>7</v>
-      </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="43"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="41"/>
+      <c r="I42" s="42"/>
       <c r="J42" s="43"/>
       <c r="K42" s="43"/>
-      <c r="L42" s="44"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
-      <c r="P42" s="79"/>
-      <c r="Q42" s="79"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="42"/>
       <c r="T42" s="43"/>
       <c r="U42" s="43"/>
-      <c r="V42" s="44"/>
-      <c r="W42" s="43"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="43"/>
-      <c r="Z42" s="43"/>
-      <c r="AA42" s="44"/>
-      <c r="AB42" s="43"/>
-      <c r="AC42" s="43"/>
-      <c r="AD42" s="43"/>
+      <c r="V42" s="43"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="82"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="82"/>
+      <c r="AB42" s="82"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
       <c r="AE42" s="43"/>
-      <c r="AF42" s="44"/>
-      <c r="AG42" s="43"/>
-      <c r="AH42" s="43"/>
+      <c r="AF42" s="43"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="42"/>
       <c r="AI42" s="43"/>
       <c r="AJ42" s="43"/>
-      <c r="AK42" s="44"/>
-      <c r="AL42" s="43"/>
-      <c r="AM42" s="43"/>
+      <c r="AK42" s="43"/>
+      <c r="AL42" s="41"/>
+      <c r="AM42" s="42"/>
       <c r="AN42" s="43"/>
       <c r="AO42" s="43"/>
-      <c r="AP42" s="44"/>
-      <c r="AQ42" s="43"/>
-      <c r="AR42" s="43"/>
+      <c r="AP42" s="43"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="42"/>
       <c r="AS42" s="43"/>
       <c r="AT42" s="43"/>
-      <c r="AU42" s="44"/>
-      <c r="AV42" s="43"/>
-      <c r="AW42" s="43"/>
+      <c r="AU42" s="43"/>
+      <c r="AV42" s="41"/>
+      <c r="AW42" s="42"/>
       <c r="AX42" s="43"/>
       <c r="AY42" s="43"/>
-      <c r="AZ42" s="44"/>
-      <c r="BA42" s="43"/>
-      <c r="BB42" s="43"/>
+      <c r="AZ42" s="43"/>
+      <c r="BA42" s="41"/>
+      <c r="BB42" s="42"/>
       <c r="BC42" s="43"/>
       <c r="BD42" s="43"/>
-      <c r="BE42" s="44"/>
-      <c r="BF42" s="43"/>
-      <c r="BG42" s="43"/>
+      <c r="BE42" s="43"/>
+      <c r="BF42" s="41"/>
+      <c r="BG42" s="42"/>
       <c r="BH42" s="43"/>
       <c r="BI42" s="43"/>
-      <c r="BJ42" s="44"/>
-      <c r="BK42" s="43"/>
-      <c r="BL42" s="43"/>
+      <c r="BJ42" s="43"/>
+      <c r="BK42" s="41"/>
+      <c r="BL42" s="42"/>
       <c r="BM42" s="43"/>
       <c r="BN42" s="43"/>
-      <c r="BO42" s="44"/>
-      <c r="BP42" s="33"/>
+      <c r="BO42" s="43"/>
+      <c r="BP42" s="41"/>
+      <c r="BQ42" s="42"/>
+      <c r="BR42" s="43"/>
+      <c r="BS42" s="43"/>
+      <c r="BT42" s="43"/>
     </row>
-    <row r="43" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A43" s="51"/>
+    <row r="43" spans="1:72" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="33"/>
       <c r="B43" s="34" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="E43" s="36">
-        <v>45033</v>
+        <v>885107</v>
       </c>
       <c r="F43" s="36">
-        <v>45039</v>
+        <v>885108</v>
       </c>
       <c r="G43" s="37">
-        <v>7</v>
-      </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="H43" s="41"/>
+      <c r="I43" s="42"/>
       <c r="J43" s="43"/>
       <c r="K43" s="43"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="43"/>
-      <c r="N43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="42"/>
       <c r="O43" s="43"/>
       <c r="P43" s="43"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="79"/>
-      <c r="S43" s="79"/>
-      <c r="T43" s="79"/>
-      <c r="U43" s="79"/>
-      <c r="V43" s="79"/>
-      <c r="W43" s="43"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="43"/>
-      <c r="Z43" s="43"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="43"/>
-      <c r="AC43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
+      <c r="W43" s="39"/>
+      <c r="X43" s="39"/>
+      <c r="Y43" s="82"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="82"/>
+      <c r="AB43" s="82"/>
+      <c r="AC43" s="82"/>
       <c r="AD43" s="43"/>
-      <c r="AE43" s="43"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="43"/>
-      <c r="AH43" s="43"/>
+      <c r="AE43" s="54"/>
+      <c r="AF43" s="54"/>
+      <c r="AG43" s="41"/>
+      <c r="AH43" s="42"/>
       <c r="AI43" s="43"/>
       <c r="AJ43" s="43"/>
-      <c r="AK43" s="44"/>
-      <c r="AL43" s="43"/>
-      <c r="AM43" s="43"/>
+      <c r="AK43" s="43"/>
+      <c r="AL43" s="41"/>
+      <c r="AM43" s="42"/>
       <c r="AN43" s="43"/>
       <c r="AO43" s="43"/>
-      <c r="AP43" s="44"/>
-      <c r="AQ43" s="43"/>
-      <c r="AR43" s="43"/>
+      <c r="AP43" s="43"/>
+      <c r="AQ43" s="41"/>
+      <c r="AR43" s="42"/>
       <c r="AS43" s="43"/>
       <c r="AT43" s="43"/>
-      <c r="AU43" s="44"/>
-      <c r="AV43" s="43"/>
-      <c r="AW43" s="43"/>
+      <c r="AU43" s="43"/>
+      <c r="AV43" s="41"/>
+      <c r="AW43" s="42"/>
       <c r="AX43" s="43"/>
       <c r="AY43" s="43"/>
-      <c r="AZ43" s="44"/>
-      <c r="BA43" s="43"/>
-      <c r="BB43" s="43"/>
+      <c r="AZ43" s="43"/>
+      <c r="BA43" s="41"/>
+      <c r="BB43" s="42"/>
       <c r="BC43" s="43"/>
       <c r="BD43" s="43"/>
-      <c r="BE43" s="44"/>
-      <c r="BF43" s="43"/>
-      <c r="BG43" s="43"/>
+      <c r="BE43" s="43"/>
+      <c r="BF43" s="41"/>
+      <c r="BG43" s="42"/>
       <c r="BH43" s="43"/>
       <c r="BI43" s="43"/>
-      <c r="BJ43" s="44"/>
-      <c r="BK43" s="43"/>
-      <c r="BL43" s="43"/>
+      <c r="BJ43" s="43"/>
+      <c r="BK43" s="41"/>
+      <c r="BL43" s="42"/>
       <c r="BM43" s="43"/>
       <c r="BN43" s="43"/>
-      <c r="BO43" s="44"/>
-      <c r="BP43" s="33"/>
+      <c r="BO43" s="43"/>
+      <c r="BP43" s="41"/>
+      <c r="BQ43" s="42"/>
+      <c r="BR43" s="43"/>
+      <c r="BS43" s="43"/>
+      <c r="BT43" s="43"/>
     </row>
-    <row r="44" spans="1:68" ht="32.5" customHeight="1" outlineLevel="1">
+    <row r="44" spans="1:72" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A44" s="33"/>
       <c r="B44" s="34" t="s">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="E44" s="36">
-        <v>45034</v>
+        <v>885109</v>
       </c>
       <c r="F44" s="36">
-        <v>45036</v>
+        <v>885110</v>
       </c>
       <c r="G44" s="37">
-        <v>3</v>
-      </c>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
+        <v>2</v>
+      </c>
+      <c r="H44" s="41"/>
+      <c r="I44" s="42"/>
       <c r="J44" s="43"/>
       <c r="K44" s="43"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="42"/>
       <c r="O44" s="43"/>
       <c r="P44" s="43"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="42"/>
       <c r="T44" s="43"/>
       <c r="U44" s="43"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="79"/>
-      <c r="X44" s="79"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="43"/>
-      <c r="AC44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="39"/>
+      <c r="Y44" s="82"/>
+      <c r="Z44" s="82"/>
+      <c r="AA44" s="82"/>
+      <c r="AB44" s="82"/>
+      <c r="AC44" s="82"/>
       <c r="AD44" s="43"/>
       <c r="AE44" s="43"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="43"/>
-      <c r="AH44" s="43"/>
+      <c r="AF44" s="54"/>
+      <c r="AG44" s="54"/>
+      <c r="AH44" s="42"/>
       <c r="AI44" s="43"/>
       <c r="AJ44" s="43"/>
-      <c r="AK44" s="44"/>
-      <c r="AL44" s="43"/>
-      <c r="AM44" s="43"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="41"/>
+      <c r="AM44" s="42"/>
       <c r="AN44" s="43"/>
       <c r="AO44" s="43"/>
-      <c r="AP44" s="44"/>
-      <c r="AQ44" s="43"/>
-      <c r="AR44" s="43"/>
+      <c r="AP44" s="43"/>
+      <c r="AQ44" s="41"/>
+      <c r="AR44" s="42"/>
       <c r="AS44" s="43"/>
       <c r="AT44" s="43"/>
-      <c r="AU44" s="44"/>
-      <c r="AV44" s="43"/>
-      <c r="AW44" s="43"/>
+      <c r="AU44" s="43"/>
+      <c r="AV44" s="41"/>
+      <c r="AW44" s="42"/>
       <c r="AX44" s="43"/>
       <c r="AY44" s="43"/>
-      <c r="AZ44" s="44"/>
-      <c r="BA44" s="43"/>
-      <c r="BB44" s="43"/>
+      <c r="AZ44" s="43"/>
+      <c r="BA44" s="41"/>
+      <c r="BB44" s="42"/>
       <c r="BC44" s="43"/>
       <c r="BD44" s="43"/>
-      <c r="BE44" s="44"/>
-      <c r="BF44" s="43"/>
-      <c r="BG44" s="43"/>
+      <c r="BE44" s="43"/>
+      <c r="BF44" s="41"/>
+      <c r="BG44" s="42"/>
       <c r="BH44" s="43"/>
       <c r="BI44" s="43"/>
-      <c r="BJ44" s="44"/>
-      <c r="BK44" s="43"/>
-      <c r="BL44" s="43"/>
+      <c r="BJ44" s="43"/>
+      <c r="BK44" s="41"/>
+      <c r="BL44" s="42"/>
       <c r="BM44" s="43"/>
       <c r="BN44" s="43"/>
-      <c r="BO44" s="44"/>
-      <c r="BP44" s="33"/>
+      <c r="BO44" s="43"/>
+      <c r="BP44" s="41"/>
+      <c r="BQ44" s="42"/>
+      <c r="BR44" s="43"/>
+      <c r="BS44" s="43"/>
+      <c r="BT44" s="43"/>
     </row>
-    <row r="45" spans="1:68" ht="37" customHeight="1" outlineLevel="1">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" s="36">
-        <v>45046</v>
-      </c>
-      <c r="F45" s="36">
-        <v>45047</v>
-      </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="80"/>
-      <c r="W45" s="43"/>
-      <c r="X45" s="43"/>
-      <c r="Y45" s="43"/>
-      <c r="Z45" s="43"/>
-      <c r="AA45" s="79"/>
-      <c r="AB45" s="79"/>
-      <c r="AC45" s="43"/>
-      <c r="AD45" s="43"/>
-      <c r="AE45" s="43"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="43"/>
-      <c r="AH45" s="43"/>
-      <c r="AI45" s="43"/>
-      <c r="AJ45" s="43"/>
-      <c r="AK45" s="44"/>
-      <c r="AL45" s="43"/>
-      <c r="AM45" s="43"/>
-      <c r="AN45" s="43"/>
-      <c r="AO45" s="43"/>
-      <c r="AP45" s="44"/>
-      <c r="AQ45" s="43"/>
-      <c r="AR45" s="43"/>
-      <c r="AS45" s="43"/>
-      <c r="AT45" s="43"/>
-      <c r="AU45" s="44"/>
-      <c r="AV45" s="43"/>
-      <c r="AW45" s="43"/>
-      <c r="AX45" s="43"/>
-      <c r="AY45" s="43"/>
-      <c r="AZ45" s="44"/>
-      <c r="BA45" s="43"/>
-      <c r="BB45" s="43"/>
-      <c r="BC45" s="43"/>
-      <c r="BD45" s="43"/>
-      <c r="BE45" s="44"/>
-      <c r="BF45" s="43"/>
-      <c r="BG45" s="43"/>
-      <c r="BH45" s="43"/>
-      <c r="BI45" s="43"/>
-      <c r="BJ45" s="44"/>
-      <c r="BK45" s="43"/>
-      <c r="BL45" s="43"/>
-      <c r="BM45" s="43"/>
-      <c r="BN45" s="43"/>
-      <c r="BO45" s="44"/>
-      <c r="BP45" s="33"/>
+    <row r="45" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="18"/>
+      <c r="B45" s="28">
+        <v>6</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="30"/>
+      <c r="R45" s="30"/>
+      <c r="S45" s="30"/>
+      <c r="T45" s="30"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="30"/>
+      <c r="W45" s="30"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="30"/>
+      <c r="Z45" s="30"/>
+      <c r="AA45" s="30"/>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AD45" s="30"/>
+      <c r="AE45" s="30"/>
+      <c r="AF45" s="30"/>
+      <c r="AG45" s="30"/>
+      <c r="AH45" s="30"/>
+      <c r="AI45" s="30"/>
+      <c r="AJ45" s="30"/>
+      <c r="AK45" s="30"/>
+      <c r="AL45" s="30"/>
+      <c r="AM45" s="30"/>
+      <c r="AN45" s="30"/>
+      <c r="AO45" s="30"/>
+      <c r="AP45" s="30"/>
+      <c r="AQ45" s="30"/>
+      <c r="AR45" s="30"/>
+      <c r="AS45" s="30"/>
+      <c r="AT45" s="30"/>
+      <c r="AU45" s="30"/>
+      <c r="AV45" s="30"/>
+      <c r="AW45" s="30"/>
+      <c r="AX45" s="30"/>
+      <c r="AY45" s="30"/>
+      <c r="AZ45" s="30"/>
+      <c r="BA45" s="30"/>
+      <c r="BB45" s="30"/>
+      <c r="BC45" s="30"/>
+      <c r="BD45" s="30"/>
+      <c r="BE45" s="30"/>
+      <c r="BF45" s="30"/>
+      <c r="BG45" s="30"/>
+      <c r="BH45" s="30"/>
+      <c r="BI45" s="30"/>
+      <c r="BJ45" s="30"/>
+      <c r="BK45" s="30"/>
+      <c r="BL45" s="30"/>
+      <c r="BM45" s="30"/>
+      <c r="BN45" s="30"/>
+      <c r="BO45" s="30"/>
+      <c r="BP45" s="30"/>
+      <c r="BQ45" s="30"/>
+      <c r="BR45" s="30"/>
+      <c r="BS45" s="30"/>
+      <c r="BT45" s="30"/>
     </row>
-    <row r="46" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="34" t="s">
-        <v>55</v>
+    <row r="46" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="33"/>
+      <c r="B46" s="34">
+        <v>6.1</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="D46" s="45" t="s">
         <v>24</v>
       </c>
       <c r="E46" s="36">
-        <v>45048</v>
+        <v>45026</v>
       </c>
       <c r="F46" s="36">
-        <v>45049</v>
+        <v>45032</v>
       </c>
       <c r="G46" s="37">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
       <c r="J46" s="43"/>
       <c r="K46" s="43"/>
       <c r="L46" s="44"/>
-      <c r="M46" s="43"/>
-      <c r="N46" s="43"/>
-      <c r="O46" s="43"/>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
       <c r="V46" s="44"/>
       <c r="W46" s="43"/>
       <c r="X46" s="43"/>
@@ -7233,8 +7877,8 @@
       <c r="Z46" s="43"/>
       <c r="AA46" s="44"/>
       <c r="AB46" s="43"/>
-      <c r="AC46" s="79"/>
-      <c r="AD46" s="79"/>
+      <c r="AC46" s="43"/>
+      <c r="AD46" s="43"/>
       <c r="AE46" s="43"/>
       <c r="AF46" s="44"/>
       <c r="AG46" s="43"/>
@@ -7272,417 +7916,447 @@
       <c r="BM46" s="43"/>
       <c r="BN46" s="43"/>
       <c r="BO46" s="44"/>
-      <c r="BP46" s="33"/>
+      <c r="BP46" s="43"/>
+      <c r="BQ46" s="43"/>
+      <c r="BR46" s="43"/>
+      <c r="BS46" s="43"/>
+      <c r="BT46" s="44"/>
     </row>
-    <row r="47" spans="1:68" ht="21" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="28">
+    <row r="47" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="33"/>
+      <c r="B47" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="36">
+        <v>45026</v>
+      </c>
+      <c r="F47" s="36">
+        <v>45032</v>
+      </c>
+      <c r="G47" s="37">
         <v>7</v>
       </c>
-      <c r="C47" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30"/>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30"/>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30"/>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30"/>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="30"/>
-      <c r="AU47" s="30"/>
-      <c r="AV47" s="30"/>
-      <c r="AW47" s="30"/>
-      <c r="AX47" s="30"/>
-      <c r="AY47" s="30"/>
-      <c r="AZ47" s="30"/>
-      <c r="BA47" s="30"/>
-      <c r="BB47" s="30"/>
-      <c r="BC47" s="30"/>
-      <c r="BD47" s="30"/>
-      <c r="BE47" s="30"/>
-      <c r="BF47" s="30"/>
-      <c r="BG47" s="30"/>
-      <c r="BH47" s="30"/>
-      <c r="BI47" s="30"/>
-      <c r="BJ47" s="30"/>
-      <c r="BK47" s="30"/>
-      <c r="BL47" s="30"/>
-      <c r="BM47" s="30"/>
-      <c r="BN47" s="30"/>
-      <c r="BO47" s="30"/>
-      <c r="BP47" s="18"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="44"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="44"/>
+      <c r="W47" s="43"/>
+      <c r="X47" s="43"/>
+      <c r="Y47" s="43"/>
+      <c r="Z47" s="43"/>
+      <c r="AA47" s="44"/>
+      <c r="AB47" s="43"/>
+      <c r="AC47" s="43"/>
+      <c r="AD47" s="43"/>
+      <c r="AE47" s="43"/>
+      <c r="AF47" s="44"/>
+      <c r="AG47" s="43"/>
+      <c r="AH47" s="43"/>
+      <c r="AI47" s="43"/>
+      <c r="AJ47" s="43"/>
+      <c r="AK47" s="44"/>
+      <c r="AL47" s="43"/>
+      <c r="AM47" s="43"/>
+      <c r="AN47" s="43"/>
+      <c r="AO47" s="43"/>
+      <c r="AP47" s="44"/>
+      <c r="AQ47" s="43"/>
+      <c r="AR47" s="43"/>
+      <c r="AS47" s="43"/>
+      <c r="AT47" s="43"/>
+      <c r="AU47" s="44"/>
+      <c r="AV47" s="43"/>
+      <c r="AW47" s="43"/>
+      <c r="AX47" s="43"/>
+      <c r="AY47" s="43"/>
+      <c r="AZ47" s="44"/>
+      <c r="BA47" s="43"/>
+      <c r="BB47" s="43"/>
+      <c r="BC47" s="43"/>
+      <c r="BD47" s="43"/>
+      <c r="BE47" s="44"/>
+      <c r="BF47" s="43"/>
+      <c r="BG47" s="43"/>
+      <c r="BH47" s="43"/>
+      <c r="BI47" s="43"/>
+      <c r="BJ47" s="44"/>
+      <c r="BK47" s="43"/>
+      <c r="BL47" s="43"/>
+      <c r="BM47" s="43"/>
+      <c r="BN47" s="43"/>
+      <c r="BO47" s="44"/>
+      <c r="BP47" s="43"/>
+      <c r="BQ47" s="43"/>
+      <c r="BR47" s="43"/>
+      <c r="BS47" s="43"/>
+      <c r="BT47" s="44"/>
     </row>
-    <row r="48" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="48" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="51"/>
-      <c r="B48" s="34">
-        <v>7.1</v>
-      </c>
-      <c r="C48" s="52" t="s">
-        <v>81</v>
+      <c r="B48" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>54</v>
       </c>
       <c r="D48" s="45" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E48" s="36">
-        <v>45047</v>
+        <v>45033</v>
       </c>
       <c r="F48" s="36">
-        <v>45053</v>
+        <v>45039</v>
       </c>
       <c r="G48" s="37">
         <v>7</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
       <c r="J48" s="43"/>
       <c r="K48" s="43"/>
-      <c r="L48" s="43"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="42"/>
+      <c r="L48" s="44"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
       <c r="O48" s="43"/>
       <c r="P48" s="43"/>
-      <c r="Q48" s="43"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="42"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
-      <c r="W48" s="41"/>
-      <c r="X48" s="42"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
-      <c r="AA48" s="43"/>
-      <c r="AB48" s="81"/>
-      <c r="AC48" s="81"/>
-      <c r="AD48" s="81"/>
-      <c r="AE48" s="81"/>
-      <c r="AF48" s="81"/>
-      <c r="AG48" s="41"/>
-      <c r="AH48" s="42"/>
+      <c r="AA48" s="44"/>
+      <c r="AB48" s="43"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="43"/>
+      <c r="AF48" s="44"/>
+      <c r="AG48" s="43"/>
+      <c r="AH48" s="43"/>
       <c r="AI48" s="43"/>
       <c r="AJ48" s="43"/>
-      <c r="AK48" s="43"/>
-      <c r="AL48" s="41"/>
-      <c r="AM48" s="42"/>
+      <c r="AK48" s="44"/>
+      <c r="AL48" s="43"/>
+      <c r="AM48" s="43"/>
       <c r="AN48" s="43"/>
       <c r="AO48" s="43"/>
-      <c r="AP48" s="43"/>
-      <c r="AQ48" s="41"/>
-      <c r="AR48" s="42"/>
+      <c r="AP48" s="44"/>
+      <c r="AQ48" s="43"/>
+      <c r="AR48" s="43"/>
       <c r="AS48" s="43"/>
       <c r="AT48" s="43"/>
-      <c r="AU48" s="43"/>
-      <c r="AV48" s="41"/>
-      <c r="AW48" s="42"/>
+      <c r="AU48" s="44"/>
+      <c r="AV48" s="43"/>
+      <c r="AW48" s="43"/>
       <c r="AX48" s="43"/>
       <c r="AY48" s="43"/>
-      <c r="AZ48" s="43"/>
-      <c r="BA48" s="41"/>
-      <c r="BB48" s="42"/>
+      <c r="AZ48" s="44"/>
+      <c r="BA48" s="43"/>
+      <c r="BB48" s="43"/>
       <c r="BC48" s="43"/>
       <c r="BD48" s="43"/>
-      <c r="BE48" s="43"/>
-      <c r="BF48" s="41"/>
-      <c r="BG48" s="42"/>
+      <c r="BE48" s="44"/>
+      <c r="BF48" s="43"/>
+      <c r="BG48" s="43"/>
       <c r="BH48" s="43"/>
       <c r="BI48" s="43"/>
-      <c r="BJ48" s="43"/>
-      <c r="BK48" s="41"/>
-      <c r="BL48" s="42"/>
+      <c r="BJ48" s="44"/>
+      <c r="BK48" s="43"/>
+      <c r="BL48" s="43"/>
       <c r="BM48" s="43"/>
       <c r="BN48" s="43"/>
-      <c r="BO48" s="43"/>
-      <c r="BP48" s="33"/>
+      <c r="BO48" s="44"/>
+      <c r="BP48" s="43"/>
+      <c r="BQ48" s="43"/>
+      <c r="BR48" s="43"/>
+      <c r="BS48" s="43"/>
+      <c r="BT48" s="44"/>
     </row>
-    <row r="49" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="34">
-        <v>7.2</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>83</v>
+    <row r="49" spans="1:72" ht="32.450000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="33"/>
+      <c r="B49" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="D49" s="45" t="s">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="E49" s="36">
-        <v>45050</v>
+        <v>45034</v>
       </c>
       <c r="F49" s="36">
-        <v>45053</v>
+        <v>45036</v>
       </c>
       <c r="G49" s="37">
-        <v>7</v>
-      </c>
-      <c r="H49" s="41"/>
-      <c r="I49" s="42"/>
+        <v>3</v>
+      </c>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
       <c r="J49" s="43"/>
       <c r="K49" s="43"/>
-      <c r="L49" s="43"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="42"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
       <c r="O49" s="43"/>
       <c r="P49" s="43"/>
-      <c r="Q49" s="43"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="42"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
       <c r="T49" s="43"/>
       <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
-      <c r="W49" s="41"/>
-      <c r="X49" s="42"/>
+      <c r="V49" s="44"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
-      <c r="AA49" s="43"/>
+      <c r="AA49" s="44"/>
       <c r="AB49" s="43"/>
       <c r="AC49" s="43"/>
       <c r="AD49" s="43"/>
-      <c r="AE49" s="81"/>
-      <c r="AF49" s="81"/>
-      <c r="AG49" s="41"/>
-      <c r="AH49" s="42"/>
+      <c r="AE49" s="43"/>
+      <c r="AF49" s="44"/>
+      <c r="AG49" s="43"/>
+      <c r="AH49" s="43"/>
       <c r="AI49" s="43"/>
       <c r="AJ49" s="43"/>
-      <c r="AK49" s="43"/>
-      <c r="AL49" s="41"/>
-      <c r="AM49" s="42"/>
+      <c r="AK49" s="44"/>
+      <c r="AL49" s="43"/>
+      <c r="AM49" s="43"/>
       <c r="AN49" s="43"/>
       <c r="AO49" s="43"/>
-      <c r="AP49" s="43"/>
-      <c r="AQ49" s="41"/>
-      <c r="AR49" s="42"/>
+      <c r="AP49" s="44"/>
+      <c r="AQ49" s="43"/>
+      <c r="AR49" s="43"/>
       <c r="AS49" s="43"/>
       <c r="AT49" s="43"/>
-      <c r="AU49" s="43"/>
-      <c r="AV49" s="41"/>
-      <c r="AW49" s="42"/>
+      <c r="AU49" s="44"/>
+      <c r="AV49" s="43"/>
+      <c r="AW49" s="43"/>
       <c r="AX49" s="43"/>
       <c r="AY49" s="43"/>
-      <c r="AZ49" s="43"/>
-      <c r="BA49" s="41"/>
-      <c r="BB49" s="42"/>
+      <c r="AZ49" s="44"/>
+      <c r="BA49" s="43"/>
+      <c r="BB49" s="43"/>
       <c r="BC49" s="43"/>
       <c r="BD49" s="43"/>
-      <c r="BE49" s="43"/>
-      <c r="BF49" s="41"/>
-      <c r="BG49" s="42"/>
+      <c r="BE49" s="44"/>
+      <c r="BF49" s="43"/>
+      <c r="BG49" s="43"/>
       <c r="BH49" s="43"/>
       <c r="BI49" s="43"/>
-      <c r="BJ49" s="43"/>
-      <c r="BK49" s="41"/>
-      <c r="BL49" s="42"/>
+      <c r="BJ49" s="44"/>
+      <c r="BK49" s="43"/>
+      <c r="BL49" s="43"/>
       <c r="BM49" s="43"/>
       <c r="BN49" s="43"/>
-      <c r="BO49" s="43"/>
-      <c r="BP49" s="33"/>
+      <c r="BO49" s="44"/>
+      <c r="BP49" s="43"/>
+      <c r="BQ49" s="43"/>
+      <c r="BR49" s="43"/>
+      <c r="BS49" s="43"/>
+      <c r="BT49" s="44"/>
     </row>
-    <row r="50" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A50" s="51"/>
-      <c r="B50" s="34">
-        <v>7.3</v>
-      </c>
-      <c r="C50" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>84</v>
+    <row r="50" spans="1:72" ht="36.950000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="33"/>
+      <c r="B50" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="45" t="s">
+        <v>24</v>
       </c>
       <c r="E50" s="36">
-        <v>45050</v>
+        <v>45046</v>
       </c>
       <c r="F50" s="36">
-        <v>45053</v>
-      </c>
-      <c r="G50" s="37">
-        <v>7</v>
-      </c>
-      <c r="H50" s="41"/>
-      <c r="I50" s="42"/>
+        <v>45047</v>
+      </c>
+      <c r="G50" s="37"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
       <c r="J50" s="43"/>
       <c r="K50" s="43"/>
-      <c r="L50" s="43"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="42"/>
-      <c r="O50" s="43"/>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="43"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="42"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
       <c r="T50" s="43"/>
       <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
-      <c r="W50" s="41"/>
-      <c r="X50" s="42"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="43"/>
+      <c r="X50" s="43"/>
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
-      <c r="AA50" s="43"/>
-      <c r="AB50" s="43"/>
+      <c r="AA50" s="55"/>
+      <c r="AB50" s="55"/>
       <c r="AC50" s="43"/>
       <c r="AD50" s="43"/>
-      <c r="AE50" s="81"/>
-      <c r="AF50" s="81"/>
-      <c r="AG50" s="41"/>
-      <c r="AH50" s="42"/>
+      <c r="AE50" s="43"/>
+      <c r="AF50" s="44"/>
+      <c r="AG50" s="43"/>
+      <c r="AH50" s="43"/>
       <c r="AI50" s="43"/>
       <c r="AJ50" s="43"/>
-      <c r="AK50" s="43"/>
-      <c r="AL50" s="41"/>
-      <c r="AM50" s="42"/>
+      <c r="AK50" s="44"/>
+      <c r="AL50" s="43"/>
+      <c r="AM50" s="43"/>
       <c r="AN50" s="43"/>
       <c r="AO50" s="43"/>
-      <c r="AP50" s="43"/>
-      <c r="AQ50" s="41"/>
-      <c r="AR50" s="42"/>
+      <c r="AP50" s="44"/>
+      <c r="AQ50" s="43"/>
+      <c r="AR50" s="43"/>
       <c r="AS50" s="43"/>
       <c r="AT50" s="43"/>
-      <c r="AU50" s="43"/>
-      <c r="AV50" s="41"/>
-      <c r="AW50" s="42"/>
+      <c r="AU50" s="44"/>
+      <c r="AV50" s="43"/>
+      <c r="AW50" s="43"/>
       <c r="AX50" s="43"/>
       <c r="AY50" s="43"/>
-      <c r="AZ50" s="43"/>
-      <c r="BA50" s="41"/>
-      <c r="BB50" s="42"/>
+      <c r="AZ50" s="44"/>
+      <c r="BA50" s="43"/>
+      <c r="BB50" s="43"/>
       <c r="BC50" s="43"/>
       <c r="BD50" s="43"/>
-      <c r="BE50" s="43"/>
-      <c r="BF50" s="41"/>
-      <c r="BG50" s="42"/>
+      <c r="BE50" s="44"/>
+      <c r="BF50" s="43"/>
+      <c r="BG50" s="43"/>
       <c r="BH50" s="43"/>
       <c r="BI50" s="43"/>
-      <c r="BJ50" s="43"/>
-      <c r="BK50" s="41"/>
-      <c r="BL50" s="42"/>
+      <c r="BJ50" s="44"/>
+      <c r="BK50" s="43"/>
+      <c r="BL50" s="43"/>
       <c r="BM50" s="43"/>
       <c r="BN50" s="43"/>
-      <c r="BO50" s="43"/>
-      <c r="BP50" s="33"/>
+      <c r="BO50" s="44"/>
+      <c r="BP50" s="43"/>
+      <c r="BQ50" s="43"/>
+      <c r="BR50" s="43"/>
+      <c r="BS50" s="43"/>
+      <c r="BT50" s="44"/>
     </row>
-    <row r="51" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A51" s="33"/>
-      <c r="B51" s="34">
-        <v>7.4</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>80</v>
+    <row r="51" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="51"/>
+      <c r="B51" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>114</v>
       </c>
       <c r="D51" s="45" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="36">
-        <v>45053</v>
+        <v>45048</v>
       </c>
       <c r="F51" s="36">
-        <v>45053</v>
+        <v>45049</v>
       </c>
       <c r="G51" s="37">
-        <v>1</v>
-      </c>
-      <c r="H51" s="41"/>
-      <c r="I51" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
       <c r="J51" s="43"/>
       <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="42"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="43"/>
+      <c r="N51" s="43"/>
       <c r="O51" s="43"/>
       <c r="P51" s="43"/>
-      <c r="Q51" s="43"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="42"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
-      <c r="W51" s="41"/>
-      <c r="X51" s="42"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="44"/>
+      <c r="V51" s="44"/>
+      <c r="W51" s="43"/>
+      <c r="X51" s="43"/>
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
-      <c r="AA51" s="43"/>
+      <c r="AA51" s="44"/>
       <c r="AB51" s="43"/>
-      <c r="AC51" s="43"/>
-      <c r="AD51" s="43"/>
+      <c r="AC51" s="55"/>
+      <c r="AD51" s="55"/>
       <c r="AE51" s="43"/>
-      <c r="AF51" s="81"/>
-      <c r="AG51" s="41"/>
-      <c r="AH51" s="42"/>
+      <c r="AF51" s="44"/>
+      <c r="AG51" s="43"/>
+      <c r="AH51" s="43"/>
       <c r="AI51" s="43"/>
       <c r="AJ51" s="43"/>
-      <c r="AK51" s="43"/>
-      <c r="AL51" s="41"/>
-      <c r="AM51" s="42"/>
+      <c r="AK51" s="44"/>
+      <c r="AL51" s="43"/>
+      <c r="AM51" s="43"/>
       <c r="AN51" s="43"/>
       <c r="AO51" s="43"/>
-      <c r="AP51" s="43"/>
-      <c r="AQ51" s="41"/>
-      <c r="AR51" s="42"/>
+      <c r="AP51" s="44"/>
+      <c r="AQ51" s="43"/>
+      <c r="AR51" s="43"/>
       <c r="AS51" s="43"/>
       <c r="AT51" s="43"/>
-      <c r="AU51" s="43"/>
-      <c r="AV51" s="41"/>
-      <c r="AW51" s="42"/>
+      <c r="AU51" s="44"/>
+      <c r="AV51" s="43"/>
+      <c r="AW51" s="43"/>
       <c r="AX51" s="43"/>
       <c r="AY51" s="43"/>
-      <c r="AZ51" s="43"/>
-      <c r="BA51" s="41"/>
-      <c r="BB51" s="42"/>
+      <c r="AZ51" s="44"/>
+      <c r="BA51" s="43"/>
+      <c r="BB51" s="43"/>
       <c r="BC51" s="43"/>
       <c r="BD51" s="43"/>
-      <c r="BE51" s="43"/>
-      <c r="BF51" s="41"/>
-      <c r="BG51" s="42"/>
+      <c r="BE51" s="44"/>
+      <c r="BF51" s="43"/>
+      <c r="BG51" s="43"/>
       <c r="BH51" s="43"/>
       <c r="BI51" s="43"/>
-      <c r="BJ51" s="43"/>
-      <c r="BK51" s="41"/>
-      <c r="BL51" s="42"/>
+      <c r="BJ51" s="44"/>
+      <c r="BK51" s="43"/>
+      <c r="BL51" s="43"/>
       <c r="BM51" s="43"/>
       <c r="BN51" s="43"/>
-      <c r="BO51" s="43"/>
-      <c r="BP51" s="33"/>
+      <c r="BO51" s="44"/>
+      <c r="BP51" s="43"/>
+      <c r="BQ51" s="43"/>
+      <c r="BR51" s="43"/>
+      <c r="BS51" s="43"/>
+      <c r="BT51" s="44"/>
     </row>
-    <row r="52" spans="1:68" ht="21" customHeight="1">
+    <row r="52" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="18"/>
       <c r="B52" s="28">
         <v>7</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D52" s="29"/>
       <c r="E52" s="29"/>
@@ -7748,18 +8422,22 @@
       <c r="BM52" s="30"/>
       <c r="BN52" s="30"/>
       <c r="BO52" s="30"/>
-      <c r="BP52" s="18"/>
+      <c r="BP52" s="30"/>
+      <c r="BQ52" s="30"/>
+      <c r="BR52" s="30"/>
+      <c r="BS52" s="30"/>
+      <c r="BT52" s="30"/>
     </row>
-    <row r="53" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="53" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="51"/>
       <c r="B53" s="34">
         <v>7.1</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D53" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E53" s="36">
         <v>45047</v>
@@ -7790,11 +8468,11 @@
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
       <c r="AA53" s="43"/>
-      <c r="AB53" s="41"/>
-      <c r="AC53" s="42"/>
-      <c r="AD53" s="43"/>
-      <c r="AE53" s="43"/>
-      <c r="AF53" s="43"/>
+      <c r="AB53" s="57"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="57"/>
+      <c r="AE53" s="57"/>
+      <c r="AF53" s="57"/>
       <c r="AG53" s="41"/>
       <c r="AH53" s="42"/>
       <c r="AI53" s="43"/>
@@ -7830,21 +8508,25 @@
       <c r="BM53" s="43"/>
       <c r="BN53" s="43"/>
       <c r="BO53" s="43"/>
-      <c r="BP53" s="33"/>
+      <c r="BP53" s="41"/>
+      <c r="BQ53" s="42"/>
+      <c r="BR53" s="43"/>
+      <c r="BS53" s="43"/>
+      <c r="BT53" s="43"/>
     </row>
-    <row r="54" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="54" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="51"/>
       <c r="B54" s="34">
         <v>7.2</v>
       </c>
       <c r="C54" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D54" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="D54" s="45" t="s">
-        <v>85</v>
-      </c>
       <c r="E54" s="36">
-        <v>45047</v>
+        <v>45050</v>
       </c>
       <c r="F54" s="36">
         <v>45053</v>
@@ -7872,11 +8554,11 @@
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
       <c r="AA54" s="43"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="42"/>
+      <c r="AB54" s="43"/>
+      <c r="AC54" s="43"/>
       <c r="AD54" s="43"/>
-      <c r="AE54" s="43"/>
-      <c r="AF54" s="43"/>
+      <c r="AE54" s="57"/>
+      <c r="AF54" s="57"/>
       <c r="AG54" s="41"/>
       <c r="AH54" s="42"/>
       <c r="AI54" s="43"/>
@@ -7912,21 +8594,25 @@
       <c r="BM54" s="43"/>
       <c r="BN54" s="43"/>
       <c r="BO54" s="43"/>
-      <c r="BP54" s="33"/>
+      <c r="BP54" s="41"/>
+      <c r="BQ54" s="42"/>
+      <c r="BR54" s="43"/>
+      <c r="BS54" s="43"/>
+      <c r="BT54" s="43"/>
     </row>
-    <row r="55" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="55" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="51"/>
       <c r="B55" s="34">
         <v>7.3</v>
       </c>
       <c r="C55" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="D55" s="48" t="s">
-        <v>84</v>
-      </c>
       <c r="E55" s="36">
-        <v>45047</v>
+        <v>45050</v>
       </c>
       <c r="F55" s="36">
         <v>45053</v>
@@ -7954,11 +8640,11 @@
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
       <c r="AA55" s="43"/>
-      <c r="AB55" s="41"/>
-      <c r="AC55" s="42"/>
+      <c r="AB55" s="43"/>
+      <c r="AC55" s="43"/>
       <c r="AD55" s="43"/>
-      <c r="AE55" s="43"/>
-      <c r="AF55" s="43"/>
+      <c r="AE55" s="57"/>
+      <c r="AF55" s="57"/>
       <c r="AG55" s="41"/>
       <c r="AH55" s="42"/>
       <c r="AI55" s="43"/>
@@ -7994,15 +8680,19 @@
       <c r="BM55" s="43"/>
       <c r="BN55" s="43"/>
       <c r="BO55" s="43"/>
-      <c r="BP55" s="33"/>
+      <c r="BP55" s="41"/>
+      <c r="BQ55" s="42"/>
+      <c r="BR55" s="43"/>
+      <c r="BS55" s="43"/>
+      <c r="BT55" s="43"/>
     </row>
-    <row r="56" spans="1:68" ht="17.25" customHeight="1" outlineLevel="1">
+    <row r="56" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="33"/>
       <c r="B56" s="34">
         <v>7.4</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>24</v>
@@ -8036,11 +8726,11 @@
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
       <c r="AA56" s="43"/>
-      <c r="AB56" s="41"/>
-      <c r="AC56" s="42"/>
+      <c r="AB56" s="43"/>
+      <c r="AC56" s="43"/>
       <c r="AD56" s="43"/>
       <c r="AE56" s="43"/>
-      <c r="AF56" s="43"/>
+      <c r="AF56" s="57"/>
       <c r="AG56" s="41"/>
       <c r="AH56" s="42"/>
       <c r="AI56" s="43"/>
@@ -8076,31 +8766,610 @@
       <c r="BM56" s="43"/>
       <c r="BN56" s="43"/>
       <c r="BO56" s="43"/>
-      <c r="BP56" s="33"/>
+      <c r="BP56" s="41"/>
+      <c r="BQ56" s="42"/>
+      <c r="BR56" s="43"/>
+      <c r="BS56" s="43"/>
+      <c r="BT56" s="43"/>
+    </row>
+    <row r="57" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="18"/>
+      <c r="B57" s="28">
+        <v>7</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30"/>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AD57" s="30"/>
+      <c r="AE57" s="30"/>
+      <c r="AF57" s="30"/>
+      <c r="AG57" s="30"/>
+      <c r="AH57" s="30"/>
+      <c r="AI57" s="30"/>
+      <c r="AJ57" s="30"/>
+      <c r="AK57" s="30"/>
+      <c r="AL57" s="30"/>
+      <c r="AM57" s="30"/>
+      <c r="AN57" s="30"/>
+      <c r="AO57" s="30"/>
+      <c r="AP57" s="30"/>
+      <c r="AQ57" s="30"/>
+      <c r="AR57" s="30"/>
+      <c r="AS57" s="30"/>
+      <c r="AT57" s="30"/>
+      <c r="AU57" s="30"/>
+      <c r="AV57" s="30"/>
+      <c r="AW57" s="30"/>
+      <c r="AX57" s="30"/>
+      <c r="AY57" s="30"/>
+      <c r="AZ57" s="30"/>
+      <c r="BA57" s="30"/>
+      <c r="BB57" s="30"/>
+      <c r="BC57" s="30"/>
+      <c r="BD57" s="30"/>
+      <c r="BE57" s="30"/>
+      <c r="BF57" s="30"/>
+      <c r="BG57" s="30"/>
+      <c r="BH57" s="30"/>
+      <c r="BI57" s="30"/>
+      <c r="BJ57" s="30"/>
+      <c r="BK57" s="30"/>
+      <c r="BL57" s="30"/>
+      <c r="BM57" s="30"/>
+      <c r="BN57" s="30"/>
+      <c r="BO57" s="30"/>
+      <c r="BP57" s="30"/>
+      <c r="BQ57" s="30"/>
+      <c r="BR57" s="30"/>
+      <c r="BS57" s="30"/>
+      <c r="BT57" s="30"/>
+    </row>
+    <row r="58" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="51"/>
+      <c r="B58" s="34">
+        <v>7.1</v>
+      </c>
+      <c r="C58" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="36">
+        <v>45054</v>
+      </c>
+      <c r="F58" s="36">
+        <v>45063</v>
+      </c>
+      <c r="G58" s="37">
+        <v>9</v>
+      </c>
+      <c r="H58" s="41"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="43"/>
+      <c r="K58" s="43"/>
+      <c r="L58" s="43"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="43"/>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="43"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
+      <c r="W58" s="41"/>
+      <c r="X58" s="42"/>
+      <c r="Y58" s="43"/>
+      <c r="Z58" s="43"/>
+      <c r="AA58" s="43"/>
+      <c r="AB58" s="41"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="43"/>
+      <c r="AE58" s="43"/>
+      <c r="AF58" s="43"/>
+      <c r="AG58" s="95"/>
+      <c r="AH58" s="96"/>
+      <c r="AI58" s="97"/>
+      <c r="AJ58" s="97"/>
+      <c r="AK58" s="97"/>
+      <c r="AL58" s="95"/>
+      <c r="AM58" s="96"/>
+      <c r="AN58" s="43"/>
+      <c r="AO58" s="43"/>
+      <c r="AP58" s="43"/>
+      <c r="AQ58" s="41"/>
+      <c r="AR58" s="42"/>
+      <c r="AS58" s="43"/>
+      <c r="AT58" s="43"/>
+      <c r="AU58" s="43"/>
+      <c r="AV58" s="41"/>
+      <c r="AW58" s="42"/>
+      <c r="AX58" s="43"/>
+      <c r="AY58" s="43"/>
+      <c r="AZ58" s="43"/>
+      <c r="BA58" s="41"/>
+      <c r="BB58" s="42"/>
+      <c r="BC58" s="43"/>
+      <c r="BD58" s="43"/>
+      <c r="BE58" s="43"/>
+      <c r="BF58" s="41"/>
+      <c r="BG58" s="42"/>
+      <c r="BH58" s="43"/>
+      <c r="BI58" s="43"/>
+      <c r="BJ58" s="43"/>
+      <c r="BK58" s="41"/>
+      <c r="BL58" s="42"/>
+      <c r="BM58" s="43"/>
+      <c r="BN58" s="43"/>
+      <c r="BO58" s="43"/>
+      <c r="BP58" s="41"/>
+      <c r="BQ58" s="42"/>
+      <c r="BR58" s="43"/>
+      <c r="BS58" s="43"/>
+      <c r="BT58" s="43"/>
+    </row>
+    <row r="59" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="51"/>
+      <c r="B59" s="34">
+        <v>7.2</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="36">
+        <v>45064</v>
+      </c>
+      <c r="F59" s="36">
+        <v>45073</v>
+      </c>
+      <c r="G59" s="37">
+        <v>9</v>
+      </c>
+      <c r="H59" s="41"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="43"/>
+      <c r="K59" s="43"/>
+      <c r="L59" s="43"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="43"/>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="43"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
+      <c r="W59" s="41"/>
+      <c r="X59" s="42"/>
+      <c r="Y59" s="43"/>
+      <c r="Z59" s="43"/>
+      <c r="AA59" s="43"/>
+      <c r="AB59" s="41"/>
+      <c r="AC59" s="42"/>
+      <c r="AD59" s="43"/>
+      <c r="AE59" s="43"/>
+      <c r="AF59" s="43"/>
+      <c r="AG59" s="41"/>
+      <c r="AH59" s="42"/>
+      <c r="AI59" s="43"/>
+      <c r="AJ59" s="43"/>
+      <c r="AK59" s="43"/>
+      <c r="AL59" s="41"/>
+      <c r="AM59" s="42"/>
+      <c r="AN59" s="97"/>
+      <c r="AO59" s="97"/>
+      <c r="AP59" s="97"/>
+      <c r="AQ59" s="95"/>
+      <c r="AR59" s="96"/>
+      <c r="AS59" s="97"/>
+      <c r="AT59" s="97"/>
+      <c r="AU59" s="43"/>
+      <c r="AV59" s="41"/>
+      <c r="AW59" s="42"/>
+      <c r="AX59" s="43"/>
+      <c r="AY59" s="43"/>
+      <c r="AZ59" s="43"/>
+      <c r="BA59" s="41"/>
+      <c r="BB59" s="42"/>
+      <c r="BC59" s="43"/>
+      <c r="BD59" s="43"/>
+      <c r="BE59" s="43"/>
+      <c r="BF59" s="41"/>
+      <c r="BG59" s="42"/>
+      <c r="BH59" s="43"/>
+      <c r="BI59" s="43"/>
+      <c r="BJ59" s="43"/>
+      <c r="BK59" s="41"/>
+      <c r="BL59" s="42"/>
+      <c r="BM59" s="43"/>
+      <c r="BN59" s="43"/>
+      <c r="BO59" s="43"/>
+      <c r="BP59" s="41"/>
+      <c r="BQ59" s="42"/>
+      <c r="BR59" s="43"/>
+      <c r="BS59" s="43"/>
+      <c r="BT59" s="43"/>
+    </row>
+    <row r="60" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="51"/>
+      <c r="B60" s="34">
+        <v>7.3</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E60" s="36">
+        <v>885131</v>
+      </c>
+      <c r="F60" s="36">
+        <v>885140</v>
+      </c>
+      <c r="G60" s="37">
+        <v>9</v>
+      </c>
+      <c r="H60" s="41"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="43"/>
+      <c r="K60" s="43"/>
+      <c r="L60" s="43"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="43"/>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="43"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
+      <c r="W60" s="41"/>
+      <c r="X60" s="42"/>
+      <c r="Y60" s="43"/>
+      <c r="Z60" s="43"/>
+      <c r="AA60" s="43"/>
+      <c r="AB60" s="41"/>
+      <c r="AC60" s="42"/>
+      <c r="AD60" s="43"/>
+      <c r="AE60" s="43"/>
+      <c r="AF60" s="43"/>
+      <c r="AG60" s="41"/>
+      <c r="AH60" s="42"/>
+      <c r="AI60" s="43"/>
+      <c r="AJ60" s="43"/>
+      <c r="AK60" s="43"/>
+      <c r="AL60" s="41"/>
+      <c r="AM60" s="42"/>
+      <c r="AN60" s="43"/>
+      <c r="AO60" s="43"/>
+      <c r="AP60" s="43"/>
+      <c r="AQ60" s="41"/>
+      <c r="AR60" s="42"/>
+      <c r="AS60" s="43"/>
+      <c r="AT60" s="43"/>
+      <c r="AU60" s="97"/>
+      <c r="AV60" s="95"/>
+      <c r="AW60" s="96"/>
+      <c r="AX60" s="97"/>
+      <c r="AY60" s="97"/>
+      <c r="AZ60" s="97"/>
+      <c r="BA60" s="95"/>
+      <c r="BB60" s="42"/>
+      <c r="BC60" s="43"/>
+      <c r="BD60" s="43"/>
+      <c r="BE60" s="43"/>
+      <c r="BF60" s="41"/>
+      <c r="BG60" s="42"/>
+      <c r="BH60" s="43"/>
+      <c r="BI60" s="43"/>
+      <c r="BJ60" s="43"/>
+      <c r="BK60" s="41"/>
+      <c r="BL60" s="42"/>
+      <c r="BM60" s="43"/>
+      <c r="BN60" s="43"/>
+      <c r="BO60" s="43"/>
+      <c r="BP60" s="41"/>
+      <c r="BQ60" s="42"/>
+      <c r="BR60" s="43"/>
+      <c r="BS60" s="43"/>
+      <c r="BT60" s="43"/>
+    </row>
+    <row r="61" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="51"/>
+      <c r="B61" s="34">
+        <v>7.4</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E61" s="36">
+        <v>45084</v>
+      </c>
+      <c r="F61" s="36">
+        <v>45093</v>
+      </c>
+      <c r="G61" s="37">
+        <v>9</v>
+      </c>
+      <c r="H61" s="41"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="43"/>
+      <c r="K61" s="43"/>
+      <c r="L61" s="43"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="43"/>
+      <c r="P61" s="43"/>
+      <c r="Q61" s="43"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
+      <c r="W61" s="41"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="43"/>
+      <c r="Z61" s="43"/>
+      <c r="AA61" s="43"/>
+      <c r="AB61" s="41"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="43"/>
+      <c r="AE61" s="43"/>
+      <c r="AF61" s="43"/>
+      <c r="AG61" s="41"/>
+      <c r="AH61" s="42"/>
+      <c r="AI61" s="43"/>
+      <c r="AJ61" s="43"/>
+      <c r="AK61" s="43"/>
+      <c r="AL61" s="41"/>
+      <c r="AM61" s="42"/>
+      <c r="AN61" s="43"/>
+      <c r="AO61" s="43"/>
+      <c r="AP61" s="43"/>
+      <c r="AQ61" s="41"/>
+      <c r="AR61" s="42"/>
+      <c r="AS61" s="43"/>
+      <c r="AT61" s="43"/>
+      <c r="AU61" s="43"/>
+      <c r="AV61" s="41"/>
+      <c r="AW61" s="42"/>
+      <c r="AX61" s="43"/>
+      <c r="AY61" s="43"/>
+      <c r="AZ61" s="43"/>
+      <c r="BA61" s="41"/>
+      <c r="BB61" s="96"/>
+      <c r="BC61" s="97"/>
+      <c r="BD61" s="97"/>
+      <c r="BE61" s="97"/>
+      <c r="BF61" s="95"/>
+      <c r="BG61" s="96"/>
+      <c r="BH61" s="97"/>
+      <c r="BI61" s="43"/>
+      <c r="BJ61" s="43"/>
+      <c r="BK61" s="41"/>
+      <c r="BL61" s="42"/>
+      <c r="BM61" s="43"/>
+      <c r="BN61" s="43"/>
+      <c r="BO61" s="43"/>
+      <c r="BP61" s="41"/>
+      <c r="BQ61" s="42"/>
+      <c r="BR61" s="43"/>
+      <c r="BS61" s="43"/>
+      <c r="BT61" s="43"/>
+    </row>
+    <row r="62" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="33"/>
+      <c r="B62" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="36">
+        <v>45094</v>
+      </c>
+      <c r="F62" s="36">
+        <v>45100</v>
+      </c>
+      <c r="G62" s="37">
+        <v>6</v>
+      </c>
+      <c r="H62" s="41"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="43"/>
+      <c r="K62" s="43"/>
+      <c r="L62" s="43"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="43"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="43"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
+      <c r="W62" s="41"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="43"/>
+      <c r="Z62" s="43"/>
+      <c r="AA62" s="43"/>
+      <c r="AB62" s="41"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="43"/>
+      <c r="AE62" s="43"/>
+      <c r="AF62" s="43"/>
+      <c r="AG62" s="41"/>
+      <c r="AH62" s="42"/>
+      <c r="AI62" s="43"/>
+      <c r="AJ62" s="43"/>
+      <c r="AK62" s="43"/>
+      <c r="AL62" s="41"/>
+      <c r="AM62" s="42"/>
+      <c r="AN62" s="43"/>
+      <c r="AO62" s="43"/>
+      <c r="AP62" s="43"/>
+      <c r="AQ62" s="41"/>
+      <c r="AR62" s="42"/>
+      <c r="AS62" s="43"/>
+      <c r="AT62" s="43"/>
+      <c r="AU62" s="43"/>
+      <c r="AV62" s="41"/>
+      <c r="AW62" s="42"/>
+      <c r="AX62" s="43"/>
+      <c r="AY62" s="43"/>
+      <c r="AZ62" s="43"/>
+      <c r="BA62" s="41"/>
+      <c r="BB62" s="42"/>
+      <c r="BC62" s="43"/>
+      <c r="BD62" s="43"/>
+      <c r="BE62" s="43"/>
+      <c r="BF62" s="41"/>
+      <c r="BG62" s="42"/>
+      <c r="BH62" s="43"/>
+      <c r="BI62" s="97"/>
+      <c r="BJ62" s="97"/>
+      <c r="BK62" s="95"/>
+      <c r="BL62" s="96"/>
+      <c r="BM62" s="97"/>
+      <c r="BN62" s="97"/>
+      <c r="BO62" s="43"/>
+      <c r="BP62" s="41"/>
+      <c r="BQ62" s="42"/>
+      <c r="BR62" s="43"/>
+      <c r="BS62" s="43"/>
+      <c r="BT62" s="43"/>
+    </row>
+    <row r="63" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="33"/>
+      <c r="B63" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="36">
+        <v>45101</v>
+      </c>
+      <c r="F63" s="36">
+        <v>45102</v>
+      </c>
+      <c r="G63" s="37">
+        <v>2</v>
+      </c>
+      <c r="H63" s="41"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="43"/>
+      <c r="K63" s="43"/>
+      <c r="L63" s="43"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="43"/>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="43"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
+      <c r="W63" s="41"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="43"/>
+      <c r="Z63" s="43"/>
+      <c r="AA63" s="43"/>
+      <c r="AB63" s="41"/>
+      <c r="AC63" s="42"/>
+      <c r="AD63" s="43"/>
+      <c r="AE63" s="43"/>
+      <c r="AF63" s="43"/>
+      <c r="AG63" s="41"/>
+      <c r="AH63" s="42"/>
+      <c r="AI63" s="43"/>
+      <c r="AJ63" s="43"/>
+      <c r="AK63" s="43"/>
+      <c r="AL63" s="41"/>
+      <c r="AM63" s="42"/>
+      <c r="AN63" s="43"/>
+      <c r="AO63" s="43"/>
+      <c r="AP63" s="43"/>
+      <c r="AQ63" s="41"/>
+      <c r="AR63" s="42"/>
+      <c r="AS63" s="43"/>
+      <c r="AT63" s="43"/>
+      <c r="AU63" s="43"/>
+      <c r="AV63" s="41"/>
+      <c r="AW63" s="42"/>
+      <c r="AX63" s="43"/>
+      <c r="AY63" s="43"/>
+      <c r="AZ63" s="43"/>
+      <c r="BA63" s="41"/>
+      <c r="BB63" s="42"/>
+      <c r="BC63" s="43"/>
+      <c r="BD63" s="43"/>
+      <c r="BE63" s="43"/>
+      <c r="BF63" s="41"/>
+      <c r="BG63" s="42"/>
+      <c r="BH63" s="43"/>
+      <c r="BI63" s="43"/>
+      <c r="BJ63" s="43"/>
+      <c r="BK63" s="41"/>
+      <c r="BL63" s="42"/>
+      <c r="BM63" s="43"/>
+      <c r="BN63" s="43"/>
+      <c r="BO63" s="97"/>
+      <c r="BP63" s="95"/>
+      <c r="BQ63" s="42"/>
+      <c r="BR63" s="43"/>
+      <c r="BS63" s="43"/>
+      <c r="BT63" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H8:V8"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:AA4"/>
-    <mergeCell ref="N2:AF2"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B5:C5"/>
+  <mergeCells count="35">
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="BP9:BT9"/>
     <mergeCell ref="BF9:BJ9"/>
     <mergeCell ref="BK9:BO9"/>
     <mergeCell ref="BA9:BE9"/>
@@ -8113,6 +9382,27 @@
     <mergeCell ref="AQ9:AU9"/>
     <mergeCell ref="AV9:AZ9"/>
     <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:AA4"/>
+    <mergeCell ref="N2:AF2"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H8:V8"/>
+    <mergeCell ref="H2:M2"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일정/갠트 차트.xlsx
+++ b/일정/갠트 차트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\바탕 화면\YJSANGSACAPSTONE\Sources_MY\Sources\일정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee\Desktop\캡스톤\Sources\일정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E28A98-CEFA-4171-9327-710039DB92B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F46A8C91-C616-49A8-95AE-8AB4AA9E69EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="갠트 차트 템플릿" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="156">
   <si>
     <t>갠트 차트 템플릿</t>
   </si>
@@ -1090,58 +1090,6 @@
         <charset val="129"/>
       </rPr>
       <t>만들기</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>모듈</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
-      <t>완성</t>
     </r>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -2026,8 +1974,219 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>B)</t>
+    <t>4.1.16</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1.4</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.5</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>스토리보드 description 작성</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="바탕"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>멘토링 요구사항정의서 보충,ER수정</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB)ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>DIAGRAM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.6</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,상희</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.7</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F&amp;B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리액트 스프링 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AXIOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>plan)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F&amp;B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리액트 스프링 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AXIOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>challenge)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.8</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.9</t>
+  </si>
+  <si>
+    <t>5.1.10</t>
+  </si>
+  <si>
+    <r>
+      <t>F)</t>
     </r>
     <r>
       <rPr>
@@ -2037,7 +2196,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>제페토</t>
+      <t>웹</t>
     </r>
     <r>
       <rPr>
@@ -2056,7 +2215,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>검증</t>
+      <t>퍼블리싱</t>
     </r>
     <r>
       <rPr>
@@ -2065,7 +2224,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> plan</t>
     </r>
     <r>
       <rPr>
@@ -2075,7 +2234,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>모듈</t>
+      <t>파트</t>
     </r>
     <r>
       <rPr>
@@ -2083,25 +2242,109 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>(ChallengeVerify)</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.1.16</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.1.4</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.5</t>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F&amp;B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">리액트 스프링 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">AXIOS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통신
+(board</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+        <family val="3"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,태권</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
     <r>
       <t>F)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>퍼블리싱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -2109,59 +2352,36 @@
         <color rgb="FF434343"/>
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
-      </rPr>
-      <t>스토리보드 description 작성</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
+        <charset val="129"/>
+      </rPr>
+      <t>게시판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파트</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="바탕"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>멘토링 요구사항정의서 보충,ER수정</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB)ER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>-</t>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>view)</t>
     </r>
     <r>
       <rPr>
@@ -2169,34 +2389,12 @@
         <color rgb="FF434343"/>
         <rFont val="Roboto"/>
       </rPr>
-      <t>DIAGRAM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수정</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>유현</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.6</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>유현,상희</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.7</t>
+      <t>&amp;MYPAGE</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현,황주</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
@@ -2230,7 +2428,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>통신(</t>
+      <t>통신
+(MYPAGE</t>
     </r>
     <r>
       <rPr>
@@ -2239,324 +2438,11 @@
         <rFont val="Roboto"/>
         <family val="3"/>
       </rPr>
-      <t>plan)</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F&amp;B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">리액트 스프링 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AXIOS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통신
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="3"/>
-      </rPr>
-      <t>challenge)</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.8</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1.9</t>
-  </si>
-  <si>
-    <t>5.1.10</t>
-  </si>
-  <si>
-    <r>
-      <t>F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼블리싱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> plan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view)</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F&amp;B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">리액트 스프링 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AXIOS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통신
-(board</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="3"/>
-      </rPr>
       <t>)</t>
     </r>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>유현,태권</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>퍼블리싱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>게시판</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파트</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>view)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>&amp;MYPAGE</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>유현,황주</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>F&amp;B)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">리액트 스프링 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">AXIOS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>통신
-(MYPAGE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF434343"/>
-        <rFont val="Roboto"/>
-        <family val="3"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
     <t>앱 개발</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
@@ -2594,10 +2480,6 @@
   </si>
   <si>
     <t>황주, 민화, 신성</t>
-    <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>최종 테스트</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
@@ -2627,6 +2509,271 @@
       </rPr>
       <t>(06.26)</t>
     </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>디버깅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>밑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>스마트 리마인더 모듈</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>황주</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챌린지 인증</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(ChallengeVerify)</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최종</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표 준비</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표 PPT 제작</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>민화,상희</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표 UCC 제작(앱 소개)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>민화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상희</t>
+    </r>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표 자료 제작(Front)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>민화,유현</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표 자료 제작(Back)</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>태권,황주</t>
+    <phoneticPr fontId="29" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종 발표 리허설</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
 </sst>
@@ -2638,7 +2785,7 @@
     <numFmt numFmtId="176" formatCode="yy&quot;년 &quot;m&quot;월 &quot;d&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="51" x14ac:knownFonts="1">
+  <fonts count="51">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2942,7 +3089,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3066,6 +3213,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3290,7 +3443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3457,51 +3610,46 @@
     <xf numFmtId="9" fontId="28" fillId="20" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="28" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3515,38 +3663,43 @@
     <xf numFmtId="0" fontId="21" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="28" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="28" fillId="21" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3891,25 +4044,25 @@
     <tabColor rgb="FF3D85C6"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CH63"/>
+  <dimension ref="A1:CH71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S58" sqref="S58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="67" width="3.42578125" customWidth="1"/>
-    <col min="68" max="72" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="67" width="3.453125" customWidth="1"/>
+    <col min="68" max="72" width="3.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" ht="21" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3983,45 +4136,45 @@
       <c r="BS1" s="1"/>
       <c r="BT1" s="1"/>
     </row>
-    <row r="2" spans="1:86" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" ht="38">
       <c r="A2" s="1"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="63" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="70" t="s">
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="88"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
       <c r="AG2" s="10"/>
       <c r="AH2" s="10"/>
       <c r="AI2" s="10"/>
@@ -4063,7 +4216,7 @@
       <c r="BS2" s="1"/>
       <c r="BT2" s="1"/>
     </row>
-    <row r="3" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" ht="21" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -4137,42 +4290,42 @@
       <c r="BS3" s="1"/>
       <c r="BT3" s="1"/>
     </row>
-    <row r="4" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:86" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="72" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="66" t="s">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="69" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="85"/>
+      <c r="T4" s="85"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="Y4" s="85"/>
+      <c r="Z4" s="85"/>
+      <c r="AA4" s="85"/>
       <c r="AB4" s="15"/>
       <c r="AC4" s="9"/>
       <c r="AD4" s="9"/>
@@ -4219,41 +4372,41 @@
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
     </row>
-    <row r="5" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:86" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="74" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="66" t="s">
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="68">
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="89">
         <v>45043</v>
       </c>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
       <c r="AA5" s="16"/>
       <c r="AB5" s="15"/>
       <c r="AC5" s="1"/>
@@ -4301,7 +4454,7 @@
       <c r="BS5" s="1"/>
       <c r="BT5" s="1"/>
     </row>
-    <row r="6" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" ht="21" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -4375,7 +4528,7 @@
       <c r="BS6" s="18"/>
       <c r="BT6" s="18"/>
     </row>
-    <row r="7" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" ht="21" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -4448,232 +4601,217 @@
       <c r="BR7" s="18"/>
       <c r="BS7" s="18"/>
       <c r="BT7" s="18"/>
-      <c r="BU7" s="89"/>
-      <c r="BV7" s="89"/>
-      <c r="BW7" s="89"/>
     </row>
-    <row r="8" spans="1:86" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:86" ht="17.25" customHeight="1">
       <c r="A8" s="21"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="61" t="s">
+      <c r="H8" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="80" t="s">
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="75"/>
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="75"/>
+      <c r="W8" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="62"/>
-      <c r="AE8" s="62"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="62"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="79" t="s">
+      <c r="X8" s="75"/>
+      <c r="Y8" s="75"/>
+      <c r="Z8" s="75"/>
+      <c r="AA8" s="75"/>
+      <c r="AB8" s="75"/>
+      <c r="AC8" s="75"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="75"/>
+      <c r="AJ8" s="75"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="AM8" s="62"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="62"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="62"/>
-      <c r="AV8" s="62"/>
-      <c r="AW8" s="62"/>
-      <c r="AX8" s="62"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="62"/>
-      <c r="BA8" s="76" t="s">
+      <c r="AM8" s="75"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="75"/>
+      <c r="AP8" s="75"/>
+      <c r="AQ8" s="75"/>
+      <c r="AR8" s="75"/>
+      <c r="AS8" s="75"/>
+      <c r="AT8" s="75"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="BB8" s="62"/>
-      <c r="BC8" s="62"/>
-      <c r="BD8" s="62"/>
-      <c r="BE8" s="62"/>
-      <c r="BF8" s="62"/>
-      <c r="BG8" s="62"/>
-      <c r="BH8" s="62"/>
-      <c r="BI8" s="62"/>
-      <c r="BJ8" s="62"/>
-      <c r="BK8" s="62"/>
-      <c r="BL8" s="62"/>
-      <c r="BM8" s="62"/>
-      <c r="BN8" s="62"/>
-      <c r="BO8" s="77"/>
-      <c r="BP8" s="87" t="s">
-        <v>141</v>
-      </c>
-      <c r="BQ8" s="88"/>
-      <c r="BR8" s="88"/>
-      <c r="BS8" s="88"/>
-      <c r="BT8" s="88"/>
-      <c r="BU8" s="90"/>
-      <c r="BV8" s="91"/>
-      <c r="BW8" s="91"/>
-      <c r="BX8" s="83"/>
-      <c r="BY8" s="83"/>
-      <c r="BZ8" s="83"/>
-      <c r="CA8" s="83"/>
-      <c r="CB8" s="83"/>
-      <c r="CC8" s="83"/>
-      <c r="CD8" s="83"/>
-      <c r="CE8" s="83"/>
-      <c r="CF8" s="83"/>
-      <c r="CG8" s="83"/>
-      <c r="CH8" s="84"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="75"/>
+      <c r="BG8" s="75"/>
+      <c r="BH8" s="75"/>
+      <c r="BI8" s="75"/>
+      <c r="BJ8" s="75"/>
+      <c r="BK8" s="75"/>
+      <c r="BL8" s="75"/>
+      <c r="BM8" s="75"/>
+      <c r="BN8" s="75"/>
+      <c r="BO8" s="76"/>
+      <c r="BP8" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="BQ8" s="69"/>
+      <c r="BR8" s="69"/>
+      <c r="BS8" s="69"/>
+      <c r="BT8" s="69"/>
+      <c r="BU8" s="62"/>
+      <c r="CH8" s="60"/>
     </row>
-    <row r="9" spans="1:86" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:86" ht="17.25" customHeight="1">
       <c r="A9" s="22"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="58" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="92" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="92" t="s">
         <v>85</v>
       </c>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="58" t="s">
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="N9" s="59"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="59"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="58" t="s">
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="S9" s="59"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="59"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="78" t="s">
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
-      <c r="Z9" s="59"/>
-      <c r="AA9" s="60"/>
-      <c r="AB9" s="78" t="s">
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="AC9" s="59"/>
-      <c r="AD9" s="59"/>
-      <c r="AE9" s="59"/>
-      <c r="AF9" s="60"/>
-      <c r="AG9" s="78" t="s">
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="AH9" s="59"/>
-      <c r="AI9" s="59"/>
-      <c r="AJ9" s="59"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="81" t="s">
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="AM9" s="59"/>
-      <c r="AN9" s="59"/>
-      <c r="AO9" s="59"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="81" t="s">
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="AR9" s="59"/>
-      <c r="AS9" s="59"/>
-      <c r="AT9" s="59"/>
-      <c r="AU9" s="60"/>
-      <c r="AV9" s="81" t="s">
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="73"/>
+      <c r="BA9" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="AW9" s="59"/>
-      <c r="AX9" s="59"/>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="75" t="s">
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="73"/>
+      <c r="BF9" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="BB9" s="59"/>
-      <c r="BC9" s="59"/>
-      <c r="BD9" s="59"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="75" t="s">
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="73"/>
+      <c r="BK9" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="BG9" s="59"/>
-      <c r="BH9" s="59"/>
-      <c r="BI9" s="59"/>
-      <c r="BJ9" s="60"/>
-      <c r="BK9" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="BL9" s="59"/>
-      <c r="BM9" s="59"/>
-      <c r="BN9" s="59"/>
-      <c r="BO9" s="60"/>
-      <c r="BP9" s="75" t="s">
-        <v>142</v>
-      </c>
-      <c r="BQ9" s="86"/>
-      <c r="BR9" s="86"/>
-      <c r="BS9" s="86"/>
-      <c r="BT9" s="86"/>
-      <c r="BU9" s="92"/>
-      <c r="BV9" s="93"/>
-      <c r="BW9" s="93"/>
-      <c r="BX9" s="85"/>
+      <c r="BL9" s="72"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="73"/>
+      <c r="BP9" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ9" s="71"/>
+      <c r="BR9" s="71"/>
+      <c r="BS9" s="71"/>
+      <c r="BT9" s="71"/>
+      <c r="BU9" s="63"/>
+      <c r="BV9" s="58"/>
+      <c r="BW9" s="58"/>
+      <c r="BX9" s="59"/>
     </row>
-    <row r="10" spans="1:86" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" ht="17.25" customHeight="1">
       <c r="A10" s="23"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="24" t="s">
         <v>17</v>
       </c>
@@ -4869,17 +5007,15 @@
       <c r="BT10" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="BU10" s="94"/>
-      <c r="BV10" s="89"/>
-      <c r="BW10" s="89"/>
+      <c r="BU10" s="64"/>
     </row>
-    <row r="11" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" ht="21" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="28">
         <v>1</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
@@ -4950,17 +5086,14 @@
       <c r="BR11" s="30"/>
       <c r="BS11" s="30"/>
       <c r="BT11" s="30"/>
-      <c r="BU11" s="89"/>
-      <c r="BV11" s="89"/>
-      <c r="BW11" s="89"/>
     </row>
-    <row r="12" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" ht="21" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="28">
         <v>2</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
@@ -5032,13 +5165,13 @@
       <c r="BS12" s="30"/>
       <c r="BT12" s="30"/>
     </row>
-    <row r="13" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" ht="21" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="28">
         <v>3</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
@@ -5110,7 +5243,7 @@
       <c r="BS13" s="30"/>
       <c r="BT13" s="30"/>
     </row>
-    <row r="14" spans="1:86" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" ht="21" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="28">
         <v>4</v>
@@ -5188,7 +5321,7 @@
       <c r="BS14" s="30"/>
       <c r="BT14" s="30"/>
     </row>
-    <row r="15" spans="1:86" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:86" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A15" s="33"/>
       <c r="B15" s="34">
         <v>4.0999999999999996</v>
@@ -5273,7 +5406,7 @@
       <c r="BS15" s="39"/>
       <c r="BT15" s="40"/>
     </row>
-    <row r="16" spans="1:86" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A16" s="33"/>
       <c r="B16" s="34" t="s">
         <v>27</v>
@@ -5359,13 +5492,13 @@
       <c r="BS16" s="43"/>
       <c r="BT16" s="44"/>
     </row>
-    <row r="17" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A17" s="33"/>
       <c r="B17" s="34" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D17" s="47" t="s">
         <v>44</v>
@@ -5445,13 +5578,13 @@
       <c r="BS17" s="43"/>
       <c r="BT17" s="44"/>
     </row>
-    <row r="18" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A18" s="33"/>
       <c r="B18" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>40</v>
@@ -5531,13 +5664,13 @@
       <c r="BS18" s="43"/>
       <c r="BT18" s="44"/>
     </row>
-    <row r="19" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A19" s="33"/>
       <c r="B19" s="34" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>41</v>
@@ -5617,13 +5750,13 @@
       <c r="BS19" s="43"/>
       <c r="BT19" s="44"/>
     </row>
-    <row r="20" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A20" s="33"/>
       <c r="B20" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="48" t="s">
         <v>45</v>
@@ -5703,13 +5836,13 @@
       <c r="BS20" s="43"/>
       <c r="BT20" s="44"/>
     </row>
-    <row r="21" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A21" s="33"/>
       <c r="B21" s="34" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>42</v>
@@ -5789,13 +5922,13 @@
       <c r="BS21" s="43"/>
       <c r="BT21" s="44"/>
     </row>
-    <row r="22" spans="1:72" ht="15.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:72" ht="15.65" customHeight="1" outlineLevel="1">
       <c r="A22" s="33"/>
       <c r="B22" s="34" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D22" s="45" t="s">
         <v>69</v>
@@ -5875,7 +6008,7 @@
       <c r="BS22" s="43"/>
       <c r="BT22" s="44"/>
     </row>
-    <row r="23" spans="1:72" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:72" ht="18" customHeight="1" outlineLevel="1">
       <c r="A23" s="33"/>
       <c r="B23" s="34" t="s">
         <v>61</v>
@@ -5961,13 +6094,13 @@
       <c r="BS23" s="43"/>
       <c r="BT23" s="44"/>
     </row>
-    <row r="24" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A24" s="33"/>
       <c r="B24" s="34" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D24" s="47" t="s">
         <v>45</v>
@@ -6047,7 +6180,7 @@
       <c r="BS24" s="43"/>
       <c r="BT24" s="44"/>
     </row>
-    <row r="25" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A25" s="33"/>
       <c r="B25" s="34" t="s">
         <v>63</v>
@@ -6133,7 +6266,7 @@
       <c r="BS25" s="43"/>
       <c r="BT25" s="44"/>
     </row>
-    <row r="26" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A26" s="33"/>
       <c r="B26" s="34" t="s">
         <v>64</v>
@@ -6219,7 +6352,7 @@
       <c r="BS26" s="43"/>
       <c r="BT26" s="43"/>
     </row>
-    <row r="27" spans="1:72" ht="18.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:72" ht="19" customHeight="1" outlineLevel="1">
       <c r="A27" s="33"/>
       <c r="B27" s="34" t="s">
         <v>64</v>
@@ -6304,13 +6437,13 @@
       <c r="BS27" s="43"/>
       <c r="BT27" s="43"/>
     </row>
-    <row r="28" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A28" s="33"/>
       <c r="B28" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="D28" s="47" t="s">
         <v>69</v>
@@ -6390,13 +6523,13 @@
       <c r="BS28" s="43"/>
       <c r="BT28" s="43"/>
     </row>
-    <row r="29" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:72" ht="16" customHeight="1" outlineLevel="1">
       <c r="A29" s="33"/>
       <c r="B29" s="34" t="s">
         <v>66</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="D29" s="47" t="s">
         <v>44</v>
@@ -6405,10 +6538,10 @@
         <v>45044</v>
       </c>
       <c r="F29" s="36">
-        <v>45048</v>
+        <v>45052</v>
       </c>
       <c r="G29" s="37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H29" s="41"/>
       <c r="I29" s="42"/>
@@ -6432,9 +6565,9 @@
       <c r="AA29" s="53"/>
       <c r="AB29" s="53"/>
       <c r="AC29" s="53"/>
-      <c r="AD29" s="43"/>
-      <c r="AE29" s="43"/>
-      <c r="AF29" s="43"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="53"/>
+      <c r="AF29" s="53"/>
       <c r="AG29" s="43"/>
       <c r="AH29" s="43"/>
       <c r="AI29" s="43"/>
@@ -6476,7 +6609,7 @@
       <c r="BS29" s="43"/>
       <c r="BT29" s="43"/>
     </row>
-    <row r="30" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="33"/>
       <c r="B30" s="34" t="s">
         <v>67</v>
@@ -6562,10 +6695,10 @@
       <c r="BS30" s="43"/>
       <c r="BT30" s="43"/>
     </row>
-    <row r="31" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A31" s="33"/>
       <c r="B31" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="35" t="s">
         <v>59</v>
@@ -6574,13 +6707,13 @@
         <v>24</v>
       </c>
       <c r="E31" s="36">
-        <v>45041</v>
+        <v>45049</v>
       </c>
       <c r="F31" s="36">
         <v>45053</v>
       </c>
       <c r="G31" s="37">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="H31" s="41"/>
       <c r="I31" s="42"/>
@@ -6598,12 +6731,12 @@
       <c r="U31" s="43"/>
       <c r="V31" s="43"/>
       <c r="W31" s="43"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="53"/>
-      <c r="AC31" s="53"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="43"/>
+      <c r="Z31" s="43"/>
+      <c r="AA31" s="43"/>
+      <c r="AB31" s="43"/>
+      <c r="AC31" s="43"/>
       <c r="AD31" s="53"/>
       <c r="AE31" s="53"/>
       <c r="AF31" s="53"/>
@@ -6648,7 +6781,7 @@
       <c r="BS31" s="43"/>
       <c r="BT31" s="43"/>
     </row>
-    <row r="32" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:72" ht="21" customHeight="1">
       <c r="A32" s="18"/>
       <c r="B32" s="28">
         <v>5</v>
@@ -6726,7 +6859,7 @@
       <c r="BS32" s="30"/>
       <c r="BT32" s="30"/>
     </row>
-    <row r="33" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A33" s="33"/>
       <c r="B33" s="34">
         <v>5.0999999999999996</v>
@@ -6812,13 +6945,13 @@
       <c r="BS33" s="43"/>
       <c r="BT33" s="43"/>
     </row>
-    <row r="34" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A34" s="33"/>
       <c r="B34" s="34" t="s">
         <v>37</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" s="45" t="s">
         <v>33</v>
@@ -6898,7 +7031,7 @@
       <c r="BS34" s="43"/>
       <c r="BT34" s="43"/>
     </row>
-    <row r="35" spans="1:72" ht="29.45" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:72" ht="29.5" customHeight="1" outlineLevel="1">
       <c r="A35" s="33"/>
       <c r="B35" s="34" t="s">
         <v>34</v>
@@ -6907,7 +7040,7 @@
         <v>60</v>
       </c>
       <c r="D35" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E35" s="36">
         <v>45033</v>
@@ -6984,13 +7117,13 @@
       <c r="BS35" s="43"/>
       <c r="BT35" s="43"/>
     </row>
-    <row r="36" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A36" s="33"/>
       <c r="B36" s="34" t="s">
         <v>34</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="45" t="s">
         <v>33</v>
@@ -7070,13 +7203,13 @@
       <c r="BS36" s="43"/>
       <c r="BT36" s="43"/>
     </row>
-    <row r="37" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A37" s="33"/>
       <c r="B37" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="45" t="s">
         <v>33</v>
@@ -7156,16 +7289,16 @@
       <c r="BS37" s="43"/>
       <c r="BT37" s="43"/>
     </row>
-    <row r="38" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A38" s="33"/>
       <c r="B38" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="36">
         <v>45042</v>
@@ -7242,13 +7375,13 @@
       <c r="BS38" s="43"/>
       <c r="BT38" s="43"/>
     </row>
-    <row r="39" spans="1:72" ht="36.6" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:72" ht="36.65" customHeight="1" outlineLevel="1">
       <c r="A39" s="33"/>
       <c r="B39" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D39" s="45" t="s">
         <v>33</v>
@@ -7328,16 +7461,16 @@
       <c r="BS39" s="43"/>
       <c r="BT39" s="43"/>
     </row>
-    <row r="40" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A40" s="33"/>
       <c r="B40" s="34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D40" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E40" s="36">
         <v>885102</v>
@@ -7365,11 +7498,11 @@
       <c r="V40" s="43"/>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
-      <c r="Y40" s="82"/>
-      <c r="Z40" s="82"/>
+      <c r="Y40" s="61"/>
+      <c r="Z40" s="61"/>
       <c r="AA40" s="54"/>
       <c r="AB40" s="54"/>
-      <c r="AC40" s="82"/>
+      <c r="AC40" s="61"/>
       <c r="AD40" s="43"/>
       <c r="AE40" s="43"/>
       <c r="AF40" s="43"/>
@@ -7414,16 +7547,16 @@
       <c r="BS40" s="43"/>
       <c r="BT40" s="43"/>
     </row>
-    <row r="41" spans="1:72" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:72" ht="26" outlineLevel="1">
       <c r="A41" s="33"/>
       <c r="B41" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="35" t="s">
-        <v>120</v>
-      </c>
       <c r="D41" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E41" s="36">
         <v>885104</v>
@@ -7451,9 +7584,9 @@
       <c r="V41" s="43"/>
       <c r="W41" s="39"/>
       <c r="X41" s="39"/>
-      <c r="Y41" s="82"/>
-      <c r="Z41" s="82"/>
-      <c r="AA41" s="82"/>
+      <c r="Y41" s="61"/>
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="61"/>
       <c r="AB41" s="54"/>
       <c r="AC41" s="54"/>
       <c r="AD41" s="43"/>
@@ -7500,16 +7633,16 @@
       <c r="BS41" s="43"/>
       <c r="BT41" s="43"/>
     </row>
-    <row r="42" spans="1:72" ht="27.75" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:72" ht="29" outlineLevel="1">
       <c r="A42" s="33"/>
       <c r="B42" s="34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D42" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E42" s="36">
         <v>885106</v>
@@ -7537,10 +7670,10 @@
       <c r="V42" s="43"/>
       <c r="W42" s="39"/>
       <c r="X42" s="39"/>
-      <c r="Y42" s="82"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="82"/>
+      <c r="Y42" s="61"/>
+      <c r="Z42" s="61"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="61"/>
       <c r="AC42" s="54"/>
       <c r="AD42" s="54"/>
       <c r="AE42" s="43"/>
@@ -7586,16 +7719,16 @@
       <c r="BS42" s="43"/>
       <c r="BT42" s="43"/>
     </row>
-    <row r="43" spans="1:72" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:72" ht="26" outlineLevel="1">
       <c r="A43" s="33"/>
       <c r="B43" s="34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D43" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E43" s="36">
         <v>885107</v>
@@ -7623,11 +7756,11 @@
       <c r="V43" s="43"/>
       <c r="W43" s="39"/>
       <c r="X43" s="39"/>
-      <c r="Y43" s="82"/>
-      <c r="Z43" s="82"/>
-      <c r="AA43" s="82"/>
-      <c r="AB43" s="82"/>
-      <c r="AC43" s="82"/>
+      <c r="Y43" s="61"/>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
       <c r="AD43" s="43"/>
       <c r="AE43" s="54"/>
       <c r="AF43" s="54"/>
@@ -7672,16 +7805,16 @@
       <c r="BS43" s="43"/>
       <c r="BT43" s="43"/>
     </row>
-    <row r="44" spans="1:72" ht="30" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:72" ht="26" outlineLevel="1">
       <c r="A44" s="33"/>
       <c r="B44" s="34" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D44" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E44" s="36">
         <v>885109</v>
@@ -7709,11 +7842,11 @@
       <c r="V44" s="43"/>
       <c r="W44" s="39"/>
       <c r="X44" s="39"/>
-      <c r="Y44" s="82"/>
-      <c r="Z44" s="82"/>
-      <c r="AA44" s="82"/>
-      <c r="AB44" s="82"/>
-      <c r="AC44" s="82"/>
+      <c r="Y44" s="61"/>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
       <c r="AD44" s="43"/>
       <c r="AE44" s="43"/>
       <c r="AF44" s="54"/>
@@ -7758,7 +7891,7 @@
       <c r="BS44" s="43"/>
       <c r="BT44" s="43"/>
     </row>
-    <row r="45" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:72" ht="21" customHeight="1">
       <c r="A45" s="18"/>
       <c r="B45" s="28">
         <v>6</v>
@@ -7836,7 +7969,7 @@
       <c r="BS45" s="30"/>
       <c r="BT45" s="30"/>
     </row>
-    <row r="46" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A46" s="33"/>
       <c r="B46" s="34">
         <v>6.1</v>
@@ -7922,7 +8055,7 @@
       <c r="BS46" s="43"/>
       <c r="BT46" s="44"/>
     </row>
-    <row r="47" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A47" s="33"/>
       <c r="B47" s="34" t="s">
         <v>51</v>
@@ -8008,7 +8141,7 @@
       <c r="BS47" s="43"/>
       <c r="BT47" s="44"/>
     </row>
-    <row r="48" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A48" s="51"/>
       <c r="B48" s="34" t="s">
         <v>53</v>
@@ -8094,7 +8227,7 @@
       <c r="BS48" s="43"/>
       <c r="BT48" s="44"/>
     </row>
-    <row r="49" spans="1:72" ht="32.450000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:72" ht="32.5" customHeight="1" outlineLevel="1">
       <c r="A49" s="33"/>
       <c r="B49" s="34" t="s">
         <v>55</v>
@@ -8180,13 +8313,13 @@
       <c r="BS49" s="43"/>
       <c r="BT49" s="44"/>
     </row>
-    <row r="50" spans="1:72" ht="36.950000000000003" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:72" ht="37" customHeight="1" outlineLevel="1">
       <c r="A50" s="33"/>
       <c r="B50" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" s="45" t="s">
         <v>24</v>
@@ -8264,13 +8397,13 @@
       <c r="BS50" s="43"/>
       <c r="BT50" s="44"/>
     </row>
-    <row r="51" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A51" s="51"/>
       <c r="B51" s="34" t="s">
         <v>53</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D51" s="45" t="s">
         <v>24</v>
@@ -8350,7 +8483,7 @@
       <c r="BS51" s="43"/>
       <c r="BT51" s="44"/>
     </row>
-    <row r="52" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:72" ht="21" customHeight="1">
       <c r="A52" s="18"/>
       <c r="B52" s="28">
         <v>7</v>
@@ -8428,13 +8561,13 @@
       <c r="BS52" s="30"/>
       <c r="BT52" s="30"/>
     </row>
-    <row r="53" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A53" s="51"/>
       <c r="B53" s="34">
         <v>7.1</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="45" t="s">
         <v>44</v>
@@ -8514,16 +8647,16 @@
       <c r="BS53" s="43"/>
       <c r="BT53" s="43"/>
     </row>
-    <row r="54" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A54" s="51"/>
       <c r="B54" s="34">
         <v>7.2</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D54" s="45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E54" s="36">
         <v>45050</v>
@@ -8600,16 +8733,16 @@
       <c r="BS54" s="43"/>
       <c r="BT54" s="43"/>
     </row>
-    <row r="55" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A55" s="51"/>
       <c r="B55" s="34">
         <v>7.3</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E55" s="36">
         <v>45050</v>
@@ -8686,13 +8819,13 @@
       <c r="BS55" s="43"/>
       <c r="BT55" s="43"/>
     </row>
-    <row r="56" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A56" s="33"/>
       <c r="B56" s="34">
         <v>7.4</v>
       </c>
       <c r="C56" s="45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D56" s="45" t="s">
         <v>24</v>
@@ -8772,13 +8905,13 @@
       <c r="BS56" s="43"/>
       <c r="BT56" s="43"/>
     </row>
-    <row r="57" spans="1:72" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:72" ht="21" customHeight="1">
       <c r="A57" s="18"/>
       <c r="B57" s="28">
         <v>7</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D57" s="29"/>
       <c r="E57" s="29"/>
@@ -8850,25 +8983,25 @@
       <c r="BS57" s="30"/>
       <c r="BT57" s="30"/>
     </row>
-    <row r="58" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A58" s="51"/>
       <c r="B58" s="34">
         <v>7.1</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E58" s="36">
         <v>45054</v>
       </c>
       <c r="F58" s="36">
-        <v>45063</v>
+        <v>45059</v>
       </c>
       <c r="G58" s="37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H58" s="41"/>
       <c r="I58" s="42"/>
@@ -8895,13 +9028,13 @@
       <c r="AD58" s="43"/>
       <c r="AE58" s="43"/>
       <c r="AF58" s="43"/>
-      <c r="AG58" s="95"/>
-      <c r="AH58" s="96"/>
-      <c r="AI58" s="97"/>
-      <c r="AJ58" s="97"/>
-      <c r="AK58" s="97"/>
-      <c r="AL58" s="95"/>
-      <c r="AM58" s="96"/>
+      <c r="AG58" s="65"/>
+      <c r="AH58" s="66"/>
+      <c r="AI58" s="67"/>
+      <c r="AJ58" s="67"/>
+      <c r="AK58" s="67"/>
+      <c r="AL58" s="43"/>
+      <c r="AM58" s="43"/>
       <c r="AN58" s="43"/>
       <c r="AO58" s="43"/>
       <c r="AP58" s="43"/>
@@ -8936,25 +9069,25 @@
       <c r="BS58" s="43"/>
       <c r="BT58" s="43"/>
     </row>
-    <row r="59" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A59" s="51"/>
       <c r="B59" s="34">
         <v>7.2</v>
       </c>
-      <c r="C59" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="D59" s="45" t="s">
-        <v>137</v>
+      <c r="C59" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>142</v>
       </c>
       <c r="E59" s="36">
-        <v>45064</v>
+        <v>45054</v>
       </c>
       <c r="F59" s="36">
-        <v>45073</v>
+        <v>45061</v>
       </c>
       <c r="G59" s="37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59" s="41"/>
       <c r="I59" s="42"/>
@@ -8981,20 +9114,20 @@
       <c r="AD59" s="43"/>
       <c r="AE59" s="43"/>
       <c r="AF59" s="43"/>
-      <c r="AG59" s="41"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="43"/>
-      <c r="AJ59" s="43"/>
-      <c r="AK59" s="43"/>
-      <c r="AL59" s="41"/>
-      <c r="AM59" s="42"/>
-      <c r="AN59" s="97"/>
-      <c r="AO59" s="97"/>
-      <c r="AP59" s="97"/>
-      <c r="AQ59" s="95"/>
-      <c r="AR59" s="96"/>
-      <c r="AS59" s="97"/>
-      <c r="AT59" s="97"/>
+      <c r="AG59" s="65"/>
+      <c r="AH59" s="66"/>
+      <c r="AI59" s="67"/>
+      <c r="AJ59" s="67"/>
+      <c r="AK59" s="67"/>
+      <c r="AL59" s="65"/>
+      <c r="AM59" s="66"/>
+      <c r="AN59" s="43"/>
+      <c r="AO59" s="43"/>
+      <c r="AP59" s="43"/>
+      <c r="AQ59" s="41"/>
+      <c r="AR59" s="42"/>
+      <c r="AS59" s="43"/>
+      <c r="AT59" s="43"/>
       <c r="AU59" s="43"/>
       <c r="AV59" s="41"/>
       <c r="AW59" s="42"/>
@@ -9022,22 +9155,22 @@
       <c r="BS59" s="43"/>
       <c r="BT59" s="43"/>
     </row>
-    <row r="60" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A60" s="51"/>
       <c r="B60" s="34">
         <v>7.3</v>
       </c>
       <c r="C60" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D60" s="45" t="s">
-        <v>137</v>
-      </c>
       <c r="E60" s="36">
-        <v>885131</v>
+        <v>45064</v>
       </c>
       <c r="F60" s="36">
-        <v>885140</v>
+        <v>45073</v>
       </c>
       <c r="G60" s="37">
         <v>9</v>
@@ -9067,27 +9200,27 @@
       <c r="AD60" s="43"/>
       <c r="AE60" s="43"/>
       <c r="AF60" s="43"/>
-      <c r="AG60" s="41"/>
-      <c r="AH60" s="42"/>
+      <c r="AG60" s="43"/>
+      <c r="AH60" s="43"/>
       <c r="AI60" s="43"/>
       <c r="AJ60" s="43"/>
       <c r="AK60" s="43"/>
-      <c r="AL60" s="41"/>
-      <c r="AM60" s="42"/>
-      <c r="AN60" s="43"/>
-      <c r="AO60" s="43"/>
-      <c r="AP60" s="43"/>
-      <c r="AQ60" s="41"/>
-      <c r="AR60" s="42"/>
-      <c r="AS60" s="43"/>
-      <c r="AT60" s="43"/>
-      <c r="AU60" s="97"/>
-      <c r="AV60" s="95"/>
-      <c r="AW60" s="96"/>
-      <c r="AX60" s="97"/>
-      <c r="AY60" s="97"/>
-      <c r="AZ60" s="97"/>
-      <c r="BA60" s="95"/>
+      <c r="AL60" s="43"/>
+      <c r="AM60" s="43"/>
+      <c r="AN60" s="67"/>
+      <c r="AO60" s="67"/>
+      <c r="AP60" s="67"/>
+      <c r="AQ60" s="67"/>
+      <c r="AR60" s="67"/>
+      <c r="AS60" s="67"/>
+      <c r="AT60" s="67"/>
+      <c r="AU60" s="67"/>
+      <c r="AV60" s="41"/>
+      <c r="AW60" s="42"/>
+      <c r="AX60" s="43"/>
+      <c r="AY60" s="43"/>
+      <c r="AZ60" s="43"/>
+      <c r="BA60" s="41"/>
       <c r="BB60" s="42"/>
       <c r="BC60" s="43"/>
       <c r="BD60" s="43"/>
@@ -9108,7 +9241,7 @@
       <c r="BS60" s="43"/>
       <c r="BT60" s="43"/>
     </row>
-    <row r="61" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A61" s="51"/>
       <c r="B61" s="34">
         <v>7.4</v>
@@ -9116,14 +9249,14 @@
       <c r="C61" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="D61" s="48" t="s">
-        <v>138</v>
+      <c r="D61" s="45" t="s">
+        <v>135</v>
       </c>
       <c r="E61" s="36">
-        <v>45084</v>
+        <v>885131</v>
       </c>
       <c r="F61" s="36">
-        <v>45093</v>
+        <v>885140</v>
       </c>
       <c r="G61" s="37">
         <v>9</v>
@@ -9167,20 +9300,20 @@
       <c r="AR61" s="42"/>
       <c r="AS61" s="43"/>
       <c r="AT61" s="43"/>
-      <c r="AU61" s="43"/>
-      <c r="AV61" s="41"/>
-      <c r="AW61" s="42"/>
-      <c r="AX61" s="43"/>
-      <c r="AY61" s="43"/>
-      <c r="AZ61" s="43"/>
-      <c r="BA61" s="41"/>
-      <c r="BB61" s="96"/>
-      <c r="BC61" s="97"/>
-      <c r="BD61" s="97"/>
-      <c r="BE61" s="97"/>
-      <c r="BF61" s="95"/>
-      <c r="BG61" s="96"/>
-      <c r="BH61" s="97"/>
+      <c r="AU61" s="67"/>
+      <c r="AV61" s="65"/>
+      <c r="AW61" s="66"/>
+      <c r="AX61" s="67"/>
+      <c r="AY61" s="67"/>
+      <c r="AZ61" s="67"/>
+      <c r="BA61" s="65"/>
+      <c r="BB61" s="42"/>
+      <c r="BC61" s="43"/>
+      <c r="BD61" s="43"/>
+      <c r="BE61" s="43"/>
+      <c r="BF61" s="41"/>
+      <c r="BG61" s="42"/>
+      <c r="BH61" s="43"/>
       <c r="BI61" s="43"/>
       <c r="BJ61" s="43"/>
       <c r="BK61" s="41"/>
@@ -9194,25 +9327,25 @@
       <c r="BS61" s="43"/>
       <c r="BT61" s="43"/>
     </row>
-    <row r="62" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="33"/>
+    <row r="62" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A62" s="51"/>
       <c r="B62" s="34">
         <v>7.5</v>
       </c>
-      <c r="C62" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="45" t="s">
-        <v>139</v>
+      <c r="C62" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>136</v>
       </c>
       <c r="E62" s="36">
-        <v>45094</v>
+        <v>45084</v>
       </c>
       <c r="F62" s="36">
-        <v>45100</v>
+        <v>45093</v>
       </c>
       <c r="G62" s="37">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H62" s="41"/>
       <c r="I62" s="42"/>
@@ -9260,19 +9393,19 @@
       <c r="AY62" s="43"/>
       <c r="AZ62" s="43"/>
       <c r="BA62" s="41"/>
-      <c r="BB62" s="42"/>
-      <c r="BC62" s="43"/>
-      <c r="BD62" s="43"/>
-      <c r="BE62" s="43"/>
-      <c r="BF62" s="41"/>
-      <c r="BG62" s="42"/>
-      <c r="BH62" s="43"/>
-      <c r="BI62" s="97"/>
-      <c r="BJ62" s="97"/>
-      <c r="BK62" s="95"/>
-      <c r="BL62" s="96"/>
-      <c r="BM62" s="97"/>
-      <c r="BN62" s="97"/>
+      <c r="BB62" s="66"/>
+      <c r="BC62" s="67"/>
+      <c r="BD62" s="67"/>
+      <c r="BE62" s="67"/>
+      <c r="BF62" s="65"/>
+      <c r="BG62" s="66"/>
+      <c r="BH62" s="67"/>
+      <c r="BI62" s="43"/>
+      <c r="BJ62" s="43"/>
+      <c r="BK62" s="41"/>
+      <c r="BL62" s="42"/>
+      <c r="BM62" s="43"/>
+      <c r="BN62" s="43"/>
       <c r="BO62" s="43"/>
       <c r="BP62" s="41"/>
       <c r="BQ62" s="42"/>
@@ -9280,25 +9413,25 @@
       <c r="BS62" s="43"/>
       <c r="BT62" s="43"/>
     </row>
-    <row r="63" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
       <c r="A63" s="33"/>
       <c r="B63" s="34">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="C63" s="45" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D63" s="45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E63" s="36">
-        <v>45101</v>
+        <v>45094</v>
       </c>
       <c r="F63" s="36">
-        <v>45102</v>
+        <v>45097</v>
       </c>
       <c r="G63" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H63" s="41"/>
       <c r="I63" s="42"/>
@@ -9355,33 +9488,710 @@
       <c r="BH63" s="43"/>
       <c r="BI63" s="43"/>
       <c r="BJ63" s="43"/>
-      <c r="BK63" s="41"/>
-      <c r="BL63" s="42"/>
-      <c r="BM63" s="43"/>
-      <c r="BN63" s="43"/>
-      <c r="BO63" s="97"/>
-      <c r="BP63" s="95"/>
+      <c r="BK63" s="67"/>
+      <c r="BL63" s="67"/>
+      <c r="BM63" s="67"/>
+      <c r="BN63" s="67"/>
+      <c r="BO63" s="43"/>
+      <c r="BP63" s="41"/>
       <c r="BQ63" s="42"/>
       <c r="BR63" s="43"/>
       <c r="BS63" s="43"/>
       <c r="BT63" s="43"/>
     </row>
+    <row r="64" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A64" s="33"/>
+      <c r="B64" s="34">
+        <v>7.7</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E64" s="36">
+        <v>45097</v>
+      </c>
+      <c r="F64" s="36">
+        <v>45102</v>
+      </c>
+      <c r="G64" s="37">
+        <v>6</v>
+      </c>
+      <c r="H64" s="41"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="43"/>
+      <c r="K64" s="43"/>
+      <c r="L64" s="43"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="43"/>
+      <c r="P64" s="43"/>
+      <c r="Q64" s="43"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
+      <c r="W64" s="41"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="43"/>
+      <c r="Z64" s="43"/>
+      <c r="AA64" s="43"/>
+      <c r="AB64" s="41"/>
+      <c r="AC64" s="42"/>
+      <c r="AD64" s="43"/>
+      <c r="AE64" s="43"/>
+      <c r="AF64" s="43"/>
+      <c r="AG64" s="41"/>
+      <c r="AH64" s="42"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="43"/>
+      <c r="AK64" s="43"/>
+      <c r="AL64" s="41"/>
+      <c r="AM64" s="42"/>
+      <c r="AN64" s="43"/>
+      <c r="AO64" s="43"/>
+      <c r="AP64" s="43"/>
+      <c r="AQ64" s="41"/>
+      <c r="AR64" s="42"/>
+      <c r="AS64" s="43"/>
+      <c r="AT64" s="43"/>
+      <c r="AU64" s="43"/>
+      <c r="AV64" s="41"/>
+      <c r="AW64" s="42"/>
+      <c r="AX64" s="43"/>
+      <c r="AY64" s="43"/>
+      <c r="AZ64" s="43"/>
+      <c r="BA64" s="41"/>
+      <c r="BB64" s="42"/>
+      <c r="BC64" s="43"/>
+      <c r="BD64" s="43"/>
+      <c r="BE64" s="43"/>
+      <c r="BF64" s="41"/>
+      <c r="BG64" s="42"/>
+      <c r="BH64" s="43"/>
+      <c r="BI64" s="43"/>
+      <c r="BJ64" s="43"/>
+      <c r="BK64" s="41"/>
+      <c r="BL64" s="67"/>
+      <c r="BM64" s="67"/>
+      <c r="BN64" s="67"/>
+      <c r="BO64" s="67"/>
+      <c r="BP64" s="42"/>
+      <c r="BQ64" s="42"/>
+      <c r="BR64" s="43"/>
+      <c r="BS64" s="43"/>
+      <c r="BT64" s="43"/>
+    </row>
+    <row r="65" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A65" s="33"/>
+      <c r="B65" s="34">
+        <v>7.8</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="36">
+        <v>45101</v>
+      </c>
+      <c r="F65" s="36">
+        <v>45102</v>
+      </c>
+      <c r="G65" s="37">
+        <v>2</v>
+      </c>
+      <c r="H65" s="41"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="43"/>
+      <c r="K65" s="43"/>
+      <c r="L65" s="43"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="43"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="43"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
+      <c r="W65" s="41"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="43"/>
+      <c r="Z65" s="43"/>
+      <c r="AA65" s="43"/>
+      <c r="AB65" s="41"/>
+      <c r="AC65" s="42"/>
+      <c r="AD65" s="43"/>
+      <c r="AE65" s="43"/>
+      <c r="AF65" s="43"/>
+      <c r="AG65" s="41"/>
+      <c r="AH65" s="42"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="43"/>
+      <c r="AK65" s="43"/>
+      <c r="AL65" s="41"/>
+      <c r="AM65" s="42"/>
+      <c r="AN65" s="43"/>
+      <c r="AO65" s="43"/>
+      <c r="AP65" s="43"/>
+      <c r="AQ65" s="41"/>
+      <c r="AR65" s="42"/>
+      <c r="AS65" s="43"/>
+      <c r="AT65" s="43"/>
+      <c r="AU65" s="43"/>
+      <c r="AV65" s="41"/>
+      <c r="AW65" s="42"/>
+      <c r="AX65" s="43"/>
+      <c r="AY65" s="43"/>
+      <c r="AZ65" s="43"/>
+      <c r="BA65" s="41"/>
+      <c r="BB65" s="42"/>
+      <c r="BC65" s="43"/>
+      <c r="BD65" s="43"/>
+      <c r="BE65" s="43"/>
+      <c r="BF65" s="41"/>
+      <c r="BG65" s="42"/>
+      <c r="BH65" s="43"/>
+      <c r="BI65" s="43"/>
+      <c r="BJ65" s="43"/>
+      <c r="BK65" s="41"/>
+      <c r="BL65" s="42"/>
+      <c r="BM65" s="43"/>
+      <c r="BN65" s="43"/>
+      <c r="BO65" s="67"/>
+      <c r="BP65" s="65"/>
+      <c r="BQ65" s="42"/>
+      <c r="BR65" s="43"/>
+      <c r="BS65" s="43"/>
+      <c r="BT65" s="43"/>
+    </row>
+    <row r="66" spans="1:72" ht="21" customHeight="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="28">
+        <v>8</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
+      <c r="R66" s="30"/>
+      <c r="S66" s="30"/>
+      <c r="T66" s="30"/>
+      <c r="U66" s="30"/>
+      <c r="V66" s="30"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+      <c r="AB66" s="30"/>
+      <c r="AC66" s="30"/>
+      <c r="AD66" s="30"/>
+      <c r="AE66" s="30"/>
+      <c r="AF66" s="30"/>
+      <c r="AG66" s="30"/>
+      <c r="AH66" s="30"/>
+      <c r="AI66" s="30"/>
+      <c r="AJ66" s="30"/>
+      <c r="AK66" s="30"/>
+      <c r="AL66" s="30"/>
+      <c r="AM66" s="30"/>
+      <c r="AN66" s="30"/>
+      <c r="AO66" s="30"/>
+      <c r="AP66" s="30"/>
+      <c r="AQ66" s="30"/>
+      <c r="AR66" s="30"/>
+      <c r="AS66" s="30"/>
+      <c r="AT66" s="30"/>
+      <c r="AU66" s="30"/>
+      <c r="AV66" s="30"/>
+      <c r="AW66" s="30"/>
+      <c r="AX66" s="30"/>
+      <c r="AY66" s="30"/>
+      <c r="AZ66" s="30"/>
+      <c r="BA66" s="30"/>
+      <c r="BB66" s="30"/>
+      <c r="BC66" s="30"/>
+      <c r="BD66" s="30"/>
+      <c r="BE66" s="30"/>
+      <c r="BF66" s="30"/>
+      <c r="BG66" s="30"/>
+      <c r="BH66" s="30"/>
+      <c r="BI66" s="30"/>
+      <c r="BJ66" s="30"/>
+      <c r="BK66" s="30"/>
+      <c r="BL66" s="30"/>
+      <c r="BM66" s="30"/>
+      <c r="BN66" s="30"/>
+      <c r="BO66" s="30"/>
+      <c r="BP66" s="30"/>
+      <c r="BQ66" s="30"/>
+      <c r="BR66" s="30"/>
+      <c r="BS66" s="30"/>
+      <c r="BT66" s="30"/>
+    </row>
+    <row r="67" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A67" s="51"/>
+      <c r="B67" s="34">
+        <v>8.1</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="E67" s="36">
+        <v>45092</v>
+      </c>
+      <c r="F67" s="36">
+        <v>45103</v>
+      </c>
+      <c r="G67" s="37">
+        <v>11</v>
+      </c>
+      <c r="H67" s="41"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="43"/>
+      <c r="K67" s="43"/>
+      <c r="L67" s="43"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="43"/>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="43"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
+      <c r="W67" s="41"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="43"/>
+      <c r="Z67" s="43"/>
+      <c r="AA67" s="43"/>
+      <c r="AB67" s="41"/>
+      <c r="AC67" s="42"/>
+      <c r="AD67" s="43"/>
+      <c r="AE67" s="43"/>
+      <c r="AF67" s="43"/>
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="43"/>
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="43"/>
+      <c r="AK67" s="43"/>
+      <c r="AL67" s="43"/>
+      <c r="AM67" s="43"/>
+      <c r="AN67" s="43"/>
+      <c r="AO67" s="43"/>
+      <c r="AP67" s="43"/>
+      <c r="AQ67" s="41"/>
+      <c r="AR67" s="42"/>
+      <c r="AS67" s="43"/>
+      <c r="AT67" s="43"/>
+      <c r="AU67" s="43"/>
+      <c r="AV67" s="41"/>
+      <c r="AW67" s="42"/>
+      <c r="AX67" s="43"/>
+      <c r="AY67" s="43"/>
+      <c r="AZ67" s="43"/>
+      <c r="BA67" s="41"/>
+      <c r="BB67" s="42"/>
+      <c r="BC67" s="43"/>
+      <c r="BD67" s="43"/>
+      <c r="BE67" s="43"/>
+      <c r="BF67" s="41"/>
+      <c r="BG67" s="42"/>
+      <c r="BH67" s="43"/>
+      <c r="BI67" s="95"/>
+      <c r="BJ67" s="95"/>
+      <c r="BK67" s="95"/>
+      <c r="BL67" s="95"/>
+      <c r="BM67" s="95"/>
+      <c r="BN67" s="95"/>
+      <c r="BO67" s="95"/>
+      <c r="BP67" s="95"/>
+      <c r="BQ67" s="95"/>
+      <c r="BR67" s="43"/>
+      <c r="BS67" s="43"/>
+      <c r="BT67" s="43"/>
+    </row>
+    <row r="68" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A68" s="51"/>
+      <c r="B68" s="34">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D68" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="36">
+        <v>45097</v>
+      </c>
+      <c r="F68" s="36">
+        <v>45103</v>
+      </c>
+      <c r="G68" s="37">
+        <v>7</v>
+      </c>
+      <c r="H68" s="41"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="43"/>
+      <c r="K68" s="43"/>
+      <c r="L68" s="43"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="43"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="43"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="43"/>
+      <c r="Z68" s="43"/>
+      <c r="AA68" s="43"/>
+      <c r="AB68" s="41"/>
+      <c r="AC68" s="42"/>
+      <c r="AD68" s="43"/>
+      <c r="AE68" s="43"/>
+      <c r="AF68" s="43"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="43"/>
+      <c r="AK68" s="43"/>
+      <c r="AL68" s="43"/>
+      <c r="AM68" s="43"/>
+      <c r="AN68" s="43"/>
+      <c r="AO68" s="43"/>
+      <c r="AP68" s="43"/>
+      <c r="AQ68" s="41"/>
+      <c r="AR68" s="42"/>
+      <c r="AS68" s="43"/>
+      <c r="AT68" s="43"/>
+      <c r="AU68" s="43"/>
+      <c r="AV68" s="41"/>
+      <c r="AW68" s="42"/>
+      <c r="AX68" s="43"/>
+      <c r="AY68" s="43"/>
+      <c r="AZ68" s="43"/>
+      <c r="BA68" s="41"/>
+      <c r="BB68" s="42"/>
+      <c r="BC68" s="43"/>
+      <c r="BD68" s="43"/>
+      <c r="BE68" s="43"/>
+      <c r="BF68" s="41"/>
+      <c r="BG68" s="42"/>
+      <c r="BH68" s="42"/>
+      <c r="BI68" s="42"/>
+      <c r="BJ68" s="42"/>
+      <c r="BK68" s="42"/>
+      <c r="BL68" s="95"/>
+      <c r="BM68" s="95"/>
+      <c r="BN68" s="95"/>
+      <c r="BO68" s="95"/>
+      <c r="BP68" s="95"/>
+      <c r="BQ68" s="95"/>
+      <c r="BR68" s="43"/>
+      <c r="BS68" s="43"/>
+      <c r="BT68" s="43"/>
+    </row>
+    <row r="69" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A69" s="51"/>
+      <c r="B69" s="34">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="36">
+        <v>45092</v>
+      </c>
+      <c r="F69" s="36">
+        <v>45100</v>
+      </c>
+      <c r="G69" s="37">
+        <v>8</v>
+      </c>
+      <c r="H69" s="41"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="43"/>
+      <c r="K69" s="43"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="43"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="43"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
+      <c r="W69" s="41"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="43"/>
+      <c r="Z69" s="43"/>
+      <c r="AA69" s="43"/>
+      <c r="AB69" s="41"/>
+      <c r="AC69" s="42"/>
+      <c r="AD69" s="43"/>
+      <c r="AE69" s="43"/>
+      <c r="AF69" s="43"/>
+      <c r="AG69" s="43"/>
+      <c r="AH69" s="43"/>
+      <c r="AI69" s="43"/>
+      <c r="AJ69" s="43"/>
+      <c r="AK69" s="43"/>
+      <c r="AL69" s="43"/>
+      <c r="AM69" s="43"/>
+      <c r="AN69" s="43"/>
+      <c r="AO69" s="43"/>
+      <c r="AP69" s="43"/>
+      <c r="AQ69" s="41"/>
+      <c r="AR69" s="42"/>
+      <c r="AS69" s="43"/>
+      <c r="AT69" s="43"/>
+      <c r="AU69" s="43"/>
+      <c r="AV69" s="41"/>
+      <c r="AW69" s="42"/>
+      <c r="AX69" s="43"/>
+      <c r="AY69" s="43"/>
+      <c r="AZ69" s="43"/>
+      <c r="BA69" s="41"/>
+      <c r="BB69" s="42"/>
+      <c r="BC69" s="43"/>
+      <c r="BD69" s="43"/>
+      <c r="BE69" s="43"/>
+      <c r="BF69" s="41"/>
+      <c r="BG69" s="42"/>
+      <c r="BH69" s="42"/>
+      <c r="BI69" s="42"/>
+      <c r="BJ69" s="95"/>
+      <c r="BK69" s="95"/>
+      <c r="BL69" s="95"/>
+      <c r="BM69" s="95"/>
+      <c r="BN69" s="95"/>
+      <c r="BO69" s="95"/>
+      <c r="BP69" s="43"/>
+      <c r="BQ69" s="43"/>
+      <c r="BR69" s="43"/>
+      <c r="BS69" s="43"/>
+      <c r="BT69" s="43"/>
+    </row>
+    <row r="70" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A70" s="51"/>
+      <c r="B70" s="34">
+        <v>8.4</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="36">
+        <v>45092</v>
+      </c>
+      <c r="F70" s="36">
+        <v>45100</v>
+      </c>
+      <c r="G70" s="37">
+        <v>8</v>
+      </c>
+      <c r="H70" s="41"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="43"/>
+      <c r="K70" s="43"/>
+      <c r="L70" s="43"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="43"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="43"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="43"/>
+      <c r="V70" s="43"/>
+      <c r="W70" s="41"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="43"/>
+      <c r="Z70" s="43"/>
+      <c r="AA70" s="43"/>
+      <c r="AB70" s="41"/>
+      <c r="AC70" s="42"/>
+      <c r="AD70" s="43"/>
+      <c r="AE70" s="43"/>
+      <c r="AF70" s="43"/>
+      <c r="AG70" s="43"/>
+      <c r="AH70" s="43"/>
+      <c r="AI70" s="43"/>
+      <c r="AJ70" s="43"/>
+      <c r="AK70" s="43"/>
+      <c r="AL70" s="43"/>
+      <c r="AM70" s="43"/>
+      <c r="AN70" s="43"/>
+      <c r="AO70" s="43"/>
+      <c r="AP70" s="43"/>
+      <c r="AQ70" s="41"/>
+      <c r="AR70" s="42"/>
+      <c r="AS70" s="43"/>
+      <c r="AT70" s="43"/>
+      <c r="AU70" s="43"/>
+      <c r="AV70" s="41"/>
+      <c r="AW70" s="42"/>
+      <c r="AX70" s="43"/>
+      <c r="AY70" s="43"/>
+      <c r="AZ70" s="43"/>
+      <c r="BA70" s="41"/>
+      <c r="BB70" s="42"/>
+      <c r="BC70" s="43"/>
+      <c r="BD70" s="43"/>
+      <c r="BE70" s="43"/>
+      <c r="BF70" s="41"/>
+      <c r="BG70" s="42"/>
+      <c r="BH70" s="42"/>
+      <c r="BI70" s="42"/>
+      <c r="BJ70" s="95"/>
+      <c r="BK70" s="95"/>
+      <c r="BL70" s="95"/>
+      <c r="BM70" s="95"/>
+      <c r="BN70" s="95"/>
+      <c r="BO70" s="95"/>
+      <c r="BP70" s="43"/>
+      <c r="BQ70" s="43"/>
+      <c r="BR70" s="43"/>
+      <c r="BS70" s="43"/>
+      <c r="BT70" s="43"/>
+    </row>
+    <row r="71" spans="1:72" ht="17.25" customHeight="1" outlineLevel="1">
+      <c r="A71" s="51"/>
+      <c r="B71" s="34">
+        <v>8.5</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="D71" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="36">
+        <v>45102</v>
+      </c>
+      <c r="F71" s="36">
+        <v>45103</v>
+      </c>
+      <c r="G71" s="37">
+        <v>2</v>
+      </c>
+      <c r="H71" s="41"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="43"/>
+      <c r="K71" s="43"/>
+      <c r="L71" s="43"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="43"/>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="43"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="43"/>
+      <c r="U71" s="43"/>
+      <c r="V71" s="43"/>
+      <c r="W71" s="41"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="43"/>
+      <c r="Z71" s="43"/>
+      <c r="AA71" s="43"/>
+      <c r="AB71" s="41"/>
+      <c r="AC71" s="42"/>
+      <c r="AD71" s="43"/>
+      <c r="AE71" s="43"/>
+      <c r="AF71" s="43"/>
+      <c r="AG71" s="43"/>
+      <c r="AH71" s="43"/>
+      <c r="AI71" s="43"/>
+      <c r="AJ71" s="43"/>
+      <c r="AK71" s="43"/>
+      <c r="AL71" s="43"/>
+      <c r="AM71" s="43"/>
+      <c r="AN71" s="43"/>
+      <c r="AO71" s="43"/>
+      <c r="AP71" s="43"/>
+      <c r="AQ71" s="41"/>
+      <c r="AR71" s="42"/>
+      <c r="AS71" s="43"/>
+      <c r="AT71" s="43"/>
+      <c r="AU71" s="43"/>
+      <c r="AV71" s="41"/>
+      <c r="AW71" s="42"/>
+      <c r="AX71" s="43"/>
+      <c r="AY71" s="43"/>
+      <c r="AZ71" s="43"/>
+      <c r="BA71" s="41"/>
+      <c r="BB71" s="42"/>
+      <c r="BC71" s="43"/>
+      <c r="BD71" s="43"/>
+      <c r="BE71" s="43"/>
+      <c r="BF71" s="41"/>
+      <c r="BG71" s="42"/>
+      <c r="BH71" s="42"/>
+      <c r="BI71" s="42"/>
+      <c r="BJ71" s="42"/>
+      <c r="BK71" s="42"/>
+      <c r="BL71" s="42"/>
+      <c r="BM71" s="42"/>
+      <c r="BN71" s="42"/>
+      <c r="BO71" s="95"/>
+      <c r="BP71" s="95"/>
+      <c r="BQ71" s="43"/>
+      <c r="BR71" s="43"/>
+      <c r="BS71" s="43"/>
+      <c r="BT71" s="43"/>
+    </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="BP8:BT8"/>
-    <mergeCell ref="BP9:BT9"/>
-    <mergeCell ref="BF9:BJ9"/>
-    <mergeCell ref="BK9:BO9"/>
-    <mergeCell ref="BA9:BE9"/>
-    <mergeCell ref="BA8:BO8"/>
-    <mergeCell ref="W9:AA9"/>
-    <mergeCell ref="AL8:AZ8"/>
-    <mergeCell ref="W8:AK8"/>
-    <mergeCell ref="AG9:AK9"/>
-    <mergeCell ref="AB9:AF9"/>
-    <mergeCell ref="AQ9:AU9"/>
-    <mergeCell ref="AV9:AZ9"/>
-    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="R9:V9"/>
+    <mergeCell ref="M9:Q9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H8:V8"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="O5:Z5"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="O4:AA4"/>
+    <mergeCell ref="N2:AF2"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="D4:G4"/>
@@ -9392,17 +10202,20 @@
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="O5:Z5"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="O4:AA4"/>
-    <mergeCell ref="N2:AF2"/>
-    <mergeCell ref="R9:V9"/>
-    <mergeCell ref="M9:Q9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="H8:V8"/>
-    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="W9:AA9"/>
+    <mergeCell ref="AL8:AZ8"/>
+    <mergeCell ref="W8:AK8"/>
+    <mergeCell ref="AG9:AK9"/>
+    <mergeCell ref="AB9:AF9"/>
+    <mergeCell ref="AQ9:AU9"/>
+    <mergeCell ref="AV9:AZ9"/>
+    <mergeCell ref="AL9:AP9"/>
+    <mergeCell ref="BP8:BT8"/>
+    <mergeCell ref="BP9:BT9"/>
+    <mergeCell ref="BF9:BJ9"/>
+    <mergeCell ref="BK9:BO9"/>
+    <mergeCell ref="BA9:BE9"/>
+    <mergeCell ref="BA8:BO8"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
